--- a/testdata/TestData_siebel.xlsx
+++ b/testdata/TestData_siebel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\TestAutomationSuite\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xerox\AutomationTestSuite\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="186">
   <si>
     <t>UserId</t>
   </si>
@@ -72,6 +72,9 @@
     <t>BankRoutine</t>
   </si>
   <si>
+    <t>private</t>
+  </si>
+  <si>
     <t>talk2mahapatra@gmail.com</t>
   </si>
   <si>
@@ -147,6 +150,9 @@
     <t>CHROME</t>
   </si>
   <si>
+    <t>WALK-IN</t>
+  </si>
+  <si>
     <t>NO</t>
   </si>
   <si>
@@ -210,13 +216,13 @@
     <t>no</t>
   </si>
   <si>
+    <t>CASH</t>
+  </si>
+  <si>
     <t>Expected Result</t>
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>Account Should be Created With Account #</t>
   </si>
   <si>
     <t>sumitb</t>
@@ -263,60 +269,370 @@
     <t>joe</t>
   </si>
   <si>
-    <t>MAILING:135 HAMILTON TER: :33414:Prince Albert Central:SK:CAN,
-BILLING:135 HAMILTON TER::33414:Prince Albert Central:SK:CAN</t>
+    <t>Account Should be Created 
+With Account #</t>
+  </si>
+  <si>
+    <t>WILLSON</t>
+  </si>
+  <si>
+    <t>Baker</t>
+  </si>
+  <si>
+    <t>Mastercard</t>
+  </si>
+  <si>
+    <t>wer9999:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,
+wer8888:FL:STANDARD:USA:REGULAR:2014:BUICK:SPECIAL,
+wer7777:FL:STANDARD:USA:REGULAR:2014:BRAUN:ENTERVAN II, wer6666:FL:STANDARD:USA:REGULAR:2014:BMW:M</t>
+  </si>
+  <si>
+    <t>HMT Services</t>
+  </si>
+  <si>
+    <t>ISPPRE</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>cba1234:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,
+cba4321:FL:STANDARD:USA:REGULAR:2014:BUICK:SPECIAL,
+cba6789:FL:STANDARD:USA:REGULAR:2014:BRAUN:ENTERVAN II, cba9876:FL:STANDARD:USA:REGULAR:2014:BMW:M</t>
+  </si>
+  <si>
+    <t>ABCD Pvt Ltd</t>
+  </si>
+  <si>
+    <t>BPOSTVEDREG</t>
+  </si>
+  <si>
+    <t>jacob</t>
+  </si>
+  <si>
+    <t>DAVIS</t>
+  </si>
+  <si>
+    <t>def9999:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,
+def8888:FL:STANDARD:USA:REGULAR:2014:BUICK:SPECIAL,
+def7777:FL:STANDARD:USA:REGULAR:2014:BRAUN:ENTERVAN II, def6666:FL:STANDARD:USA:REGULAR:2014:BMW:M</t>
+  </si>
+  <si>
+    <t>PK Services</t>
+  </si>
+  <si>
+    <t>ISPPOST</t>
+  </si>
+  <si>
+    <t>Alexander</t>
+  </si>
+  <si>
+    <t>Gracia</t>
+  </si>
+  <si>
+    <t>wer5555:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,
+wer5656:FL:STANDARD:USA:REGULAR:2014:BUICK:SPECIAL,
+wer5757:FL:STANDARD:USA:REGULAR:2014:BRAUN:ENTERVAN II, wer5858:FL:STANDARD:USA:REGULAR:2014:BMW:M</t>
+  </si>
+  <si>
+    <t>Bluesky Pvt Ltd</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>IEXPLORE</t>
+  </si>
+  <si>
+    <t>MAILING:9369 TRIESTE DRIVE::33913:FORT MYERS:FL:USA,
+BILLING:9369 TRIESTE DRIVE::33913:FORT MYERS:FL:USA</t>
+  </si>
+  <si>
+    <t>MAILING:Avenida Central 310: :6002:Colima:CL:MEX,
+BILLING:Avenida Central 310: :6002:Colima:CL:MEX,
+SHIPPING:Avenida Central 310: :6002:Colima:CL:MEX</t>
+  </si>
+  <si>
+    <t>MAILING:632 CATHERINE FOSTER LANE: :32259:SAINT JOHNS:FL:USA,
+BILLING:632 CATHERINE FOSTER LANE: :32259:SAINT JOHNS:FL:USA</t>
+  </si>
+  <si>
+    <t>TC_0015</t>
+  </si>
+  <si>
+    <t>TC_0016</t>
+  </si>
+  <si>
+    <t>TC_0017</t>
+  </si>
+  <si>
+    <t>TC_0018</t>
+  </si>
+  <si>
+    <t>TC_0019</t>
+  </si>
+  <si>
+    <t>TC_0020</t>
+  </si>
+  <si>
+    <t>TC_0021</t>
+  </si>
+  <si>
+    <t>TC_0022</t>
+  </si>
+  <si>
+    <t>TC_0023</t>
+  </si>
+  <si>
+    <t>TC_0024</t>
+  </si>
+  <si>
+    <t>TC_0025</t>
+  </si>
+  <si>
+    <t>TC_0026</t>
+  </si>
+  <si>
+    <t>TC_0027</t>
+  </si>
+  <si>
+    <t>TC_0028</t>
+  </si>
+  <si>
+    <t>TC_0029</t>
+  </si>
+  <si>
+    <t>TC_0030</t>
+  </si>
+  <si>
+    <t>TC_0031</t>
+  </si>
+  <si>
+    <t>TC_0032</t>
+  </si>
+  <si>
+    <t>ACEO_012</t>
+  </si>
+  <si>
+    <t>ACEO_014</t>
+  </si>
+  <si>
+    <t>ACEO_045</t>
+  </si>
+  <si>
+    <t>ACEO_081</t>
+  </si>
+  <si>
+    <t>ACEO_084</t>
+  </si>
+  <si>
+    <t>ACEO_092</t>
+  </si>
+  <si>
+    <t>ACEO_017</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t>Wilson</t>
+  </si>
+  <si>
+    <t>Red Carpet Services</t>
+  </si>
+  <si>
+    <t>MAILING:Avenida Central 310: :34407:Durango:DG:MEX,
+BILLING:Avenida Central 310: :34407:Durango:DG:MEX,
+SHIPPING:Avenida Central 310: :34407:Durango:DG:MEX</t>
+  </si>
+  <si>
+    <t>bbb1111:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,
+bbb2222:FL:STANDARD:USA:REGULAR:2014:BUICK:SPECIAL,
+bbb3333:FL:STANDARD:USA:REGULAR:2014:BRAUN:ENTERVAN II, bbb4444:FL:STANDARD:USA:REGULAR:2014:BMW:M</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>GOVPOST,
+NRV</t>
+  </si>
+  <si>
+    <t>ACEO_020</t>
+  </si>
+  <si>
+    <t>MAILING:120 WEYBRIDGE CIR APT A::33411:ROYAL PALM BEACH:FL:USA,
+BILLING:120 WEYBRIDGE CIR APT A::33411:ROYAL PALM BEACH:FL:USA</t>
+  </si>
+  <si>
+    <t>MAILING:1118-BLYTH HILL COURT:B2:34655:TRINITY:FL:USA,
+BILLING:1118-BLYTH HILL COURT:B2:34655:TRINITY:FL:USA</t>
+  </si>
+  <si>
+    <t>MAILING:120 WEYBRIDGE CIR APT A::33411:ROYAL PALM BEACH:FL:USA,
+BILLING:120 WEYBRIDGE CIR APT A::33411:ROYAL PALM BEACH:FL:USA,
+SHIPPING:120 WEYBRIDGE CIR APT A::33411:ROYAL PALM BEACH:FL:USA</t>
+  </si>
+  <si>
+    <t>Brian</t>
+  </si>
+  <si>
+    <t>Lara</t>
+  </si>
+  <si>
+    <t>DR Agency</t>
+  </si>
+  <si>
+    <t>bbb5555:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,
+bbb6666:FL:STANDARD:USA:REGULAR:2014:BUICK:SPECIAL,
+bbb7777:FL:STANDARD:USA:REGULAR:2014:BRAUN:ENTERVAN II, bbb8888:FL:STANDARD:USA:REGULAR:2014:BMW:M</t>
+  </si>
+  <si>
+    <t>Gayle</t>
+  </si>
+  <si>
+    <t>GOVPOST</t>
+  </si>
+  <si>
+    <t>ACEO_055</t>
+  </si>
+  <si>
+    <t>maria</t>
+  </si>
+  <si>
+    <t>Adams</t>
+  </si>
+  <si>
+    <t>MAILING:4560 ESTERO BLVD #702::33931:FORT MYERS BEACH:FL:USA</t>
+  </si>
+  <si>
+    <t>bbb9999:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL</t>
+  </si>
+  <si>
+    <t>ACEO_057</t>
+  </si>
+  <si>
+    <t>jeff</t>
+  </si>
+  <si>
+    <t>hall</t>
+  </si>
+  <si>
+    <t>MAILING:Calle 5 de Mayo 706::20234:Agricultura:AG:MEX</t>
+  </si>
+  <si>
+    <t>bbb1112:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,
+bbb1113:FL:STANDARD:USA:REGULAR:2014:BRAUN:ENTERVAN II</t>
+  </si>
+  <si>
+    <t>mia</t>
+  </si>
+  <si>
+    <t>david</t>
+  </si>
+  <si>
+    <t>MAILING:10049 ST MORITZ DR::33931:FT MYERS:FL:USA</t>
+  </si>
+  <si>
+    <t>DISCOVER</t>
+  </si>
+  <si>
+    <t>ACEO_063</t>
+  </si>
+  <si>
+    <t>bbb1122:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,
+bbb1133:FL:STANDARD:USA:REGULAR:2014:BRAUN:ENTERVAN II</t>
+  </si>
+  <si>
+    <t>private
+NRV</t>
+  </si>
+  <si>
+    <t>ACEO_071</t>
+  </si>
+  <si>
+    <t>BLACK Pvt Ltd</t>
+  </si>
+  <si>
+    <t>bbb3232:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,
+bbb3434:FL:STANDARD:USA:REGULAR:2014:BUICK:SPECIAL,
+bbb1515:FL:STANDARD:USA:REGULAR:2014:BRAUN:ENTERVAN II, bbb4545:FL:STANDARD:USA:REGULAR:2014:BMW:M</t>
+  </si>
+  <si>
+    <t>AAA3232:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,
+BBB3434:FL:STANDARD:USA:REGULAR:2014:BUICK:SPECIAL,
+CCC1515:FL:STANDARD:USA:REGULAR:2014:BRAUN:ENTERVAN II, DDD4545:FL:STANDARD:USA:REGULAR:2014:BMW:M</t>
+  </si>
+  <si>
+    <t>ACEO_072</t>
+  </si>
+  <si>
+    <t>RCSPPRE</t>
+  </si>
+  <si>
+    <t>def3232:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,
+def3434:FL:STANDARD:USA:REGULAR:2014:BUICK:SPECIAL,
+def1515:FL:STANDARD:USA:REGULAR:2014:BRAUN:ENTERVAN II, def4545:FL:STANDARD:USA:REGULAR:2014:BMW:M</t>
+  </si>
+  <si>
+    <t>josheph</t>
+  </si>
+  <si>
+    <t>thomas</t>
+  </si>
+  <si>
+    <t>Master card</t>
+  </si>
+  <si>
+    <t>ACEO_074</t>
   </si>
   <si>
     <t>FLEETPRE,
 NRV</t>
   </si>
   <si>
-    <t>SunPass Portable:2:50,
-SunPass Bumper Mount:2:50,
-SunPass Mini :2:50,
-Eco Plus Portable:2:50</t>
-  </si>
-  <si>
-    <t>chrome</t>
-  </si>
-  <si>
-    <t>TC_0012</t>
-  </si>
-  <si>
-    <t>TC_0014</t>
-  </si>
-  <si>
-    <t>TC_0015</t>
-  </si>
-  <si>
-    <t>TC_0017</t>
-  </si>
-  <si>
-    <t>firefox</t>
-  </si>
-  <si>
-    <t>iexplore</t>
-  </si>
-  <si>
-    <t>TestDesc</t>
-  </si>
-  <si>
-    <t>Creating fleet acccount with multiple addresses, devices and plans</t>
-  </si>
-  <si>
-    <t>askdflkas</t>
-  </si>
-  <si>
-    <t>alkasldkl</t>
-  </si>
-  <si>
-    <t>SunPass Portable:58,
-SunPass Bumper Mount:60,
-SunPass Mini :51,
-Eco Plus Portable:54</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>SunPass Portable:50,
+SunPass Bumper Mount:50,
+SunPass Mini :50,
+Eco Plus Portable:50</t>
+  </si>
+  <si>
+    <t>SunPass Portable:50,
+SunPass Bumper Mount:50,
+SunPass Mini ::50,
+Eco Plus Portable:50</t>
+  </si>
+  <si>
+    <t>SunPass Portable:25,
+SunPass Bumper Mount:25,
+SunPass Mini :25,
+Eco Plus Portable:26</t>
+  </si>
+  <si>
+    <t>SunPass Portable:1</t>
+  </si>
+  <si>
+    <t>SunPass Portable:1,
+SunPass Mini:2,</t>
+  </si>
+  <si>
+    <t>SunPass Portable:1,
+Eco Plus Portable:1</t>
+  </si>
+  <si>
+    <t>SunPass Portable:25,
+SunPass Bumper Mount:25,
+SunPass Mini :26,
+Eco Plus Portable:2:25</t>
+  </si>
+  <si>
+    <t>TestCaseDesc</t>
+  </si>
+  <si>
+    <t>Create business, fleet account with Mail-in logon mode</t>
   </si>
 </sst>
 </file>
@@ -433,7 +749,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -457,9 +773,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1088,8 +1401,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="G1:AF5" totalsRowShown="0" headerRowDxfId="26">
-  <autoFilter ref="G1:AF5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="G1:AF4" totalsRowShown="0" headerRowDxfId="26">
+  <autoFilter ref="G1:AF4"/>
   <tableColumns count="26">
     <tableColumn id="1" name="UserId" dataDxfId="25"/>
     <tableColumn id="2" name="Password" dataDxfId="24"/>
@@ -1385,69 +1698,56 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM5"/>
+  <dimension ref="A1:AM33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="11.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="11.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="10.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="8.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="5.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="19.75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="13.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="11.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="11.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="53.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="14.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="52.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="24" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="12.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="10.5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="12.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="12.75" collapsed="1"/>
-    <col min="28" max="28" width="15.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="14.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="11.125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="6.375" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="17.75" style="8" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="33.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="34" max="35" width="9.75" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="4" width="16.75" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="19" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="14.625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17.375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="30" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="12.75" collapsed="1"/>
+    <col min="13" max="13" width="26.625" customWidth="1" collapsed="1"/>
+    <col min="14" max="18" width="12.75" collapsed="1"/>
+    <col min="19" max="19" width="99" customWidth="1" collapsed="1"/>
+    <col min="20" max="21" width="12.75" collapsed="1"/>
+    <col min="22" max="22" width="73.25" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="53.75" customWidth="1" collapsed="1"/>
+    <col min="24" max="28" width="12.75" collapsed="1"/>
+    <col min="29" max="29" width="19.75" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="12.75" collapsed="1"/>
+    <col min="31" max="32" width="12.75" style="8" collapsed="1"/>
+    <col min="33" max="33" width="45.75" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="16.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>88</v>
+        <v>184</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
@@ -1456,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>2</v>
@@ -1489,22 +1789,22 @@
         <v>11</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>13</v>
@@ -1513,102 +1813,102 @@
         <v>14</v>
       </c>
       <c r="AB1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AD1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AF1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG1" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AH1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AI1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ1" s="9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="AE1" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="AF1" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="AG1" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="AH1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="AI1" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="AJ1" s="9" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" ht="75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="J2" s="1">
         <v>1122</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L2" s="1">
         <v>2345</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="R2" s="1">
         <v>1231231231</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="V2" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="W2" s="10" t="s">
-        <v>92</v>
+        <v>177</v>
       </c>
       <c r="X2" s="1">
         <v>2</v>
@@ -1626,10 +1926,10 @@
         <v>1</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AD2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE2" s="7">
         <v>12341</v>
@@ -1638,109 +1938,107 @@
         <v>22222</v>
       </c>
       <c r="AG2" s="11" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="AH2" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="10" t="s">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
     </row>
-    <row r="3" spans="1:39" ht="75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C3" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J3" s="1">
-        <v>1122</v>
+        <v>7860</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L3" s="1">
         <v>2345</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="R3" s="1">
-        <v>1231231231</v>
+        <v>3452452345</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="W3" s="10" t="s">
-        <v>80</v>
+        <v>178</v>
       </c>
       <c r="X3" s="1">
         <v>2</v>
       </c>
       <c r="Y3" s="1">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="Z3" s="1">
-        <v>1234567890</v>
+        <v>3453453451</v>
       </c>
       <c r="AA3" s="1">
         <v>122235821</v>
       </c>
       <c r="AB3" s="1">
-        <v>1</v>
+        <v>101</v>
       </c>
       <c r="AC3" s="1" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE3" s="7">
         <v>12341</v>
@@ -1749,214 +2047,166 @@
         <v>22222</v>
       </c>
       <c r="AG3" s="11" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
       <c r="AH3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>67893</v>
+      </c>
+      <c r="AJ3" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK3" s="1"/>
+      <c r="AL3" s="1"/>
+      <c r="AM3" s="1"/>
+    </row>
+    <row r="4" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="AI3" s="1"/>
-      <c r="AJ3" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:39" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>87</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1122</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="1">
-        <v>2345</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="R4" s="1">
-        <v>1231231231</v>
-      </c>
-      <c r="S4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="V4" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="W4" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="10"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="10"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="1"/>
+      <c r="AB4" s="1"/>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="X4" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>233</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>122235821</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AE4" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AF4" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AG4" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="AH4" s="1" t="s">
+      <c r="AH4" s="1"/>
+      <c r="AI4" s="1"/>
+      <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1"/>
+    </row>
+    <row r="5" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>40</v>
-      </c>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:39" ht="75" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>81</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>41</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J5" s="1">
-        <v>1122</v>
+        <v>7896</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L5" s="1">
         <v>2345</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="O5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="R5" s="1">
-        <v>1231231231</v>
+        <v>3452452345</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U5" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="W5" s="10" t="s">
-        <v>80</v>
+        <v>177</v>
       </c>
       <c r="X5" s="1">
         <v>2</v>
       </c>
       <c r="Y5" s="1">
-        <v>233</v>
+        <v>200</v>
       </c>
       <c r="Z5" s="1">
-        <v>1234567890</v>
+        <v>3453453451</v>
       </c>
       <c r="AA5" s="1">
         <v>122235821</v>
       </c>
-      <c r="AB5" s="1">
-        <v>1</v>
-      </c>
+      <c r="AB5" s="1"/>
       <c r="AC5" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD5" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="AE5" s="7">
         <v>12341</v>
@@ -1965,31 +2215,2333 @@
         <v>22222</v>
       </c>
       <c r="AG5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH5" s="1"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK5" s="1"/>
+      <c r="AL5" s="1"/>
+      <c r="AM5" s="1"/>
+    </row>
+    <row r="6" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6" s="1">
+        <v>7860</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L6" s="1">
+        <v>2345</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="R6" s="1">
+        <v>3452452345</v>
+      </c>
+      <c r="S6" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AH5" s="1" t="s">
+      <c r="V6" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="X6" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>200</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>3453453451</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AF6" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AG6" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH6" s="1"/>
+      <c r="AI6" s="1"/>
+      <c r="AJ6" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="AK6" s="1"/>
+      <c r="AL6" s="1"/>
+      <c r="AM6" s="1"/>
+    </row>
+    <row r="7" spans="1:39" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="10" t="s">
-        <v>79</v>
-      </c>
+      <c r="E7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2130</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L7" s="1">
+        <v>2345</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R7" s="1">
+        <v>3421562345</v>
+      </c>
+      <c r="S7" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U7" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V7" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="X7" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>200</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AD7" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="AE7" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AF7" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AG7" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AI7" s="1"/>
+      <c r="AJ7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
+      <c r="AM7" s="1"/>
+    </row>
+    <row r="8" spans="1:39" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2098</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L8" s="1">
+        <v>2345</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="R8" s="1">
+        <v>2341567878</v>
+      </c>
+      <c r="S8" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V8" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="W8" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="X8" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>101</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AE8" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AF8" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AG8" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH8" s="1"/>
+      <c r="AI8" s="1"/>
+      <c r="AJ8" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1234</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L9" s="1">
+        <v>2345</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q9" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="R9" s="1">
+        <v>2341567878</v>
+      </c>
+      <c r="S9" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U9" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V9" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="X9" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>101</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="AD9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE9" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AF9" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AG9" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH9" s="1"/>
+      <c r="AI9" s="1"/>
+      <c r="AJ9" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" s="1">
+        <v>9876</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L10" s="1">
+        <v>2345</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q10" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="R10" s="1">
+        <v>2341567878</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="W10" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="X10" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
+      <c r="AE10" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AF10" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AG10" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH10" s="1"/>
+      <c r="AI10" s="1"/>
+      <c r="AJ10" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="1">
+        <v>5566</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L11" s="1">
+        <v>2345</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q11" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="R11" s="1">
+        <v>2341567878</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V11" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="W11" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="X11" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AF11" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AG11" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH11" s="1"/>
+      <c r="AI11" s="1"/>
+      <c r="AJ11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2331</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L12" s="1">
+        <v>2345</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q12" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="R12" s="1">
+        <v>2341567878</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="V12" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="W12" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="X12" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
+      <c r="AD12" s="1"/>
+      <c r="AE12" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AF12" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AG12" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH12" s="1"/>
+      <c r="AI12" s="1"/>
+      <c r="AJ12" s="10" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="1">
+        <v>2233</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L13" s="1">
+        <v>2345</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R13" s="1">
+        <v>2341567878</v>
+      </c>
+      <c r="S13" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V13" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="W13" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="X13" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>101</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD13" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE13" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AF13" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AG13" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH13" s="1"/>
+      <c r="AI13" s="1"/>
+      <c r="AJ13" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="1">
+        <v>8778</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L14" s="1">
+        <v>2345</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="R14" s="1">
+        <v>2341567878</v>
+      </c>
+      <c r="S14" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="V14" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="W14" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="X14" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>101</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE14" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AF14" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AG14" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH14" s="1"/>
+      <c r="AI14" s="1"/>
+      <c r="AJ14" s="10" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="1">
+        <v>7667</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L15" s="1">
+        <v>2345</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q15" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="R15" s="1">
+        <v>2341567878</v>
+      </c>
+      <c r="S15" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="V15" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="W15" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="X15" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>101</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AF15" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AG15" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH15" s="1"/>
+      <c r="AI15" s="1"/>
+      <c r="AJ15" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2345</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
+      <c r="AE16" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AF16" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AG16" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH16" s="1"/>
+      <c r="AI16" s="1"/>
+      <c r="AJ16" s="1"/>
+    </row>
+    <row r="17" spans="1:36" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L17" s="1">
+        <v>2345</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
+      <c r="AE17" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AF17" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AG17" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH17" s="1"/>
+      <c r="AI17" s="1"/>
+      <c r="AJ17" s="1"/>
+    </row>
+    <row r="18" spans="1:36" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L18" s="1">
+        <v>2345</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
+      <c r="AE18" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AF18" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AG18" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH18" s="1"/>
+      <c r="AI18" s="1"/>
+      <c r="AJ18" s="1"/>
+    </row>
+    <row r="19" spans="1:36" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L19" s="1">
+        <v>2345</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
+      <c r="AE19" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AF19" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AG19" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH19" s="1"/>
+      <c r="AI19" s="1"/>
+      <c r="AJ19" s="1"/>
+    </row>
+    <row r="20" spans="1:36" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L20" s="1">
+        <v>2345</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AF20" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AG20" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH20" s="1"/>
+      <c r="AI20" s="1"/>
+      <c r="AJ20" s="1"/>
+    </row>
+    <row r="21" spans="1:36" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L21" s="1">
+        <v>2345</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AF21" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AG21" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH21" s="1"/>
+      <c r="AI21" s="1"/>
+      <c r="AJ21" s="1"/>
+    </row>
+    <row r="22" spans="1:36" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L22" s="1">
+        <v>2345</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AF22" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AG22" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH22" s="1"/>
+      <c r="AI22" s="1"/>
+      <c r="AJ22" s="1"/>
+    </row>
+    <row r="23" spans="1:36" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L23" s="1">
+        <v>2345</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AF23" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AG23" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH23" s="1"/>
+      <c r="AI23" s="1"/>
+      <c r="AJ23" s="1"/>
+    </row>
+    <row r="24" spans="1:36" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L24" s="1">
+        <v>2345</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
+      <c r="AE24" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AF24" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AG24" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1"/>
+      <c r="AJ24" s="1"/>
+    </row>
+    <row r="25" spans="1:36" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L25" s="1">
+        <v>2345</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
+      <c r="AE25" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AF25" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AG25" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1"/>
+      <c r="AJ25" s="1"/>
+    </row>
+    <row r="26" spans="1:36" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L26" s="1">
+        <v>2345</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
+      <c r="AE26" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AF26" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AG26" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1"/>
+      <c r="AJ26" s="1"/>
+    </row>
+    <row r="27" spans="1:36" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L27" s="1">
+        <v>2345</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AF27" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AG27" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1"/>
+      <c r="AJ27" s="1"/>
+    </row>
+    <row r="28" spans="1:36" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L28" s="1">
+        <v>2345</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N28" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
+      <c r="AE28" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AF28" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AG28" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1"/>
+      <c r="AJ28" s="1"/>
+    </row>
+    <row r="29" spans="1:36" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L29" s="1">
+        <v>2345</v>
+      </c>
+      <c r="M29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AF29" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AG29" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1"/>
+      <c r="AJ29" s="1"/>
+    </row>
+    <row r="30" spans="1:36" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L30" s="1">
+        <v>2345</v>
+      </c>
+      <c r="M30" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
+      <c r="AE30" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AF30" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AG30" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1"/>
+      <c r="AJ30" s="1"/>
+    </row>
+    <row r="31" spans="1:36" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L31" s="1">
+        <v>2345</v>
+      </c>
+      <c r="M31" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
+      <c r="AE31" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AF31" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AG31" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1"/>
+      <c r="AJ31" s="1"/>
+    </row>
+    <row r="32" spans="1:36" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L32" s="1">
+        <v>2345</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O32" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AF32" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AG32" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1"/>
+      <c r="AJ32" s="1"/>
+    </row>
+    <row r="33" spans="1:36" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="L33" s="1">
+        <v>2345</v>
+      </c>
+      <c r="M33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O33" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
+      <c r="AE33" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AF33" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AG33" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1"/>
+      <c r="AJ33" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="Biswanath@54321"/>
-    <hyperlink ref="M2" r:id="rId2"/>
-    <hyperlink ref="H3" r:id="rId3" display="Biswanath@54321"/>
-    <hyperlink ref="H4" r:id="rId4" display="Biswanath@54321"/>
-    <hyperlink ref="H5" r:id="rId5" display="Biswanath@54321"/>
-    <hyperlink ref="M3" r:id="rId6"/>
-    <hyperlink ref="M4" r:id="rId7"/>
-    <hyperlink ref="M5" r:id="rId8"/>
+    <hyperlink ref="M3" r:id="rId1"/>
+    <hyperlink ref="M7" r:id="rId2"/>
+    <hyperlink ref="H2" r:id="rId3" display="Biswanath@54321"/>
+    <hyperlink ref="M2" r:id="rId4"/>
+    <hyperlink ref="M8:M33" r:id="rId5" display="talk2mahapatra@gmail.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1998,111 +4550,111 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR3"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:AK5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P22" sqref="O22:P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H1" s="1">
         <v>2233</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1">
         <v>2345</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P1" s="1">
         <v>1231231231</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S1" s="1">
         <v>33414</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="AA1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AB1" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="AC1" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AD1" s="1">
         <v>2014</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG1" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH1" s="1">
         <v>2</v>
@@ -2111,7 +4663,7 @@
         <v>2</v>
       </c>
       <c r="AJ1" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK1" s="1">
         <v>1234567890</v>
@@ -2123,10 +4675,10 @@
         <v>101</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AP1" s="7">
         <v>12341</v>
@@ -2138,103 +4690,103 @@
     </row>
     <row r="2" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="F2" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H2" s="1">
         <v>3344</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J2" s="1">
         <v>2345</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="P2" s="1">
         <v>1231231231</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="S2" s="1">
         <v>33414</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="V2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="AA2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="AC2" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AD2" s="1">
         <v>2014</v>
       </c>
       <c r="AE2" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH2" s="1">
         <v>2</v>
@@ -2243,7 +4795,7 @@
         <v>2</v>
       </c>
       <c r="AJ2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK2" s="1">
         <v>1234567890</v>
@@ -2255,10 +4807,10 @@
         <v>101</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="AO2" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="AP2" s="7">
         <v>12341</v>

--- a/testdata/TestData_siebel.xlsx
+++ b/testdata/TestData_siebel.xlsx
@@ -14,8 +14,12 @@
   <sheets>
     <sheet name="siebel" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$B$1:$B$63</definedName>
+  </definedNames>
+  <calcPr calcId="152511" calcMode="manual"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="328">
   <si>
     <t>UserId</t>
   </si>
@@ -219,22 +223,10 @@
     <t>CASH</t>
   </si>
   <si>
-    <t>Expected Result</t>
-  </si>
-  <si>
     <t>YES</t>
   </si>
   <si>
-    <t>sumitb</t>
-  </si>
-  <si>
-    <t>burnwal</t>
-  </si>
-  <si>
     <t>CHECKING</t>
-  </si>
-  <si>
-    <t>Tax Exempt</t>
   </si>
   <si>
     <t>TestCaseId</t>
@@ -266,13 +258,6 @@
     <t>Maria</t>
   </si>
   <si>
-    <t>joe</t>
-  </si>
-  <si>
-    <t>Account Should be Created 
-With Account #</t>
-  </si>
-  <si>
     <t>WILLSON</t>
   </si>
   <si>
@@ -307,9 +292,6 @@
     <t>ABCD Pvt Ltd</t>
   </si>
   <si>
-    <t>BPOSTVEDREG</t>
-  </si>
-  <si>
     <t>jacob</t>
   </si>
   <si>
@@ -344,9 +326,6 @@
     <t>William</t>
   </si>
   <si>
-    <t>IEXPLORE</t>
-  </si>
-  <si>
     <t>MAILING:9369 TRIESTE DRIVE::33913:FORT MYERS:FL:USA,
 BILLING:9369 TRIESTE DRIVE::33913:FORT MYERS:FL:USA</t>
   </si>
@@ -360,60 +339,6 @@
 BILLING:632 CATHERINE FOSTER LANE: :32259:SAINT JOHNS:FL:USA</t>
   </si>
   <si>
-    <t>TC_0015</t>
-  </si>
-  <si>
-    <t>TC_0016</t>
-  </si>
-  <si>
-    <t>TC_0017</t>
-  </si>
-  <si>
-    <t>TC_0018</t>
-  </si>
-  <si>
-    <t>TC_0019</t>
-  </si>
-  <si>
-    <t>TC_0020</t>
-  </si>
-  <si>
-    <t>TC_0021</t>
-  </si>
-  <si>
-    <t>TC_0022</t>
-  </si>
-  <si>
-    <t>TC_0023</t>
-  </si>
-  <si>
-    <t>TC_0024</t>
-  </si>
-  <si>
-    <t>TC_0025</t>
-  </si>
-  <si>
-    <t>TC_0026</t>
-  </si>
-  <si>
-    <t>TC_0027</t>
-  </si>
-  <si>
-    <t>TC_0028</t>
-  </si>
-  <si>
-    <t>TC_0029</t>
-  </si>
-  <si>
-    <t>TC_0030</t>
-  </si>
-  <si>
-    <t>TC_0031</t>
-  </si>
-  <si>
-    <t>TC_0032</t>
-  </si>
-  <si>
     <t>ACEO_012</t>
   </si>
   <si>
@@ -464,10 +389,6 @@
     <t>ACEO_020</t>
   </si>
   <si>
-    <t>MAILING:120 WEYBRIDGE CIR APT A::33411:ROYAL PALM BEACH:FL:USA,
-BILLING:120 WEYBRIDGE CIR APT A::33411:ROYAL PALM BEACH:FL:USA</t>
-  </si>
-  <si>
     <t>MAILING:1118-BLYTH HILL COURT:B2:34655:TRINITY:FL:USA,
 BILLING:1118-BLYTH HILL COURT:B2:34655:TRINITY:FL:USA</t>
   </si>
@@ -503,91 +424,21 @@
     <t>maria</t>
   </si>
   <si>
-    <t>Adams</t>
-  </si>
-  <si>
-    <t>MAILING:4560 ESTERO BLVD #702::33931:FORT MYERS BEACH:FL:USA</t>
-  </si>
-  <si>
     <t>bbb9999:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL</t>
   </si>
   <si>
     <t>ACEO_057</t>
   </si>
   <si>
-    <t>jeff</t>
-  </si>
-  <si>
     <t>hall</t>
   </si>
   <si>
-    <t>MAILING:Calle 5 de Mayo 706::20234:Agricultura:AG:MEX</t>
-  </si>
-  <si>
-    <t>bbb1112:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,
-bbb1113:FL:STANDARD:USA:REGULAR:2014:BRAUN:ENTERVAN II</t>
-  </si>
-  <si>
-    <t>mia</t>
-  </si>
-  <si>
-    <t>david</t>
-  </si>
-  <si>
-    <t>MAILING:10049 ST MORITZ DR::33931:FT MYERS:FL:USA</t>
-  </si>
-  <si>
     <t>DISCOVER</t>
-  </si>
-  <si>
-    <t>ACEO_063</t>
-  </si>
-  <si>
-    <t>bbb1122:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,
-bbb1133:FL:STANDARD:USA:REGULAR:2014:BRAUN:ENTERVAN II</t>
-  </si>
-  <si>
-    <t>private
-NRV</t>
-  </si>
-  <si>
-    <t>ACEO_071</t>
-  </si>
-  <si>
-    <t>BLACK Pvt Ltd</t>
   </si>
   <si>
     <t>bbb3232:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,
 bbb3434:FL:STANDARD:USA:REGULAR:2014:BUICK:SPECIAL,
 bbb1515:FL:STANDARD:USA:REGULAR:2014:BRAUN:ENTERVAN II, bbb4545:FL:STANDARD:USA:REGULAR:2014:BMW:M</t>
-  </si>
-  <si>
-    <t>AAA3232:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,
-BBB3434:FL:STANDARD:USA:REGULAR:2014:BUICK:SPECIAL,
-CCC1515:FL:STANDARD:USA:REGULAR:2014:BRAUN:ENTERVAN II, DDD4545:FL:STANDARD:USA:REGULAR:2014:BMW:M</t>
-  </si>
-  <si>
-    <t>ACEO_072</t>
-  </si>
-  <si>
-    <t>RCSPPRE</t>
-  </si>
-  <si>
-    <t>def3232:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,
-def3434:FL:STANDARD:USA:REGULAR:2014:BUICK:SPECIAL,
-def1515:FL:STANDARD:USA:REGULAR:2014:BRAUN:ENTERVAN II, def4545:FL:STANDARD:USA:REGULAR:2014:BMW:M</t>
-  </si>
-  <si>
-    <t>josheph</t>
-  </si>
-  <si>
-    <t>thomas</t>
-  </si>
-  <si>
-    <t>Master card</t>
-  </si>
-  <si>
-    <t>ACEO_074</t>
   </si>
   <si>
     <t>FLEETPRE,
@@ -615,31 +466,643 @@
     <t>SunPass Portable:1</t>
   </si>
   <si>
-    <t>SunPass Portable:1,
-SunPass Mini:2,</t>
-  </si>
-  <si>
-    <t>SunPass Portable:1,
-Eco Plus Portable:1</t>
-  </si>
-  <si>
-    <t>SunPass Portable:25,
-SunPass Bumper Mount:25,
-SunPass Mini :26,
-Eco Plus Portable:2:25</t>
-  </si>
-  <si>
     <t>TestCaseDesc</t>
   </si>
   <si>
     <t>Create business, fleet account with Mail-in logon mode</t>
+  </si>
+  <si>
+    <t>Test Case #</t>
+  </si>
+  <si>
+    <t>Automation status</t>
+  </si>
+  <si>
+    <t>ACEO-017</t>
+  </si>
+  <si>
+    <t>can be automated with Account creation</t>
+  </si>
+  <si>
+    <t>ACEO-020</t>
+  </si>
+  <si>
+    <t>ACEO-022</t>
+  </si>
+  <si>
+    <t>cant be Automated as Negative scenario with mandatory field value missing</t>
+  </si>
+  <si>
+    <t>ACEO-023</t>
+  </si>
+  <si>
+    <t>cant be Automated as Negative scenario with invalid data provided</t>
+  </si>
+  <si>
+    <t>ACEO-024</t>
+  </si>
+  <si>
+    <t>cant be automated as wrpng format of email address which is mandatory</t>
+  </si>
+  <si>
+    <t>ACEO-025</t>
+  </si>
+  <si>
+    <t>ACEO-026</t>
+  </si>
+  <si>
+    <t>cant be automated for wrong email format for secondary email address</t>
+  </si>
+  <si>
+    <t>ACEO-027</t>
+  </si>
+  <si>
+    <t>ACEO-028</t>
+  </si>
+  <si>
+    <t>cant be Automated as mandatory field is missing</t>
+  </si>
+  <si>
+    <t>ACEO-029</t>
+  </si>
+  <si>
+    <t>ACEO-030</t>
+  </si>
+  <si>
+    <t>cant be automated for invalid address while creating the account</t>
+  </si>
+  <si>
+    <t>ACEO-031</t>
+  </si>
+  <si>
+    <t>ACEO-032</t>
+  </si>
+  <si>
+    <t>ACEO-033</t>
+  </si>
+  <si>
+    <t>ACEO-034</t>
+  </si>
+  <si>
+    <t>ACEO-036</t>
+  </si>
+  <si>
+    <t>ACEO-037</t>
+  </si>
+  <si>
+    <t>cant be automated without adding vehicle details</t>
+  </si>
+  <si>
+    <t>ACEO-038</t>
+  </si>
+  <si>
+    <t>ACEO-042</t>
+  </si>
+  <si>
+    <t>cant be automated as minimal mandatory information</t>
+  </si>
+  <si>
+    <t>ACEO-045</t>
+  </si>
+  <si>
+    <t>ACEO-055</t>
+  </si>
+  <si>
+    <t>ACEO-057</t>
+  </si>
+  <si>
+    <t>ACEO-058</t>
+  </si>
+  <si>
+    <t>ACEO-059</t>
+  </si>
+  <si>
+    <t>ACEO-060</t>
+  </si>
+  <si>
+    <t>ACEO-061</t>
+  </si>
+  <si>
+    <t>ACEO-062</t>
+  </si>
+  <si>
+    <t>cant be automated as adding duplicate vehicle(same plate number) with the same effective start date and end date while creating account other than RCSP</t>
+  </si>
+  <si>
+    <t>ACEO-076</t>
+  </si>
+  <si>
+    <t>ACEO-078</t>
+  </si>
+  <si>
+    <t>ACEO-081</t>
+  </si>
+  <si>
+    <t>ACEO-094</t>
+  </si>
+  <si>
+    <t>ACEO-114</t>
+  </si>
+  <si>
+    <t>cant be automated as its negative scenario/missing Fien as mandatoy field</t>
+  </si>
+  <si>
+    <t>ACEO-121</t>
+  </si>
+  <si>
+    <t>cant be automated as duplicate vehicle is associtaed with different RCSPPRE account</t>
+  </si>
+  <si>
+    <t>ACEO-122</t>
+  </si>
+  <si>
+    <t>cant be automated as one postpaid rcsp and another postpaid rcsp is having same vehicle with same start date and end date</t>
+  </si>
+  <si>
+    <t>ACEO-123</t>
+  </si>
+  <si>
+    <t>ACEO-128</t>
+  </si>
+  <si>
+    <t>fail test case</t>
+  </si>
+  <si>
+    <t>ACEO-129</t>
+  </si>
+  <si>
+    <t>cant be automated as fleetpre account is associated with another isppost with same effective start date and end date for same vehicle number</t>
+  </si>
+  <si>
+    <t>ACEO-130</t>
+  </si>
+  <si>
+    <t>cant be automated as Duplicate vehicle not within same effective start and end date; associated to Private account.</t>
+  </si>
+  <si>
+    <t>ACEO-131</t>
+  </si>
+  <si>
+    <t>cant be automated as :Prepaid Fleet Account creation; Duplicate vehicle with the same effective start and end date; associated to Prepaid RCSP Account with negative balance.</t>
+  </si>
+  <si>
+    <t>ACEO-124</t>
+  </si>
+  <si>
+    <t>cant be automated as system is throwing error message to save the cell number</t>
+  </si>
+  <si>
+    <t>ACEO-141</t>
+  </si>
+  <si>
+    <t>cant be automated as invalid credit card expiry date</t>
+  </si>
+  <si>
+    <t>ACEO-142</t>
+  </si>
+  <si>
+    <t>ACEO-143</t>
+  </si>
+  <si>
+    <t>cant be automated as its negative scenario</t>
+  </si>
+  <si>
+    <t>ACEO-144</t>
+  </si>
+  <si>
+    <t>ACEO-145</t>
+  </si>
+  <si>
+    <t>ACEO-147</t>
+  </si>
+  <si>
+    <t>ACEO-148</t>
+  </si>
+  <si>
+    <t>ACEO-149</t>
+  </si>
+  <si>
+    <t>ACEO-153</t>
+  </si>
+  <si>
+    <t>ACEO-155</t>
+  </si>
+  <si>
+    <t>ACEO-156</t>
+  </si>
+  <si>
+    <t>ACEO-157</t>
+  </si>
+  <si>
+    <t>ACEO-158</t>
+  </si>
+  <si>
+    <t>ACEO-159</t>
+  </si>
+  <si>
+    <t>ACEO-160</t>
+  </si>
+  <si>
+    <t>ACEO-161</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cant be automated with Account creation because
+System does not allow addition of duplicate transponder and duplicate vehicle for PBR discount plan. </t>
+  </si>
+  <si>
+    <t>ACEO-162</t>
+  </si>
+  <si>
+    <t>ACEO-163</t>
+  </si>
+  <si>
+    <t>cant be automated : Prepaid Private account creation with Bayway Commuter  discount plan; Try to delete Standard Plan.</t>
+  </si>
+  <si>
+    <t>ACEO-164</t>
+  </si>
+  <si>
+    <t>cant be automated : System does not allow addition of  Pinellas Bayway Commuter discount plan without selecting Device request#.</t>
+  </si>
+  <si>
+    <t>ACEO-165</t>
+  </si>
+  <si>
+    <t>ACEO-166</t>
+  </si>
+  <si>
+    <t>cant be automated:System is not allowing to select duplicate Device Request # while adding multiple PBC.</t>
+  </si>
+  <si>
+    <t>ACEO-167</t>
+  </si>
+  <si>
+    <t>BPOSTVIDEOREG</t>
+  </si>
+  <si>
+    <t>FLEETPOST</t>
+  </si>
+  <si>
+    <t>Zip code is not working 6002</t>
+  </si>
+  <si>
+    <t>Create Government account GOVPOST with walk-in mode</t>
+  </si>
+  <si>
+    <t>Create Commercial account  ISPPOST with walk-in mode</t>
+  </si>
+  <si>
+    <t>Create Commercial account FLEETPOST with walk-in mode</t>
+  </si>
+  <si>
+    <t>ACEO_025</t>
+  </si>
+  <si>
+    <t>Create Private prepaid account with  walk-in mode</t>
+  </si>
+  <si>
+    <t>jones</t>
+  </si>
+  <si>
+    <t>smith</t>
+  </si>
+  <si>
+    <t>MAILING:10049 ST MORITZ DR::33913:MIROMAR LAKES:FL:USA</t>
+  </si>
+  <si>
+    <t>VISA</t>
+  </si>
+  <si>
+    <t>ACEO_027</t>
+  </si>
+  <si>
+    <t>Create business, fleetpre account with walk-in logon mode</t>
+  </si>
+  <si>
+    <t>talk2mahapatra@rediffmail.com</t>
+  </si>
+  <si>
+    <t>willium</t>
+  </si>
+  <si>
+    <t>james</t>
+  </si>
+  <si>
+    <t>FLEETPRE</t>
+  </si>
+  <si>
+    <t>JK enterprises</t>
+  </si>
+  <si>
+    <t>john</t>
+  </si>
+  <si>
+    <t>MAILING:10049 ST MORITZ DR::33913:MIROMAR LAKES:FL:USA,
+BILLING:1118-BLYTH HILL COURT::33913:MIROMAR LAKES:FL:USA</t>
+  </si>
+  <si>
+    <t>MASTERCARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SunPass Portable:101
+</t>
+  </si>
+  <si>
+    <t>ACEO_034</t>
+  </si>
+  <si>
+    <t>robert</t>
+  </si>
+  <si>
+    <t>gonzalez</t>
+  </si>
+  <si>
+    <t>MAILING:1600 SOUTH OCEAN BLVD:UNIT 1203:33062:POMPANO BEACH:FL:USA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SunPass Portable:1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bbb1112:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bbb1122:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL
+</t>
+  </si>
+  <si>
+    <t>ACEO_036</t>
+  </si>
+  <si>
+    <t>FAX-IN</t>
+  </si>
+  <si>
+    <t>micheal</t>
+  </si>
+  <si>
+    <t>brown</t>
+  </si>
+  <si>
+    <t>KK Pvt LTD</t>
+  </si>
+  <si>
+    <t>Create Business account ISPPRE with fax-in mode
+giving valid zipcode(previously S6V)
+here vehicles are added as 2 but we have taken as 101</t>
+  </si>
+  <si>
+    <t>ACEO_038</t>
+  </si>
+  <si>
+    <t>Create private prepaid account which will use the 
+duplicate vehicle number from existing prepaid RCSP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">william </t>
+  </si>
+  <si>
+    <t>davis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAA3232:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL
+</t>
+  </si>
+  <si>
+    <t>1(duplicate)</t>
+  </si>
+  <si>
+    <t>Prepaid private account creation only with standard plan with
+walk-in mode</t>
+  </si>
+  <si>
+    <t>adams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAA3233:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAILING:202 KENSINGTON WAY::33414:WEST PALM BEACH:FL:USA
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAILING:4560 ESTERO BLVD #702::33913:FORT MYERS BEACH :FL:USA
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jeff </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bbb3232:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,
+bbb3434:FL:STANDARD:USA:REGULAR:2014:BUICK:SPECIAL
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SunPass Portable:1,
+SunPass Mini :2
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">donald </t>
+  </si>
+  <si>
+    <t>thomas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAILING:135 HAMILTON TER::33414:WEST PALM BEACH :FL:USA
+</t>
+  </si>
+  <si>
+    <t>CHECK</t>
+  </si>
+  <si>
+    <t>bbb3232:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,
+bbb3434:FL:STANDARD:USA:REGULAR:2014:BUICK:SPECIAL,
+bbb1515:FL:STANDARD:USA:REGULAR:2014:BRAUN:ENTERVAN II</t>
+  </si>
+  <si>
+    <t>SunPass Portable:2,
+SunPass Mini :2,
+Eco Plus Portable:2</t>
+  </si>
+  <si>
+    <t>ACEO_058</t>
+  </si>
+  <si>
+    <t>ACEO_059</t>
+  </si>
+  <si>
+    <t>ACEO_060</t>
+  </si>
+  <si>
+    <t xml:space="preserve">john </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAILING:10049 ST MORITZ DR::33913:MIROMAR LAKES:FL:USA
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AAA3234:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL
+</t>
+  </si>
+  <si>
+    <t>Creating private prepaid Account with Add non-standardized address in mailing
+ address.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAILING1600 SOUTH OCEAN BLVD:UNIT 1203:33602:POMPANO BEACH:FL:USA
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SunPass Portable:1,
+SunPass Mini :1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bbb1232:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,
+bbb1434:FL:STANDARD:USA:REGULAR:2014:BUICK:SPECIAL
+</t>
+  </si>
+  <si>
+    <t>ACEO_076</t>
+  </si>
+  <si>
+    <t>joseph</t>
+  </si>
+  <si>
+    <t>JK Ltd</t>
+  </si>
+  <si>
+    <t>Commercial RCSPPOST account creation with mail-in mode
+zipcode existing is S6W but we have taken valid one</t>
+  </si>
+  <si>
+    <t>RCSPPOST</t>
+  </si>
+  <si>
+    <t>bbbc11:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,
+bbbc22:FL:STANDARD:USA:REGULAR:2014:BUICK:SPECIAL,
+bbbc335:FL:STANDARD:USA:REGULAR:2014:BRAUN:ENTERVAN II, bbbc445:FL:STANDARD:USA:REGULAR:2014:BMW:M</t>
+  </si>
+  <si>
+    <t>ACEO_078</t>
+  </si>
+  <si>
+    <t>MAILING:250 EGRET STREET::33931:FORT MYERS BEACH:FL:USA,
+BILLING:250 EGRET STREET::33931:FORT MYERS BEACH:FL:USA</t>
+  </si>
+  <si>
+    <t>miller</t>
+  </si>
+  <si>
+    <t>MK Pvt LTD</t>
+  </si>
+  <si>
+    <t>bbbc111:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,
+bbbc222:FL:STANDARD:USA:REGULAR:2014:BUICK:SPECIAL,
+bbbc333:FL:STANDARD:USA:REGULAR:2014:BRAUN:ENTERVAN II, bbbc444:FL:STANDARD:USA:REGULAR:2014:BMW:M</t>
+  </si>
+  <si>
+    <t>RCSPPRE</t>
+  </si>
+  <si>
+    <t>cena</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commercial FLEETPOST account creation with mail-in mode
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business RCSPPRE account creation with mail-in mode
+</t>
+  </si>
+  <si>
+    <t>gracia</t>
+  </si>
+  <si>
+    <t>MAILING:632 CATHERINE FOSTER LANE::32259:SAINT JOHNS:FL:USA,
+BILLING:250 EGRET STREET::33931:SAINT JOHNS:FL:USA</t>
+  </si>
+  <si>
+    <t>wbc111:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,
+wbc222:FL:STANDARD:USA:REGULAR:2014:BUICK:SPECIAL,
+wbc333:FL:STANDARD:USA:REGULAR:2014:BRAUN:ENTERVAN II, wbc444:FL:STANDARD:USA:REGULAR:2014:BMW:M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commercial ISPPOST account creation with mail-in mode
+</t>
+  </si>
+  <si>
+    <t>ACEO_094</t>
+  </si>
+  <si>
+    <t>joshua</t>
+  </si>
+  <si>
+    <t>GEM Services</t>
+  </si>
+  <si>
+    <t>philip</t>
+  </si>
+  <si>
+    <t>MAILING:202 KENSINGTON WAY::33414:WEST PALM BEACH:FL:USA,
+BILLING:202 KENSINGTON WAY::33414:WEST PALM BEACH:FL:USA,
+SHIPPING:202 KENSINGTON WAY::33414:WEST PALM BEACH:FL:USA</t>
+  </si>
+  <si>
+    <t>CreditCardNo</t>
+  </si>
+  <si>
+    <t>ExpMonth</t>
+  </si>
+  <si>
+    <t>ExpYear</t>
+  </si>
+  <si>
+    <t>5472063333333330</t>
+  </si>
+  <si>
+    <t>4159282222222221</t>
+  </si>
+  <si>
+    <t>joe</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Prepaid private account creation only with standard plan with
+phone-in mode [Walk-in mode only possible since payment mode selected is Check]</t>
+  </si>
+  <si>
+    <t>Create Commercial Government account GOVPOST and NRV 
+with walk-in mode</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
+    <t>TaxExempt ExpiryDate</t>
+  </si>
+  <si>
+    <t>TaxExempt Value</t>
+  </si>
+  <si>
+    <t>IS TaxExempt</t>
+  </si>
+  <si>
+    <t>FL CCSS</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -663,8 +1126,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -683,8 +1167,41 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD4CBE5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF0EDF6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -744,12 +1261,76 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD4CBE5"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD4CBE5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD4CBE5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD4CBE5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD4CBE5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFD4CBE5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD4CBE5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD4CBE5"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD4CBE5"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD4CBE5"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFD4CBE5"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFD4CBE5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -774,12 +1355,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="7" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="32">
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1010,6 +1635,60 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -1385,8 +2064,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="28"/>
-      <tableStyleElement type="headerRow" dxfId="27"/>
+      <tableStyleElement type="wholeTable" dxfId="31"/>
+      <tableStyleElement type="headerRow" dxfId="30"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1401,24 +2080,27 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="G1:AF4" totalsRowShown="0" headerRowDxfId="26">
-  <autoFilter ref="G1:AF4"/>
-  <tableColumns count="26">
-    <tableColumn id="1" name="UserId" dataDxfId="25"/>
-    <tableColumn id="2" name="Password" dataDxfId="24"/>
-    <tableColumn id="46" name="Agency" dataDxfId="23"/>
-    <tableColumn id="4" name="PIN" dataDxfId="22"/>
-    <tableColumn id="5" name="Challenge Question" dataDxfId="21"/>
-    <tableColumn id="6" name="Challenge Answer" dataDxfId="20"/>
-    <tableColumn id="7" name="Email Address" dataDxfId="19"/>
-    <tableColumn id="8" name="Statement Frequency" dataDxfId="18"/>
-    <tableColumn id="9" name="LanguagePref" dataDxfId="17"/>
-    <tableColumn id="12" name="First Name" dataDxfId="16"/>
-    <tableColumn id="13" name="Last Name" dataDxfId="15"/>
-    <tableColumn id="14" name="Cell Phone" dataDxfId="14"/>
-    <tableColumn id="15" name="AddressType" dataDxfId="13"/>
-    <tableColumn id="22" name="Is Primary ?" dataDxfId="12"/>
-    <tableColumn id="23" name="Rebill Pay Type" dataDxfId="11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="G1:AI4" totalsRowShown="0" headerRowDxfId="29">
+  <autoFilter ref="G1:AI4"/>
+  <tableColumns count="29">
+    <tableColumn id="1" name="UserId" dataDxfId="28"/>
+    <tableColumn id="2" name="Password" dataDxfId="27"/>
+    <tableColumn id="46" name="Agency" dataDxfId="26"/>
+    <tableColumn id="4" name="PIN" dataDxfId="25"/>
+    <tableColumn id="5" name="Challenge Question" dataDxfId="24"/>
+    <tableColumn id="6" name="Challenge Answer" dataDxfId="23"/>
+    <tableColumn id="7" name="Email Address" dataDxfId="22"/>
+    <tableColumn id="8" name="Statement Frequency" dataDxfId="21"/>
+    <tableColumn id="9" name="LanguagePref" dataDxfId="20"/>
+    <tableColumn id="12" name="First Name" dataDxfId="19"/>
+    <tableColumn id="13" name="Last Name" dataDxfId="18"/>
+    <tableColumn id="14" name="Cell Phone" dataDxfId="17"/>
+    <tableColumn id="15" name="AddressType" dataDxfId="16"/>
+    <tableColumn id="22" name="Is Primary ?" dataDxfId="15"/>
+    <tableColumn id="23" name="Rebill Pay Type" dataDxfId="14"/>
+    <tableColumn id="16" name="CreditCardNo" dataDxfId="13"/>
+    <tableColumn id="18" name="ExpMonth" dataDxfId="12"/>
+    <tableColumn id="19" name="ExpYear" dataDxfId="11"/>
     <tableColumn id="24" name="VehiclesInfo" dataDxfId="10"/>
     <tableColumn id="32" name="DevicesInfo" dataDxfId="9"/>
     <tableColumn id="45" name="VehicleClass" dataDxfId="8"/>
@@ -1698,15 +2380,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM33"/>
+  <dimension ref="A1:AQ33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="16.125" customWidth="1"/>
+    <col min="1" max="1" width="16.125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="57" customWidth="1" collapsed="1"/>
     <col min="3" max="4" width="16.75" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="19" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="21.625" customWidth="1" collapsed="1"/>
@@ -1720,22 +2403,28 @@
     <col min="14" max="18" width="12.75" collapsed="1"/>
     <col min="19" max="19" width="99" customWidth="1" collapsed="1"/>
     <col min="20" max="21" width="12.75" collapsed="1"/>
-    <col min="22" max="22" width="73.25" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="53.75" customWidth="1" collapsed="1"/>
-    <col min="24" max="28" width="12.75" collapsed="1"/>
-    <col min="29" max="29" width="19.75" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="12.75" collapsed="1"/>
-    <col min="31" max="32" width="12.75" style="8" collapsed="1"/>
-    <col min="33" max="33" width="45.75" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="16.25" customWidth="1"/>
+    <col min="22" max="22" width="23.625" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="17.75" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="14.75" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="73.25" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="53.75" customWidth="1" collapsed="1"/>
+    <col min="27" max="31" width="12.75" collapsed="1"/>
+    <col min="32" max="32" width="19.75" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="12.75" collapsed="1"/>
+    <col min="34" max="34" width="12.75" style="8" collapsed="1"/>
+    <col min="35" max="35" width="18.75" style="8" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="36.25" customWidth="1" collapsed="1"/>
+    <col min="38" max="38" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="39" max="39" width="21" customWidth="1" collapsed="1"/>
+    <col min="40" max="40" width="16.25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>184</v>
+        <v>133</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>36</v>
@@ -1789,66 +2478,78 @@
         <v>11</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>71</v>
+        <v>313</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>72</v>
+        <v>314</v>
       </c>
       <c r="X1" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AC1" s="5" t="s">
+      <c r="AF1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AD1" s="5" t="s">
+      <c r="AG1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AH1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AI1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AG1" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="AH1" s="9" t="s">
+      <c r="AJ1" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="AK1" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="AL1" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="AM1" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="AN1" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="AI1" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ1" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:43" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>185</v>
+        <v>134</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>40</v>
@@ -1860,13 +2561,13 @@
         <v>44</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>33</v>
+        <v>326</v>
       </c>
       <c r="J2" s="1">
         <v>1122</v>
@@ -1887,80 +2588,86 @@
         <v>18</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="R2" s="1">
         <v>1231231231</v>
       </c>
       <c r="S2" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="T2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="V2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="W2" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="X2" s="1">
+        <v>65</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="Z2" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA2" s="1">
         <v>2</v>
       </c>
-      <c r="Y2" s="1">
+      <c r="AB2" s="1">
         <v>233</v>
       </c>
-      <c r="Z2" s="1">
+      <c r="AC2" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AA2" s="1">
+      <c r="AD2" s="1">
         <v>122235821</v>
       </c>
-      <c r="AB2" s="1">
+      <c r="AE2" s="1">
         <v>1</v>
       </c>
-      <c r="AC2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AE2" s="7">
+      <c r="AF2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AH2" s="7">
         <v>12341</v>
       </c>
-      <c r="AF2" s="7">
+      <c r="AI2" s="7">
         <v>22222</v>
       </c>
-      <c r="AG2" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH2" s="1" t="s">
+      <c r="AJ2" s="26">
+        <v>326120086</v>
+      </c>
+      <c r="AK2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AI2" s="1"/>
-      <c r="AJ2" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
-    </row>
-    <row r="3" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+      <c r="AN2" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AO2" s="1"/>
+      <c r="AP2" s="1"/>
+      <c r="AQ2" s="1"/>
+    </row>
+    <row r="3" spans="1:43" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="B3" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="C3" s="4" t="s">
-        <v>62</v>
+        <v>327</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>41</v>
@@ -1969,13 +2676,13 @@
         <v>44</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>33</v>
+        <v>326</v>
       </c>
       <c r="J3" s="1">
         <v>7860</v>
@@ -1996,75 +2703,85 @@
         <v>18</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="R3" s="1">
         <v>3452452345</v>
       </c>
       <c r="S3" s="10" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="V3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="W3" s="10" t="s">
-        <v>178</v>
+        <v>77</v>
+      </c>
+      <c r="V3" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="W3" s="1">
+        <v>12</v>
       </c>
       <c r="X3" s="1">
+        <v>2024</v>
+      </c>
+      <c r="Y3" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z3" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AA3" s="1">
         <v>2</v>
       </c>
-      <c r="Y3" s="1">
+      <c r="AB3" s="1">
         <v>200</v>
       </c>
-      <c r="Z3" s="1">
+      <c r="AC3" s="1">
         <v>3453453451</v>
       </c>
-      <c r="AA3" s="1">
+      <c r="AD3" s="1">
         <v>122235821</v>
       </c>
-      <c r="AB3" s="1">
+      <c r="AE3" s="1">
         <v>101</v>
       </c>
-      <c r="AC3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="AD3" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="AE3" s="7">
+      <c r="AF3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH3" s="7">
         <v>12341</v>
       </c>
-      <c r="AF3" s="7">
+      <c r="AI3" s="7">
         <v>22222</v>
       </c>
-      <c r="AG3" s="11" t="s">
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AL3" s="25">
+        <v>46337</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AN3" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="AH3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>67893</v>
-      </c>
-      <c r="AJ3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK3" s="1"/>
-      <c r="AL3" s="1"/>
-      <c r="AM3" s="1"/>
-    </row>
-    <row r="4" spans="1:39" ht="30" x14ac:dyDescent="0.25">
+      <c r="AO3" s="1"/>
+      <c r="AP3" s="1"/>
+      <c r="AQ3" s="1"/>
+    </row>
+    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>126</v>
+        <v>100</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4" t="s">
@@ -2080,13 +2797,13 @@
         <v>15</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>33</v>
+        <v>326</v>
       </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
@@ -2100,32 +2817,36 @@
       <c r="S4" s="10"/>
       <c r="T4" s="1"/>
       <c r="U4" s="1"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
       <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
+      <c r="Y4" s="10"/>
+      <c r="Z4" s="10"/>
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
       <c r="AD4" s="1"/>
-      <c r="AE4" s="7"/>
-      <c r="AF4" s="7"/>
-      <c r="AG4" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH4" s="1"/>
-      <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
+      <c r="AE4" s="1"/>
+      <c r="AF4" s="1"/>
+      <c r="AG4" s="1"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="11"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
-    </row>
-    <row r="5" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+      <c r="AN4" s="1"/>
+      <c r="AO4" s="1"/>
+      <c r="AP4" s="1"/>
+      <c r="AQ4" s="1"/>
+    </row>
+    <row r="5" spans="1:43" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" s="4"/>
+        <v>102</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>225</v>
+      </c>
       <c r="C5" s="4" t="s">
         <v>62</v>
       </c>
@@ -2139,13 +2860,13 @@
         <v>45</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>33</v>
+        <v>326</v>
       </c>
       <c r="J5" s="1">
         <v>7896</v>
@@ -2166,16 +2887,16 @@
         <v>18</v>
       </c>
       <c r="P5" s="1" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="Q5" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="R5" s="1">
         <v>3452452345</v>
       </c>
       <c r="S5" s="10" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="T5" s="1" t="s">
         <v>19</v>
@@ -2183,54 +2904,58 @@
       <c r="U5" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V5" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="W5" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="X5" s="1">
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z5" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA5" s="1">
         <v>2</v>
       </c>
-      <c r="Y5" s="1">
+      <c r="AB5" s="1">
         <v>200</v>
       </c>
-      <c r="Z5" s="1">
+      <c r="AC5" s="1">
         <v>3453453451</v>
       </c>
-      <c r="AA5" s="1">
+      <c r="AD5" s="1">
         <v>122235821</v>
       </c>
-      <c r="AB5" s="1"/>
-      <c r="AC5" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD5" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AE5" s="7">
+      <c r="AE5" s="1"/>
+      <c r="AF5" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH5" s="7">
         <v>12341</v>
       </c>
-      <c r="AF5" s="7">
+      <c r="AI5" s="7">
         <v>22222</v>
       </c>
-      <c r="AG5" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH5" s="1"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1" t="s">
-        <v>91</v>
-      </c>
+      <c r="AJ5" s="11"/>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
-    </row>
-    <row r="6" spans="1:39" ht="60" x14ac:dyDescent="0.25">
+      <c r="AN5" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AO5" s="1"/>
+      <c r="AP5" s="1"/>
+      <c r="AQ5" s="1"/>
+    </row>
+    <row r="6" spans="1:43" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" s="4"/>
+        <v>103</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>227</v>
+      </c>
       <c r="C6" s="4" t="s">
         <v>62</v>
       </c>
@@ -2241,16 +2966,16 @@
         <v>41</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>33</v>
+        <v>326</v>
       </c>
       <c r="J6" s="1">
         <v>7860</v>
@@ -2271,16 +2996,16 @@
         <v>18</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="Q6" s="1" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="R6" s="1">
         <v>3452452345</v>
       </c>
       <c r="S6" s="10" t="s">
-        <v>134</v>
+        <v>108</v>
       </c>
       <c r="T6" s="1" t="s">
         <v>19</v>
@@ -2288,52 +3013,58 @@
       <c r="U6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V6" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="W6" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="X6" s="1">
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z6" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA6" s="1">
         <v>2</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="AB6" s="1">
         <v>200</v>
       </c>
-      <c r="Z6" s="1">
+      <c r="AC6" s="1">
         <v>3453453451</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AD6" s="1">
         <v>122235821</v>
       </c>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="7">
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG6" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AH6" s="7">
         <v>12341</v>
       </c>
-      <c r="AF6" s="7">
+      <c r="AI6" s="7">
         <v>22222</v>
       </c>
-      <c r="AG6" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1" t="s">
-        <v>96</v>
-      </c>
+      <c r="AJ6" s="11"/>
       <c r="AK6" s="1"/>
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
-    </row>
-    <row r="7" spans="1:39" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN6" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AO6" s="1"/>
+      <c r="AP6" s="1"/>
+      <c r="AQ6" s="1"/>
+    </row>
+    <row r="7" spans="1:43" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>228</v>
+      </c>
       <c r="C7" s="4" t="s">
         <v>62</v>
       </c>
@@ -2347,13 +3078,13 @@
         <v>45</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>33</v>
+        <v>326</v>
       </c>
       <c r="J7" s="1">
         <v>2130</v>
@@ -2374,16 +3105,16 @@
         <v>18</v>
       </c>
       <c r="P7" s="1" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="Q7" s="1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="R7" s="1">
         <v>3421562345</v>
       </c>
       <c r="S7" s="10" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="T7" s="1" t="s">
         <v>19</v>
@@ -2391,58 +3122,62 @@
       <c r="U7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V7" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="W7" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="X7" s="1">
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z7" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="AA7" s="1">
         <v>2</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="AB7" s="1">
         <v>200</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="AC7" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AD7" s="1">
         <v>122235821</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AE7" s="1">
         <v>1</v>
       </c>
-      <c r="AC7" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="AD7" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE7" s="7">
+      <c r="AF7" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG7" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH7" s="7">
         <v>12341</v>
       </c>
-      <c r="AF7" s="7">
+      <c r="AI7" s="7">
         <v>22222</v>
       </c>
-      <c r="AG7" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH7" s="1" t="s">
+      <c r="AJ7" s="11"/>
+      <c r="AK7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
-    </row>
-    <row r="8" spans="1:39" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN7" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="1"/>
+    </row>
+    <row r="8" spans="1:43" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>104</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>321</v>
+      </c>
       <c r="C8" s="4" t="s">
         <v>62</v>
       </c>
@@ -2456,13 +3191,13 @@
         <v>45</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>33</v>
+        <v>326</v>
       </c>
       <c r="J8" s="1">
         <v>2098</v>
@@ -2483,16 +3218,16 @@
         <v>18</v>
       </c>
       <c r="P8" s="1" t="s">
-        <v>131</v>
+        <v>105</v>
       </c>
       <c r="Q8" s="1" t="s">
-        <v>132</v>
+        <v>106</v>
       </c>
       <c r="R8" s="1">
         <v>2341567878</v>
       </c>
       <c r="S8" s="10" t="s">
-        <v>140</v>
+        <v>113</v>
       </c>
       <c r="T8" s="1" t="s">
         <v>19</v>
@@ -2500,51 +3235,55 @@
       <c r="U8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V8" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="W8" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="X8" s="1">
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="Z8" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA8" s="1">
         <v>2</v>
       </c>
-      <c r="Y8" s="1">
+      <c r="AB8" s="1">
         <v>101</v>
       </c>
-      <c r="Z8" s="1">
+      <c r="AC8" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AA8" s="1">
+      <c r="AD8" s="1">
         <v>122235821</v>
       </c>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AD8" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AE8" s="7">
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AH8" s="7">
         <v>12341</v>
       </c>
-      <c r="AF8" s="7">
+      <c r="AI8" s="7">
         <v>22222</v>
       </c>
-      <c r="AG8" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="9" spans="1:39" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ8" s="11"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>226</v>
+      </c>
       <c r="C9" s="4" t="s">
         <v>62</v>
       </c>
@@ -2558,13 +3297,13 @@
         <v>45</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>33</v>
+        <v>326</v>
       </c>
       <c r="J9" s="1">
         <v>1234</v>
@@ -2585,16 +3324,16 @@
         <v>18</v>
       </c>
       <c r="P9" s="1" t="s">
-        <v>142</v>
+        <v>115</v>
       </c>
       <c r="Q9" s="1" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="R9" s="1">
         <v>2341567878</v>
       </c>
       <c r="S9" s="10" t="s">
-        <v>141</v>
+        <v>114</v>
       </c>
       <c r="T9" s="1" t="s">
         <v>19</v>
@@ -2602,51 +3341,55 @@
       <c r="U9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V9" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="W9" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="X9" s="1">
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="Z9" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA9" s="1">
         <v>2</v>
       </c>
-      <c r="Y9" s="1">
+      <c r="AB9" s="1">
         <v>101</v>
       </c>
-      <c r="Z9" s="1">
+      <c r="AC9" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AD9" s="1">
         <v>122235821</v>
       </c>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="AD9" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE9" s="7">
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AG9" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH9" s="7">
         <v>12341</v>
       </c>
-      <c r="AF9" s="7">
+      <c r="AI9" s="7">
         <v>22222</v>
       </c>
-      <c r="AG9" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="10" spans="1:39" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ9" s="11"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
+      <c r="AM9" s="1"/>
+      <c r="AN9" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" s="4"/>
+        <v>229</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="C10" s="4" t="s">
         <v>62</v>
       </c>
@@ -2660,16 +3403,16 @@
         <v>15</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>33</v>
+        <v>326</v>
       </c>
       <c r="J10" s="1">
-        <v>9876</v>
+        <v>9879</v>
       </c>
       <c r="K10" s="1" t="s">
         <v>35</v>
@@ -2687,16 +3430,16 @@
         <v>18</v>
       </c>
       <c r="P10" s="1" t="s">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="Q10" s="1" t="s">
-        <v>150</v>
+        <v>232</v>
       </c>
       <c r="R10" s="1">
         <v>2341567878</v>
       </c>
       <c r="S10" s="1" t="s">
-        <v>151</v>
+        <v>233</v>
       </c>
       <c r="T10" s="1" t="s">
         <v>19</v>
@@ -2704,47 +3447,51 @@
       <c r="U10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="W10" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="X10" s="1">
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z10" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AA10" s="1">
         <v>2</v>
       </c>
-      <c r="Y10" s="1">
+      <c r="AB10" s="1">
         <v>1</v>
       </c>
-      <c r="Z10" s="1">
+      <c r="AC10" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AA10" s="1">
+      <c r="AD10" s="1">
         <v>122235821</v>
       </c>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="7">
+      <c r="AE10" s="1"/>
+      <c r="AF10" s="1"/>
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="7">
         <v>12341</v>
       </c>
-      <c r="AF10" s="7">
+      <c r="AI10" s="7">
         <v>22222</v>
       </c>
-      <c r="AG10" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH10" s="1"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:39" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ10" s="11"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="B11" s="4"/>
+        <v>235</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>236</v>
+      </c>
       <c r="C11" s="4" t="s">
         <v>62</v>
       </c>
@@ -2755,16 +3502,16 @@
         <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>33</v>
+        <v>326</v>
       </c>
       <c r="J11" s="1">
         <v>5566</v>
@@ -2776,7 +3523,7 @@
         <v>2345</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>16</v>
+        <v>237</v>
       </c>
       <c r="N11" s="1" t="s">
         <v>17</v>
@@ -2785,64 +3532,78 @@
         <v>18</v>
       </c>
       <c r="P11" s="1" t="s">
-        <v>154</v>
+        <v>238</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>155</v>
+        <v>239</v>
       </c>
       <c r="R11" s="1">
         <v>2341567878</v>
       </c>
-      <c r="S11" s="1" t="s">
-        <v>156</v>
+      <c r="S11" s="10" t="s">
+        <v>243</v>
       </c>
       <c r="T11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="V11" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="W11" s="10" t="s">
-        <v>181</v>
+        <v>244</v>
+      </c>
+      <c r="V11" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="W11" s="1">
+        <v>12</v>
       </c>
       <c r="X11" s="1">
+        <v>2019</v>
+      </c>
+      <c r="Y11" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="Z11" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="AA11" s="1">
         <v>2</v>
       </c>
-      <c r="Y11" s="1">
-        <v>3</v>
-      </c>
-      <c r="Z11" s="1">
+      <c r="AB11" s="1">
+        <v>101</v>
+      </c>
+      <c r="AC11" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AA11" s="1">
+      <c r="AD11" s="1">
         <v>122235821</v>
       </c>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="7">
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG11" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH11" s="7">
         <v>12341</v>
       </c>
-      <c r="AF11" s="7">
+      <c r="AI11" s="7">
         <v>22222</v>
       </c>
-      <c r="AG11" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH11" s="1"/>
-      <c r="AI11" s="1"/>
-      <c r="AJ11" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ11" s="11"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B12" s="4"/>
+        <v>246</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>230</v>
+      </c>
       <c r="C12" s="4" t="s">
         <v>62</v>
       </c>
@@ -2856,13 +3617,13 @@
         <v>15</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>33</v>
+        <v>326</v>
       </c>
       <c r="J12" s="1">
         <v>2331</v>
@@ -2883,64 +3644,74 @@
         <v>18</v>
       </c>
       <c r="P12" s="1" t="s">
-        <v>158</v>
+        <v>247</v>
       </c>
       <c r="Q12" s="1" t="s">
-        <v>159</v>
+        <v>248</v>
       </c>
       <c r="R12" s="1">
         <v>2341567878</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>160</v>
+        <v>249</v>
       </c>
       <c r="T12" s="1" t="s">
         <v>19</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="V12" s="10" t="s">
-        <v>163</v>
-      </c>
-      <c r="W12" s="10" t="s">
-        <v>182</v>
+        <v>234</v>
+      </c>
+      <c r="V12" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="W12" s="1">
+        <v>12</v>
       </c>
       <c r="X12" s="1">
+        <v>2024</v>
+      </c>
+      <c r="Y12" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="Z12" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA12" s="1">
         <v>2</v>
       </c>
-      <c r="Y12" s="1">
+      <c r="AB12" s="1">
         <v>2</v>
       </c>
-      <c r="Z12" s="1">
+      <c r="AC12" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AA12" s="1">
+      <c r="AD12" s="1">
         <v>122235821</v>
       </c>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="7">
+      <c r="AE12" s="1"/>
+      <c r="AF12" s="1"/>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="7">
         <v>12341</v>
       </c>
-      <c r="AF12" s="7">
+      <c r="AI12" s="7">
         <v>22222</v>
       </c>
-      <c r="AG12" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH12" s="1"/>
-      <c r="AI12" s="1"/>
-      <c r="AJ12" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:39" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ12" s="11"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="B13" s="4"/>
+        <v>253</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>258</v>
+      </c>
       <c r="C13" s="4" t="s">
         <v>62</v>
       </c>
@@ -2948,19 +3719,19 @@
         <v>40</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>43</v>
+        <v>254</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>33</v>
+        <v>326</v>
       </c>
       <c r="J13" s="1">
         <v>2233</v>
@@ -2969,7 +3740,7 @@
         <v>35</v>
       </c>
       <c r="L13" s="1">
-        <v>2345</v>
+        <v>2014</v>
       </c>
       <c r="M13" s="2" t="s">
         <v>16</v>
@@ -2981,68 +3752,72 @@
         <v>18</v>
       </c>
       <c r="P13" s="1" t="s">
-        <v>131</v>
+        <v>255</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>98</v>
+        <v>256</v>
       </c>
       <c r="R13" s="1">
         <v>2341567878</v>
       </c>
-      <c r="S13" s="10" t="s">
-        <v>141</v>
+      <c r="S13" s="20" t="s">
+        <v>95</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>19</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="V13" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="W13" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="X13" s="1">
+        <v>65</v>
+      </c>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z13" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA13" s="1">
         <v>2</v>
       </c>
-      <c r="Y13" s="1">
+      <c r="AB13" s="1">
         <v>101</v>
       </c>
-      <c r="Z13" s="1">
+      <c r="AC13" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AA13" s="1">
+      <c r="AD13" s="1">
         <v>122235821</v>
       </c>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD13" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE13" s="7">
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AG13" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AH13" s="7">
         <v>12341</v>
       </c>
-      <c r="AF13" s="7">
+      <c r="AI13" s="7">
         <v>22222</v>
       </c>
-      <c r="AG13" s="11" t="s">
+      <c r="AJ13" s="11"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="AH13" s="1"/>
-      <c r="AI13" s="1"/>
-      <c r="AJ13" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:43" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B14" s="4"/>
+        <v>259</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>260</v>
+      </c>
       <c r="C14" s="4" t="s">
         <v>62</v>
       </c>
@@ -3050,19 +3825,19 @@
         <v>40</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>33</v>
+        <v>326</v>
       </c>
       <c r="J14" s="1">
         <v>8778</v>
@@ -3071,7 +3846,7 @@
         <v>35</v>
       </c>
       <c r="L14" s="1">
-        <v>2345</v>
+        <v>8891</v>
       </c>
       <c r="M14" s="2" t="s">
         <v>16</v>
@@ -3083,87 +3858,91 @@
         <v>18</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>131</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>98</v>
+        <v>262</v>
       </c>
       <c r="R14" s="1">
         <v>2341567878</v>
       </c>
       <c r="S14" s="10" t="s">
-        <v>141</v>
+        <v>268</v>
       </c>
       <c r="T14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="V14" s="10" t="s">
-        <v>168</v>
-      </c>
-      <c r="W14" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="X14" s="1">
+        <v>126</v>
+      </c>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z14" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA14" s="1">
         <v>2</v>
       </c>
-      <c r="Y14" s="1">
-        <v>101</v>
-      </c>
-      <c r="Z14" s="1">
+      <c r="AB14" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AC14" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AA14" s="1">
+      <c r="AD14" s="1">
         <v>122235821</v>
       </c>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="AE14" s="7">
+      <c r="AE14" s="1"/>
+      <c r="AF14" s="1"/>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="7">
         <v>12341</v>
       </c>
-      <c r="AF14" s="7">
+      <c r="AI14" s="7">
         <v>22222</v>
       </c>
-      <c r="AG14" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH14" s="1"/>
-      <c r="AI14" s="1"/>
-      <c r="AJ14" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:39" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ14" s="11"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B15" s="4"/>
+        <v>121</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>265</v>
+      </c>
       <c r="C15" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
+      <c r="E15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G15" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>33</v>
+        <v>326</v>
       </c>
       <c r="J15" s="1">
-        <v>7667</v>
+        <v>9876</v>
       </c>
       <c r="K15" s="1" t="s">
         <v>35</v>
@@ -3181,82 +3960,92 @@
         <v>18</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>172</v>
+        <v>122</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>173</v>
+        <v>266</v>
       </c>
       <c r="R15" s="1">
         <v>2341567878</v>
       </c>
       <c r="S15" s="10" t="s">
-        <v>139</v>
+        <v>269</v>
       </c>
       <c r="T15" s="1" t="s">
         <v>19</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="V15" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="W15" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="X15" s="1">
+        <v>63</v>
+      </c>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="Z15" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA15" s="1">
         <v>2</v>
       </c>
-      <c r="Y15" s="1">
-        <v>101</v>
-      </c>
-      <c r="Z15" s="1">
+      <c r="AB15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AA15" s="1">
+      <c r="AD15" s="1">
         <v>122235821</v>
       </c>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="7">
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="7">
         <v>12341</v>
       </c>
-      <c r="AF15" s="7">
+      <c r="AI15" s="7">
         <v>22222</v>
       </c>
-      <c r="AG15" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH15" s="1"/>
-      <c r="AI15" s="1"/>
-      <c r="AJ15" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="16" spans="1:39" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ15" s="11"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B16" s="4"/>
+        <v>124</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>265</v>
+      </c>
       <c r="C16" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G16" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J16" s="1"/>
+        <v>326</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1212</v>
+      </c>
       <c r="K16" s="1" t="s">
         <v>35</v>
       </c>
@@ -3272,63 +4061,93 @@
       <c r="O16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
+      <c r="P16" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="R16" s="1">
+        <v>2341567878</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
-      <c r="X16" s="1">
+      <c r="X16" s="1"/>
+      <c r="Y16" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z16" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA16" s="1">
         <v>2</v>
       </c>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1">
+      <c r="AB16" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC16" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AA16" s="1">
+      <c r="AD16" s="1">
         <v>122235821</v>
       </c>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="7">
+      <c r="AE16" s="1"/>
+      <c r="AF16" s="1"/>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="7">
         <v>12341</v>
       </c>
-      <c r="AF16" s="7">
+      <c r="AI16" s="7">
         <v>22222</v>
       </c>
-      <c r="AG16" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH16" s="1"/>
-      <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-    </row>
-    <row r="17" spans="1:36" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ16" s="11"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="B17" s="4"/>
+        <v>279</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>320</v>
+      </c>
       <c r="C17" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G17" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="1"/>
+        <v>326</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2341</v>
+      </c>
       <c r="K17" s="1" t="s">
         <v>35</v>
       </c>
@@ -3344,63 +4163,95 @@
       <c r="O17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
+      <c r="P17" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q17" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="R17" s="1">
+        <v>2341567878</v>
+      </c>
+      <c r="S17" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="T17" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U17" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="V17" s="1"/>
       <c r="W17" s="1"/>
-      <c r="X17" s="1">
+      <c r="X17" s="1"/>
+      <c r="Y17" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="Z17" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="AA17" s="1">
         <v>2</v>
       </c>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1">
+      <c r="AB17" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC17" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AA17" s="1">
+      <c r="AD17" s="1">
         <v>122235821</v>
       </c>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
-      <c r="AD17" s="1"/>
-      <c r="AE17" s="7">
+      <c r="AE17" s="1"/>
+      <c r="AF17" s="1"/>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="7">
         <v>12341</v>
       </c>
-      <c r="AF17" s="7">
+      <c r="AI17" s="7">
         <v>22222</v>
       </c>
-      <c r="AG17" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH17" s="1"/>
-      <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
-    </row>
-    <row r="18" spans="1:36" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ17" s="24">
+        <v>326119881</v>
+      </c>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="4"/>
+        <v>280</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>265</v>
+      </c>
       <c r="C18" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
+      <c r="E18" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G18" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J18" s="1"/>
+        <v>326</v>
+      </c>
+      <c r="J18" s="1">
+        <v>9879</v>
+      </c>
       <c r="K18" s="1" t="s">
         <v>35</v>
       </c>
@@ -3416,63 +4267,93 @@
       <c r="O18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
+      <c r="P18" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q18" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="R18" s="1">
+        <v>2341567878</v>
+      </c>
+      <c r="S18" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="V18" s="1"/>
       <c r="W18" s="1"/>
-      <c r="X18" s="1">
+      <c r="X18" s="1"/>
+      <c r="Y18" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="Z18" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="AA18" s="1">
         <v>2</v>
       </c>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1">
+      <c r="AB18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AA18" s="1">
+      <c r="AD18" s="1">
         <v>122235821</v>
       </c>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
-      <c r="AD18" s="1"/>
-      <c r="AE18" s="7">
+      <c r="AE18" s="1"/>
+      <c r="AF18" s="1"/>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="7">
         <v>12341</v>
       </c>
-      <c r="AF18" s="7">
+      <c r="AI18" s="7">
         <v>22222</v>
       </c>
-      <c r="AG18" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH18" s="1"/>
-      <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
-    </row>
-    <row r="19" spans="1:36" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ18" s="11"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="B19" s="4"/>
+        <v>281</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>285</v>
+      </c>
       <c r="C19" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="G19" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" s="1"/>
+        <v>326</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2013</v>
+      </c>
       <c r="K19" s="1" t="s">
         <v>35</v>
       </c>
@@ -3488,63 +4369,93 @@
       <c r="O19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
+      <c r="P19" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q19" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="R19" s="1">
+        <v>2341567878</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U19" s="1" t="s">
+        <v>276</v>
+      </c>
       <c r="V19" s="1"/>
       <c r="W19" s="1"/>
-      <c r="X19" s="1">
+      <c r="X19" s="1"/>
+      <c r="Y19" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="Z19" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA19" s="1">
         <v>2</v>
       </c>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1">
+      <c r="AB19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC19" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AA19" s="1">
+      <c r="AD19" s="1">
         <v>122235821</v>
       </c>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
-      <c r="AD19" s="1"/>
-      <c r="AE19" s="7">
+      <c r="AE19" s="1"/>
+      <c r="AF19" s="1"/>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="7">
         <v>12341</v>
       </c>
-      <c r="AF19" s="7">
+      <c r="AI19" s="7">
         <v>22222</v>
       </c>
-      <c r="AG19" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH19" s="1"/>
-      <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-    </row>
-    <row r="20" spans="1:36" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ19" s="11"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="4"/>
+        <v>289</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>292</v>
+      </c>
       <c r="C20" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
+      <c r="E20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="G20" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" s="1"/>
+        <v>326</v>
+      </c>
+      <c r="J20" s="1">
+        <v>6540</v>
+      </c>
       <c r="K20" s="1" t="s">
         <v>35</v>
       </c>
@@ -3560,63 +4471,97 @@
       <c r="O20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
+      <c r="P20" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="R20" s="1">
+        <v>2341567878</v>
+      </c>
+      <c r="S20" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="V20" s="1"/>
       <c r="W20" s="1"/>
-      <c r="X20" s="1">
+      <c r="X20" s="1"/>
+      <c r="Y20" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="Z20" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA20" s="1">
         <v>2</v>
       </c>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1">
+      <c r="AB20" s="1">
+        <v>101</v>
+      </c>
+      <c r="AC20" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AA20" s="1">
+      <c r="AD20" s="1">
         <v>122235821</v>
       </c>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
-      <c r="AD20" s="1"/>
-      <c r="AE20" s="7">
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AH20" s="7">
         <v>12341</v>
       </c>
-      <c r="AF20" s="7">
+      <c r="AI20" s="7">
         <v>22222</v>
       </c>
-      <c r="AG20" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH20" s="1"/>
-      <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
-    </row>
-    <row r="21" spans="1:36" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ20" s="11"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="21" spans="1:40" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" s="4"/>
+        <v>295</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>303</v>
+      </c>
       <c r="C21" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="G21" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J21" s="1"/>
+        <v>326</v>
+      </c>
+      <c r="J21" s="1">
+        <v>5673</v>
+      </c>
       <c r="K21" s="1" t="s">
         <v>35</v>
       </c>
@@ -3632,63 +4577,95 @@
       <c r="O21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
+      <c r="P21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="R21" s="1">
+        <v>2341567878</v>
+      </c>
+      <c r="S21" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U21" s="1" t="s">
+        <v>126</v>
+      </c>
       <c r="V21" s="1"/>
       <c r="W21" s="1"/>
-      <c r="X21" s="1">
+      <c r="X21" s="1"/>
+      <c r="Y21" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="Z21" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA21" s="1">
         <v>2</v>
       </c>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1">
+      <c r="AB21" s="1">
+        <v>101</v>
+      </c>
+      <c r="AC21" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AD21" s="1">
         <v>122235821</v>
       </c>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
-      <c r="AD21" s="1"/>
-      <c r="AE21" s="7">
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="AG21" s="1"/>
+      <c r="AH21" s="7">
         <v>12341</v>
       </c>
-      <c r="AF21" s="7">
+      <c r="AI21" s="7">
         <v>22222</v>
       </c>
-      <c r="AG21" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH21" s="1"/>
-      <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
-    </row>
-    <row r="22" spans="1:36" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ21" s="11"/>
+      <c r="AK21" s="1"/>
+      <c r="AL21" s="1"/>
+      <c r="AM21" s="1"/>
+      <c r="AN21" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:40" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B22" s="4"/>
+        <v>101</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>302</v>
+      </c>
       <c r="C22" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="G22" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J22" s="1"/>
+        <v>326</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2130</v>
+      </c>
       <c r="K22" s="1" t="s">
         <v>35</v>
       </c>
@@ -3704,63 +4681,97 @@
       <c r="O22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
+      <c r="P22" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="R22" s="1">
+        <v>2341567878</v>
+      </c>
+      <c r="S22" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U22" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="V22" s="1"/>
       <c r="W22" s="1"/>
-      <c r="X22" s="1">
+      <c r="X22" s="1"/>
+      <c r="Y22" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z22" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AA22" s="1">
         <v>2</v>
       </c>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1">
+      <c r="AB22" s="1">
+        <v>101</v>
+      </c>
+      <c r="AC22" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AD22" s="1">
         <v>122235821</v>
       </c>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
-      <c r="AD22" s="1"/>
-      <c r="AE22" s="7">
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AG22" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AH22" s="7">
         <v>12341</v>
       </c>
-      <c r="AF22" s="7">
+      <c r="AI22" s="7">
         <v>22222</v>
       </c>
-      <c r="AG22" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH22" s="1"/>
-      <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
-    </row>
-    <row r="23" spans="1:36" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AJ22" s="11"/>
+      <c r="AK22" s="1"/>
+      <c r="AL22" s="1"/>
+      <c r="AM22" s="1"/>
+      <c r="AN22" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:40" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B23" s="4"/>
+        <v>308</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>307</v>
+      </c>
       <c r="C23" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
+      <c r="E23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="G23" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J23" s="1"/>
+        <v>326</v>
+      </c>
+      <c r="J23" s="1">
+        <v>2112</v>
+      </c>
       <c r="K23" s="1" t="s">
         <v>35</v>
       </c>
@@ -3776,61 +4787,77 @@
       <c r="O23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
+      <c r="P23" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="R23" s="1">
+        <v>2341567878</v>
+      </c>
+      <c r="S23" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U23" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
-      <c r="X23" s="1">
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1">
         <v>2</v>
       </c>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1">
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AA23" s="1">
+      <c r="AD23" s="1">
         <v>122235821</v>
       </c>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="7">
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AH23" s="7">
         <v>12341</v>
       </c>
-      <c r="AF23" s="7">
+      <c r="AI23" s="7">
         <v>22222</v>
       </c>
-      <c r="AG23" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH23" s="1"/>
-      <c r="AI23" s="1"/>
-      <c r="AJ23" s="1"/>
-    </row>
-    <row r="24" spans="1:36" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>114</v>
-      </c>
+      <c r="AJ23" s="11"/>
+      <c r="AK23" s="1"/>
+      <c r="AL23" s="1"/>
+      <c r="AM23" s="1"/>
+      <c r="AN23" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:40" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="C24" s="4"/>
       <c r="D24" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>33</v>
+        <v>326</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
@@ -3856,53 +4883,51 @@
       <c r="U24" s="1"/>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
-      <c r="X24" s="1">
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1">
         <v>2</v>
       </c>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1">
+      <c r="AB24" s="1"/>
+      <c r="AC24" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AA24" s="1">
+      <c r="AD24" s="1">
         <v>122235821</v>
       </c>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="1"/>
-      <c r="AE24" s="7">
+      <c r="AE24" s="1"/>
+      <c r="AF24" s="1"/>
+      <c r="AG24" s="1"/>
+      <c r="AH24" s="7">
         <v>12341</v>
       </c>
-      <c r="AF24" s="7">
+      <c r="AI24" s="7">
         <v>22222</v>
       </c>
-      <c r="AG24" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-    </row>
-    <row r="25" spans="1:36" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>115</v>
-      </c>
+      <c r="AJ24" s="11"/>
+      <c r="AK24" s="1"/>
+      <c r="AL24" s="1"/>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1"/>
+    </row>
+    <row r="25" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="C25" s="4"/>
       <c r="D25" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>33</v>
+        <v>326</v>
       </c>
       <c r="J25" s="1"/>
       <c r="K25" s="1" t="s">
@@ -3928,53 +4953,51 @@
       <c r="U25" s="1"/>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
-      <c r="X25" s="1">
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1">
         <v>2</v>
       </c>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1">
+      <c r="AB25" s="1"/>
+      <c r="AC25" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AA25" s="1">
+      <c r="AD25" s="1">
         <v>122235821</v>
       </c>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="7">
+      <c r="AE25" s="1"/>
+      <c r="AF25" s="1"/>
+      <c r="AG25" s="1"/>
+      <c r="AH25" s="7">
         <v>12341</v>
       </c>
-      <c r="AF25" s="7">
+      <c r="AI25" s="7">
         <v>22222</v>
       </c>
-      <c r="AG25" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-    </row>
-    <row r="26" spans="1:36" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>116</v>
-      </c>
+      <c r="AJ25" s="11"/>
+      <c r="AK25" s="1"/>
+      <c r="AL25" s="1"/>
+      <c r="AM25" s="1"/>
+      <c r="AN25" s="1"/>
+    </row>
+    <row r="26" spans="1:40" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>33</v>
+        <v>326</v>
       </c>
       <c r="J26" s="1"/>
       <c r="K26" s="1" t="s">
@@ -4000,53 +5023,51 @@
       <c r="U26" s="1"/>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
-      <c r="X26" s="1">
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+      <c r="AA26" s="1">
         <v>2</v>
       </c>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1">
+      <c r="AB26" s="1"/>
+      <c r="AC26" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AA26" s="1">
+      <c r="AD26" s="1">
         <v>122235821</v>
       </c>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="7">
+      <c r="AE26" s="1"/>
+      <c r="AF26" s="1"/>
+      <c r="AG26" s="1"/>
+      <c r="AH26" s="7">
         <v>12341</v>
       </c>
-      <c r="AF26" s="7">
+      <c r="AI26" s="7">
         <v>22222</v>
       </c>
-      <c r="AG26" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
-    </row>
-    <row r="27" spans="1:36" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>117</v>
-      </c>
+      <c r="AJ26" s="11"/>
+      <c r="AK26" s="1"/>
+      <c r="AL26" s="1"/>
+      <c r="AM26" s="1"/>
+      <c r="AN26" s="1"/>
+    </row>
+    <row r="27" spans="1:40" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>33</v>
+        <v>326</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
@@ -4072,53 +5093,51 @@
       <c r="U27" s="1"/>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
-      <c r="X27" s="1">
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="1">
         <v>2</v>
       </c>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1">
+      <c r="AB27" s="1"/>
+      <c r="AC27" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AA27" s="1">
+      <c r="AD27" s="1">
         <v>122235821</v>
       </c>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
-      <c r="AE27" s="7">
+      <c r="AE27" s="1"/>
+      <c r="AF27" s="1"/>
+      <c r="AG27" s="1"/>
+      <c r="AH27" s="7">
         <v>12341</v>
       </c>
-      <c r="AF27" s="7">
+      <c r="AI27" s="7">
         <v>22222</v>
       </c>
-      <c r="AG27" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
-    </row>
-    <row r="28" spans="1:36" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>118</v>
-      </c>
+      <c r="AJ27" s="11"/>
+      <c r="AK27" s="1"/>
+      <c r="AL27" s="1"/>
+      <c r="AM27" s="1"/>
+      <c r="AN27" s="1"/>
+    </row>
+    <row r="28" spans="1:40" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>33</v>
+        <v>326</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
@@ -4144,53 +5163,51 @@
       <c r="U28" s="1"/>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
-      <c r="X28" s="1">
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+      <c r="AA28" s="1">
         <v>2</v>
       </c>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1">
+      <c r="AB28" s="1"/>
+      <c r="AC28" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AA28" s="1">
+      <c r="AD28" s="1">
         <v>122235821</v>
       </c>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
-      <c r="AE28" s="7">
+      <c r="AE28" s="1"/>
+      <c r="AF28" s="1"/>
+      <c r="AG28" s="1"/>
+      <c r="AH28" s="7">
         <v>12341</v>
       </c>
-      <c r="AF28" s="7">
+      <c r="AI28" s="7">
         <v>22222</v>
       </c>
-      <c r="AG28" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1"/>
-      <c r="AJ28" s="1"/>
-    </row>
-    <row r="29" spans="1:36" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>119</v>
-      </c>
+      <c r="AJ28" s="11"/>
+      <c r="AK28" s="1"/>
+      <c r="AL28" s="1"/>
+      <c r="AM28" s="1"/>
+      <c r="AN28" s="1"/>
+    </row>
+    <row r="29" spans="1:40" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>33</v>
+        <v>326</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
@@ -4216,53 +5233,51 @@
       <c r="U29" s="1"/>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
-      <c r="X29" s="1">
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="1">
         <v>2</v>
       </c>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1">
+      <c r="AB29" s="1"/>
+      <c r="AC29" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AA29" s="1">
+      <c r="AD29" s="1">
         <v>122235821</v>
       </c>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="7">
+      <c r="AE29" s="1"/>
+      <c r="AF29" s="1"/>
+      <c r="AG29" s="1"/>
+      <c r="AH29" s="7">
         <v>12341</v>
       </c>
-      <c r="AF29" s="7">
+      <c r="AI29" s="7">
         <v>22222</v>
       </c>
-      <c r="AG29" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH29" s="1"/>
-      <c r="AI29" s="1"/>
-      <c r="AJ29" s="1"/>
-    </row>
-    <row r="30" spans="1:36" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>120</v>
-      </c>
+      <c r="AJ29" s="11"/>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1"/>
+      <c r="AN29" s="1"/>
+    </row>
+    <row r="30" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>33</v>
+        <v>326</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
@@ -4288,53 +5303,51 @@
       <c r="U30" s="1"/>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="1">
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="1">
         <v>2</v>
       </c>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1">
+      <c r="AB30" s="1"/>
+      <c r="AC30" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AA30" s="1">
+      <c r="AD30" s="1">
         <v>122235821</v>
       </c>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
-      <c r="AD30" s="1"/>
-      <c r="AE30" s="7">
+      <c r="AE30" s="1"/>
+      <c r="AF30" s="1"/>
+      <c r="AG30" s="1"/>
+      <c r="AH30" s="7">
         <v>12341</v>
       </c>
-      <c r="AF30" s="7">
+      <c r="AI30" s="7">
         <v>22222</v>
       </c>
-      <c r="AG30" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="1"/>
-      <c r="AJ30" s="1"/>
-    </row>
-    <row r="31" spans="1:36" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>121</v>
-      </c>
+      <c r="AJ30" s="11"/>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1"/>
+      <c r="AN30" s="1"/>
+    </row>
+    <row r="31" spans="1:40" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>33</v>
+        <v>326</v>
       </c>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
@@ -4360,53 +5373,51 @@
       <c r="U31" s="1"/>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
-      <c r="X31" s="1">
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="1">
         <v>2</v>
       </c>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1">
+      <c r="AB31" s="1"/>
+      <c r="AC31" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AA31" s="1">
+      <c r="AD31" s="1">
         <v>122235821</v>
       </c>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
-      <c r="AD31" s="1"/>
-      <c r="AE31" s="7">
+      <c r="AE31" s="1"/>
+      <c r="AF31" s="1"/>
+      <c r="AG31" s="1"/>
+      <c r="AH31" s="7">
         <v>12341</v>
       </c>
-      <c r="AF31" s="7">
+      <c r="AI31" s="7">
         <v>22222</v>
       </c>
-      <c r="AG31" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1"/>
-      <c r="AJ31" s="1"/>
-    </row>
-    <row r="32" spans="1:36" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>122</v>
-      </c>
+      <c r="AJ31" s="11"/>
+      <c r="AK31" s="1"/>
+      <c r="AL31" s="1"/>
+      <c r="AM31" s="1"/>
+      <c r="AN31" s="1"/>
+    </row>
+    <row r="32" spans="1:40" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>33</v>
+        <v>326</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
@@ -4432,53 +5443,51 @@
       <c r="U32" s="1"/>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
-      <c r="X32" s="1">
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="1">
         <v>2</v>
       </c>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1">
+      <c r="AB32" s="1"/>
+      <c r="AC32" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AA32" s="1">
+      <c r="AD32" s="1">
         <v>122235821</v>
       </c>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="7">
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="7">
         <v>12341</v>
       </c>
-      <c r="AF32" s="7">
+      <c r="AI32" s="7">
         <v>22222</v>
       </c>
-      <c r="AG32" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH32" s="1"/>
-      <c r="AI32" s="1"/>
-      <c r="AJ32" s="1"/>
-    </row>
-    <row r="33" spans="1:36" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>123</v>
-      </c>
+      <c r="AJ32" s="11"/>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+    </row>
+    <row r="33" spans="1:40" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="4" t="s">
-        <v>62</v>
-      </c>
+      <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
         <v>40</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>33</v>
+        <v>326</v>
       </c>
       <c r="J33" s="1"/>
       <c r="K33" s="1" t="s">
@@ -4504,31 +5513,33 @@
       <c r="U33" s="1"/>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
-      <c r="X33" s="1">
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="1">
         <v>2</v>
       </c>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1">
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AA33" s="1">
+      <c r="AD33" s="1">
         <v>122235821</v>
       </c>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
-      <c r="AD33" s="1"/>
-      <c r="AE33" s="7">
+      <c r="AE33" s="1"/>
+      <c r="AF33" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="7">
         <v>12341</v>
       </c>
-      <c r="AF33" s="7">
+      <c r="AI33" s="7">
         <v>22222</v>
       </c>
-      <c r="AG33" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="1"/>
-      <c r="AJ33" s="1"/>
+      <c r="AJ33" s="11"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4537,11 +5548,12 @@
     <hyperlink ref="H2" r:id="rId3" display="Biswanath@54321"/>
     <hyperlink ref="M2" r:id="rId4"/>
     <hyperlink ref="M8:M33" r:id="rId5" display="talk2mahapatra@gmail.com"/>
+    <hyperlink ref="M11" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4958,4 +5970,533 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:B63"/>
+  <sheetViews>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>137</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="127.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>142</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="127.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16" t="s">
+        <v>153</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="B13" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="B14" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B15" s="17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="B16" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="102" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="B20" s="17" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="B25" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="255" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="B28" s="17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>176</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="140.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="B34" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="204" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="B36" s="19"/>
+    </row>
+    <row r="37" spans="1:2" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="B37" s="17" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="242.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="178.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="280.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="127.5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="102" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="102" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="19" t="s">
+        <v>201</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="B48" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="19" t="s">
+        <v>204</v>
+      </c>
+      <c r="B49" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="B50" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="16" t="s">
+        <v>207</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="19" t="s">
+        <v>208</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="19" t="s">
+        <v>210</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B56" s="15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="242.25" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="19" t="s">
+        <v>212</v>
+      </c>
+      <c r="B57" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B58" s="17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="204" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="216.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="165.75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="16" t="s">
+        <v>220</v>
+      </c>
+      <c r="B62" s="17" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B1:B63">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="can be automated with Account creation"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/testdata/TestData_siebel.xlsx
+++ b/testdata/TestData_siebel.xlsx
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$B$1:$B$63</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="328">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="357">
   <si>
     <t>UserId</t>
   </si>
@@ -1096,6 +1096,95 @@
   </si>
   <si>
     <t>yes</t>
+  </si>
+  <si>
+    <t>ACEO_003</t>
+  </si>
+  <si>
+    <t>auto_walkin_email_prepaid_private@xerox.com</t>
+  </si>
+  <si>
+    <t>Automation User</t>
+  </si>
+  <si>
+    <t>Prepaid Private account creation with fax-in mode only with Standard plan with 100 transponders and 1 plate per transponder.</t>
+  </si>
+  <si>
+    <t>SPANISH</t>
+  </si>
+  <si>
+    <t>JEFF</t>
+  </si>
+  <si>
+    <t>Suffix</t>
+  </si>
+  <si>
+    <t>JR</t>
+  </si>
+  <si>
+    <t>Fax</t>
+  </si>
+  <si>
+    <t>AMEX</t>
+  </si>
+  <si>
+    <t>Secondary Rebill Pay Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DISCOVER
+</t>
+  </si>
+  <si>
+    <t>Name on the Credit Card</t>
+  </si>
+  <si>
+    <t>Jeff Hall</t>
+  </si>
+  <si>
+    <t>Add Vehicle by uploading File</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Vehicle Count</t>
+  </si>
+  <si>
+    <t>venkatak</t>
+  </si>
+  <si>
+    <t>kamani</t>
+  </si>
+  <si>
+    <t>EMAIL MONTHLY</t>
+  </si>
+  <si>
+    <t>TestCaseType</t>
+  </si>
+  <si>
+    <t>Regression/Smoke/MainFlow</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>Regression/Smoke</t>
+  </si>
+  <si>
+    <t>MainFlow</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Will Smith</t>
+  </si>
+  <si>
+    <t>Tom Cruise</t>
+  </si>
+  <si>
+    <t>MAILING:Avenida Central 310: :6002:Colima:CL:MEX;
+BILLING:4560 ESTERO BLVD:702, FORT MYERS:33913:FORT MYERS:FL:USA</t>
   </si>
 </sst>
 </file>
@@ -1330,7 +1419,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1398,13 +1487,14 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="38">
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1705,6 +1795,78 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
@@ -1771,12 +1933,48 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
         <vertical style="thin">
           <color indexed="64"/>
         </vertical>
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2064,8 +2262,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="31"/>
-      <tableStyleElement type="headerRow" dxfId="30"/>
+      <tableStyleElement type="wholeTable" dxfId="37"/>
+      <tableStyleElement type="headerRow" dxfId="36"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2080,27 +2278,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="G1:AI4" totalsRowShown="0" headerRowDxfId="29">
-  <autoFilter ref="G1:AI4"/>
-  <tableColumns count="29">
-    <tableColumn id="1" name="UserId" dataDxfId="28"/>
-    <tableColumn id="2" name="Password" dataDxfId="27"/>
-    <tableColumn id="46" name="Agency" dataDxfId="26"/>
-    <tableColumn id="4" name="PIN" dataDxfId="25"/>
-    <tableColumn id="5" name="Challenge Question" dataDxfId="24"/>
-    <tableColumn id="6" name="Challenge Answer" dataDxfId="23"/>
-    <tableColumn id="7" name="Email Address" dataDxfId="22"/>
-    <tableColumn id="8" name="Statement Frequency" dataDxfId="21"/>
-    <tableColumn id="9" name="LanguagePref" dataDxfId="20"/>
-    <tableColumn id="12" name="First Name" dataDxfId="19"/>
-    <tableColumn id="13" name="Last Name" dataDxfId="18"/>
-    <tableColumn id="14" name="Cell Phone" dataDxfId="17"/>
-    <tableColumn id="15" name="AddressType" dataDxfId="16"/>
-    <tableColumn id="22" name="Is Primary ?" dataDxfId="15"/>
-    <tableColumn id="23" name="Rebill Pay Type" dataDxfId="14"/>
-    <tableColumn id="16" name="CreditCardNo" dataDxfId="13"/>
-    <tableColumn id="18" name="ExpMonth" dataDxfId="12"/>
-    <tableColumn id="19" name="ExpYear" dataDxfId="11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="I1:AQ5" totalsRowShown="0" headerRowDxfId="35">
+  <autoFilter ref="I1:AQ5"/>
+  <tableColumns count="35">
+    <tableColumn id="1" name="UserId" dataDxfId="34"/>
+    <tableColumn id="2" name="Password" dataDxfId="33"/>
+    <tableColumn id="46" name="Agency" dataDxfId="32"/>
+    <tableColumn id="4" name="PIN" dataDxfId="31"/>
+    <tableColumn id="5" name="Challenge Question" dataDxfId="30"/>
+    <tableColumn id="6" name="Challenge Answer" dataDxfId="29"/>
+    <tableColumn id="7" name="Email Address" dataDxfId="28"/>
+    <tableColumn id="8" name="Statement Frequency" dataDxfId="27"/>
+    <tableColumn id="9" name="LanguagePref" dataDxfId="26"/>
+    <tableColumn id="12" name="First Name" dataDxfId="25"/>
+    <tableColumn id="13" name="Last Name" dataDxfId="24"/>
+    <tableColumn id="3" name="Suffix" dataDxfId="23"/>
+    <tableColumn id="14" name="Cell Phone" dataDxfId="22"/>
+    <tableColumn id="20" name="Fax" dataDxfId="21"/>
+    <tableColumn id="15" name="AddressType" dataDxfId="20"/>
+    <tableColumn id="22" name="Is Primary ?" dataDxfId="19"/>
+    <tableColumn id="23" name="Rebill Pay Type" dataDxfId="18"/>
+    <tableColumn id="21" name="Secondary Rebill Pay Type" dataDxfId="17"/>
+    <tableColumn id="16" name="CreditCardNo" dataDxfId="16"/>
+    <tableColumn id="18" name="ExpMonth" dataDxfId="15"/>
+    <tableColumn id="19" name="ExpYear" dataDxfId="14"/>
+    <tableColumn id="25" name="Name on the Credit Card" dataDxfId="13"/>
+    <tableColumn id="27" name="Vehicle Count" dataDxfId="12"/>
+    <tableColumn id="26" name="Add Vehicle by uploading File" dataDxfId="11"/>
     <tableColumn id="24" name="VehiclesInfo" dataDxfId="10"/>
     <tableColumn id="32" name="DevicesInfo" dataDxfId="9"/>
     <tableColumn id="45" name="VehicleClass" dataDxfId="8"/>
@@ -2380,46 +2584,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ33"/>
+  <dimension ref="A1:AX33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+      <selection activeCell="AS2" sqref="AS2:AT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="57" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="16.75" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="19" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="14.625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17.375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="30" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="12.75" collapsed="1"/>
-    <col min="13" max="13" width="26.625" customWidth="1" collapsed="1"/>
-    <col min="14" max="18" width="12.75" collapsed="1"/>
-    <col min="19" max="19" width="99" customWidth="1" collapsed="1"/>
-    <col min="20" max="21" width="12.75" collapsed="1"/>
-    <col min="22" max="22" width="23.625" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="17.75" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="14.75" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="73.25" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="53.75" customWidth="1" collapsed="1"/>
-    <col min="27" max="31" width="12.75" collapsed="1"/>
-    <col min="32" max="32" width="19.75" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="12.75" collapsed="1"/>
-    <col min="34" max="34" width="12.75" style="8" collapsed="1"/>
-    <col min="35" max="35" width="18.75" style="8" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="36.25" customWidth="1" collapsed="1"/>
-    <col min="38" max="38" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="39" max="39" width="21" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="16.25" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.75" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="21.625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="17" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.375" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="30" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="12.75" collapsed="1"/>
+    <col min="15" max="15" width="26.625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19.75" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="17" max="19" width="12.75" collapsed="1"/>
+    <col min="21" max="21" width="12.75" collapsed="1"/>
+    <col min="23" max="23" width="99" customWidth="1" collapsed="1"/>
+    <col min="24" max="25" width="12.75" collapsed="1"/>
+    <col min="27" max="27" width="23.625" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="17.75" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="14.75" customWidth="1" collapsed="1"/>
+    <col min="30" max="32" width="14.75" customWidth="1"/>
+    <col min="33" max="33" width="73.25" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="53.75" customWidth="1" collapsed="1"/>
+    <col min="35" max="39" width="12.75" collapsed="1"/>
+    <col min="40" max="40" width="19.75" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="12.75" collapsed="1"/>
+    <col min="42" max="42" width="12.75" style="8" collapsed="1"/>
+    <col min="43" max="43" width="18.75" style="8" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="36.25" customWidth="1" collapsed="1"/>
+    <col min="45" max="45" width="21" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="46" max="46" width="21" customWidth="1" collapsed="1"/>
+    <col min="47" max="47" width="16.25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>66</v>
       </c>
@@ -2430,1594 +2639,1748 @@
         <v>36</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="W1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>313</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>315</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AF1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AG1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AI1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="AJ1" s="9" t="s">
+      <c r="AR1" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="AK1" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="AL1" s="9" t="s">
+      <c r="AS1" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="AM1" s="9" t="s">
+      <c r="AT1" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="AN1" s="9" t="s">
+      <c r="AU1" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:43" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:50" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1212</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="1">
+        <v>9879</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="U2" s="1">
+        <v>8907451234</v>
+      </c>
+      <c r="V2" s="1">
+        <v>2345678907</v>
+      </c>
+      <c r="W2" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="AA2" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>100</v>
+      </c>
+      <c r="AF2" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="AG2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>122</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AN2" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>12341</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>22222</v>
+      </c>
+      <c r="AS2" s="25">
+        <v>46337</v>
+      </c>
+      <c r="AT2" s="1">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:50" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>98</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1122</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2345</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="R2" s="1">
-        <v>1231231231</v>
-      </c>
-      <c r="S2" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z2" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB2" s="1">
-        <v>233</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AD2" s="1">
-        <v>122235821</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="AH2" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AI2" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AJ2" s="26">
-        <v>326120086</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL2" s="1"/>
-      <c r="AM2" s="1"/>
-      <c r="AN2" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="AO2" s="1"/>
-      <c r="AP2" s="1"/>
-      <c r="AQ2" s="1"/>
-    </row>
-    <row r="3" spans="1:43" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>99</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>134</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>327</v>
+        <v>62</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="I3" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J3" s="1">
-        <v>7860</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1">
+        <v>1122</v>
+      </c>
+      <c r="M3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L3" s="1">
+      <c r="N3" s="1">
         <v>2345</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="O3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="P3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="Q3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="R3" s="1">
-        <v>3452452345</v>
-      </c>
-      <c r="S3" s="10" t="s">
+      <c r="R3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1">
+        <v>1231231231</v>
+      </c>
+      <c r="V3" s="1"/>
+      <c r="W3" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="T3" s="1" t="s">
+      <c r="X3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="V3" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="W3" s="1">
-        <v>12</v>
-      </c>
-      <c r="X3" s="1">
-        <v>2024</v>
-      </c>
-      <c r="Y3" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AA3" s="1">
+      <c r="Y3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z3" s="1"/>
+      <c r="AA3" s="1"/>
+      <c r="AB3" s="1"/>
+      <c r="AC3" s="1"/>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="1"/>
+      <c r="AF3" s="1"/>
+      <c r="AG3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AH3" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI3" s="1">
         <v>2</v>
       </c>
-      <c r="AB3" s="1">
-        <v>200</v>
-      </c>
-      <c r="AC3" s="1">
-        <v>3453453451</v>
-      </c>
-      <c r="AD3" s="1">
+      <c r="AJ3" s="1">
+        <v>233</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AL3" s="1">
         <v>122235821</v>
       </c>
-      <c r="AE3" s="1">
-        <v>101</v>
-      </c>
-      <c r="AF3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AG3" s="1" t="s">
+      <c r="AM3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="AH3" s="7">
+      <c r="AO3" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="AP3" s="7">
         <v>12341</v>
       </c>
-      <c r="AI3" s="7">
+      <c r="AQ3" s="7">
         <v>22222</v>
       </c>
-      <c r="AJ3" s="11"/>
-      <c r="AK3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AL3" s="25">
-        <v>46337</v>
-      </c>
-      <c r="AM3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AO3" s="1"/>
-      <c r="AP3" s="1"/>
-      <c r="AQ3" s="1"/>
-    </row>
-    <row r="4" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="AR3" s="26">
+        <v>326120086</v>
+      </c>
+      <c r="AS3" s="1"/>
+      <c r="AT3" s="1"/>
+      <c r="AU3" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="AV3" s="1"/>
+      <c r="AW3" s="1"/>
+      <c r="AX3" s="1"/>
+    </row>
+    <row r="4" spans="1:50" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="4"/>
+        <v>99</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>134</v>
+      </c>
       <c r="C4" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D4" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="I4" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="10"/>
+      <c r="L4" s="1">
+        <v>7860</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2345</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
+      <c r="U4" s="1">
+        <v>3452452345</v>
+      </c>
       <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="1"/>
-      <c r="AB4" s="1"/>
-      <c r="AC4" s="1"/>
+      <c r="W4" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="21" t="s">
+        <v>316</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>2024</v>
+      </c>
       <c r="AD4" s="1"/>
       <c r="AE4" s="1"/>
       <c r="AF4" s="1"/>
-      <c r="AG4" s="1"/>
-      <c r="AH4" s="7"/>
-      <c r="AI4" s="7"/>
-      <c r="AJ4" s="11"/>
-      <c r="AK4" s="1"/>
-      <c r="AL4" s="1"/>
-      <c r="AM4" s="1"/>
-      <c r="AN4" s="1"/>
-      <c r="AO4" s="1"/>
-      <c r="AP4" s="1"/>
-      <c r="AQ4" s="1"/>
-    </row>
-    <row r="5" spans="1:43" ht="60" x14ac:dyDescent="0.25">
+      <c r="AG4" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="AH4" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>200</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>3453453451</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>101</v>
+      </c>
+      <c r="AN4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP4" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AQ4" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AR4" s="11"/>
+      <c r="AS4" s="25">
+        <v>46337</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="AV4" s="1"/>
+      <c r="AW4" s="1"/>
+      <c r="AX4" s="1"/>
+    </row>
+    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>225</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="B5" s="4"/>
       <c r="C5" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D5" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="F5" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="G5" s="1"/>
       <c r="H5" s="1" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="I5" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K5" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J5" s="1">
-        <v>7896</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="1">
-        <v>2345</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P5" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q5" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="R5" s="1">
-        <v>3452452345</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="T5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="U5" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
       <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
+      <c r="W5" s="10"/>
       <c r="X5" s="1"/>
-      <c r="Y5" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="Z5" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="AA5" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB5" s="1">
-        <v>200</v>
-      </c>
-      <c r="AC5" s="1">
-        <v>3453453451</v>
-      </c>
-      <c r="AD5" s="1">
-        <v>122235821</v>
-      </c>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="1"/>
+      <c r="AB5" s="1"/>
+      <c r="AC5" s="1"/>
+      <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
-      <c r="AF5" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="AG5" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH5" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AI5" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AJ5" s="11"/>
+      <c r="AF5" s="1"/>
+      <c r="AG5" s="10"/>
+      <c r="AH5" s="10"/>
+      <c r="AI5" s="1"/>
+      <c r="AJ5" s="1"/>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
-      <c r="AN5" s="1" t="s">
-        <v>223</v>
-      </c>
+      <c r="AN5" s="1"/>
       <c r="AO5" s="1"/>
-      <c r="AP5" s="1"/>
-      <c r="AQ5" s="1"/>
-    </row>
-    <row r="6" spans="1:43" ht="60" x14ac:dyDescent="0.25">
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="11"/>
+      <c r="AS5" s="1"/>
+      <c r="AT5" s="1"/>
+      <c r="AU5" s="1"/>
+      <c r="AV5" s="1"/>
+      <c r="AW5" s="1"/>
+      <c r="AX5" s="1"/>
+    </row>
+    <row r="6" spans="1:50" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1"/>
+      <c r="H6" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="I6" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K6" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J6" s="1">
-        <v>7860</v>
-      </c>
-      <c r="K6" s="1" t="s">
+      <c r="L6" s="1">
+        <v>7896</v>
+      </c>
+      <c r="M6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="1">
+      <c r="N6" s="1">
         <v>2345</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="O6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="P6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q6" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="R6" s="1">
+      <c r="R6" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1">
         <v>3452452345</v>
       </c>
-      <c r="S6" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="T6" s="1" t="s">
+      <c r="V6" s="1"/>
+      <c r="W6" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="X6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U6" s="1" t="s">
+      <c r="Y6" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="Z6" s="10" t="s">
+      <c r="Z6" s="1"/>
+      <c r="AA6" s="1"/>
+      <c r="AB6" s="1"/>
+      <c r="AC6" s="1"/>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="1"/>
+      <c r="AF6" s="1"/>
+      <c r="AG6" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH6" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="AA6" s="1">
+      <c r="AI6" s="1">
         <v>2</v>
       </c>
-      <c r="AB6" s="1">
+      <c r="AJ6" s="1">
         <v>200</v>
       </c>
-      <c r="AC6" s="1">
+      <c r="AK6" s="1">
         <v>3453453451</v>
       </c>
-      <c r="AD6" s="1">
+      <c r="AL6" s="1">
         <v>122235821</v>
       </c>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AG6" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="AH6" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AI6" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
       <c r="AN6" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1"/>
-    </row>
-    <row r="7" spans="1:43" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="AO6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AP6" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AQ6" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AR6" s="11"/>
+      <c r="AS6" s="1"/>
+      <c r="AT6" s="1"/>
+      <c r="AU6" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AV6" s="1"/>
+      <c r="AW6" s="1"/>
+      <c r="AX6" s="1"/>
+    </row>
+    <row r="7" spans="1:50" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>353</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="G7" s="1"/>
+      <c r="H7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G7" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="I7" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K7" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J7" s="1">
-        <v>2130</v>
-      </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1">
+        <v>7860</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L7" s="1">
+      <c r="N7" s="1">
         <v>2345</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="R7" s="1">
-        <v>3421562345</v>
-      </c>
-      <c r="S7" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="T7" s="1" t="s">
+      <c r="R7" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1">
+        <v>3452452345</v>
+      </c>
+      <c r="V7" s="1"/>
+      <c r="W7" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="X7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U7" s="1" t="s">
+      <c r="Y7" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z7" s="10" t="s">
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="1"/>
+      <c r="AB7" s="1"/>
+      <c r="AC7" s="1"/>
+      <c r="AD7" s="1"/>
+      <c r="AE7" s="1"/>
+      <c r="AF7" s="1"/>
+      <c r="AG7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="AH7" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="AA7" s="1">
+      <c r="AI7" s="1">
         <v>2</v>
       </c>
-      <c r="AB7" s="1">
+      <c r="AJ7" s="1">
         <v>200</v>
       </c>
-      <c r="AC7" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AD7" s="1">
+      <c r="AK7" s="1">
+        <v>3453453451</v>
+      </c>
+      <c r="AL7" s="1">
         <v>122235821</v>
       </c>
-      <c r="AE7" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF7" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH7" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AI7" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AJ7" s="11"/>
-      <c r="AK7" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
       <c r="AN7" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
-    </row>
-    <row r="8" spans="1:43" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="AO7" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="AP7" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AQ7" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AR7" s="11"/>
+      <c r="AS7" s="1"/>
+      <c r="AT7" s="1"/>
+      <c r="AU7" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV7" s="1"/>
+      <c r="AW7" s="1"/>
+      <c r="AX7" s="1"/>
+    </row>
+    <row r="8" spans="1:50" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>321</v>
+        <v>101</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>228</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="4"/>
+      <c r="E8" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="G8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="I8" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K8" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J8" s="1">
-        <v>2098</v>
-      </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1">
+        <v>2130</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L8" s="1">
+      <c r="N8" s="1">
         <v>2345</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="O8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="P8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="R8" s="1">
-        <v>2341567878</v>
-      </c>
-      <c r="S8" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="T8" s="1" t="s">
+      <c r="R8" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1">
+        <v>3421562345</v>
+      </c>
+      <c r="V8" s="1"/>
+      <c r="W8" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="X8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U8" s="1" t="s">
+      <c r="Y8" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z8" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA8" s="1">
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="1"/>
+      <c r="AB8" s="1"/>
+      <c r="AC8" s="1"/>
+      <c r="AD8" s="1"/>
+      <c r="AE8" s="1"/>
+      <c r="AF8" s="1"/>
+      <c r="AG8" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH8" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="AI8" s="1">
         <v>2</v>
       </c>
-      <c r="AB8" s="1">
-        <v>101</v>
-      </c>
-      <c r="AC8" s="1">
+      <c r="AJ8" s="1">
+        <v>200</v>
+      </c>
+      <c r="AK8" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AD8" s="1">
+      <c r="AL8" s="1">
         <v>122235821</v>
       </c>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AH8" s="7">
+      <c r="AM8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO8" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AP8" s="7">
         <v>12341</v>
       </c>
-      <c r="AI8" s="7">
+      <c r="AQ8" s="7">
         <v>22222</v>
       </c>
-      <c r="AJ8" s="11"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
-      <c r="AM8" s="1"/>
-      <c r="AN8" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:43" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR8" s="11"/>
+      <c r="AS8" s="1"/>
+      <c r="AT8" s="1"/>
+      <c r="AU8" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AV8" s="1"/>
+      <c r="AW8" s="1"/>
+      <c r="AX8" s="1"/>
+    </row>
+    <row r="9" spans="1:50" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>226</v>
+        <v>321</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="4"/>
+      <c r="E9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1"/>
+      <c r="H9" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="G9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="I9" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K9" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J9" s="1">
-        <v>1234</v>
-      </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1">
+        <v>2098</v>
+      </c>
+      <c r="M9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L9" s="1">
+      <c r="N9" s="1">
         <v>2345</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="O9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="P9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="R9" s="1">
+      <c r="R9" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1">
         <v>2341567878</v>
       </c>
-      <c r="S9" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="T9" s="1" t="s">
+      <c r="V9" s="1"/>
+      <c r="W9" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="X9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U9" s="1" t="s">
+      <c r="Y9" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="Z9" s="10" t="s">
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="1"/>
+      <c r="AB9" s="1"/>
+      <c r="AC9" s="1"/>
+      <c r="AD9" s="1"/>
+      <c r="AE9" s="1"/>
+      <c r="AF9" s="1"/>
+      <c r="AG9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="AH9" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="AA9" s="1">
+      <c r="AI9" s="1">
         <v>2</v>
       </c>
-      <c r="AB9" s="1">
+      <c r="AJ9" s="1">
         <v>101</v>
       </c>
-      <c r="AC9" s="1">
+      <c r="AK9" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AD9" s="1">
+      <c r="AL9" s="1">
         <v>122235821</v>
       </c>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG9" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AH9" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AI9" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AJ9" s="11"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
       <c r="AN9" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:43" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="AO9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AP9" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AQ9" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AR9" s="11"/>
+      <c r="AS9" s="1"/>
+      <c r="AT9" s="1"/>
+      <c r="AU9" s="10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>230</v>
+        <v>112</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>226</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="4"/>
+      <c r="E10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I10" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J10" s="1">
-        <v>9879</v>
-      </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1">
+        <v>1234</v>
+      </c>
+      <c r="M10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L10" s="1">
+      <c r="N10" s="1">
         <v>2345</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="O10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="P10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="R10" s="1">
+      <c r="R10" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1">
         <v>2341567878</v>
       </c>
-      <c r="S10" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="T10" s="1" t="s">
+      <c r="V10" s="1"/>
+      <c r="W10" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="X10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U10" s="1" t="s">
+      <c r="Y10" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="Z10" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AA10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AD10" s="1">
-        <v>122235821</v>
-      </c>
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="1"/>
+      <c r="AB10" s="1"/>
+      <c r="AC10" s="1"/>
+      <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
-      <c r="AG10" s="1"/>
-      <c r="AH10" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AI10" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AJ10" s="11"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
+      <c r="AG10" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="AH10" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>101</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>122235821</v>
+      </c>
       <c r="AM10" s="1"/>
       <c r="AN10" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:43" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+      <c r="AO10" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP10" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AQ10" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AR10" s="11"/>
+      <c r="AS10" s="1"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="4"/>
+      <c r="E11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="F11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="I11" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K11" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J11" s="1">
-        <v>5566</v>
-      </c>
-      <c r="K11" s="1" t="s">
+      <c r="L11" s="1">
+        <v>9879</v>
+      </c>
+      <c r="M11" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L11" s="1">
+      <c r="N11" s="1">
         <v>2345</v>
       </c>
-      <c r="M11" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="R11" s="1">
+      <c r="R11" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1">
         <v>2341567878</v>
       </c>
-      <c r="S11" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="T11" s="1" t="s">
+      <c r="V11" s="1"/>
+      <c r="W11" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="X11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U11" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="V11" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="W11" s="1">
-        <v>12</v>
-      </c>
-      <c r="X11" s="1">
-        <v>2019</v>
-      </c>
-      <c r="Y11" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="Z11" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="AA11" s="1">
+      <c r="Y11" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="1"/>
+      <c r="AB11" s="1"/>
+      <c r="AC11" s="1"/>
+      <c r="AD11" s="1"/>
+      <c r="AE11" s="1"/>
+      <c r="AF11" s="1"/>
+      <c r="AG11" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH11" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AI11" s="1">
         <v>2</v>
       </c>
-      <c r="AB11" s="1">
-        <v>101</v>
-      </c>
-      <c r="AC11" s="1">
+      <c r="AJ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AD11" s="1">
+      <c r="AL11" s="1">
         <v>122235821</v>
       </c>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AG11" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AH11" s="7">
+      <c r="AM11" s="1"/>
+      <c r="AN11" s="1"/>
+      <c r="AO11" s="1"/>
+      <c r="AP11" s="7">
         <v>12341</v>
       </c>
-      <c r="AI11" s="7">
+      <c r="AQ11" s="7">
         <v>22222</v>
       </c>
-      <c r="AJ11" s="11"/>
-      <c r="AK11" s="1"/>
-      <c r="AL11" s="1"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="12" spans="1:43" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR11" s="11"/>
+      <c r="AS11" s="1"/>
+      <c r="AT11" s="1"/>
+      <c r="AU11" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="4"/>
+      <c r="E12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="I12" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K12" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J12" s="1">
-        <v>2331</v>
-      </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1">
+        <v>5566</v>
+      </c>
+      <c r="M12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L12" s="1">
+      <c r="N12" s="1">
         <v>2345</v>
       </c>
-      <c r="M12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="R12" s="1">
+      <c r="R12" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1">
         <v>2341567878</v>
       </c>
-      <c r="S12" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="T12" s="1" t="s">
+      <c r="V12" s="1"/>
+      <c r="W12" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="X12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U12" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="V12" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="W12" s="1">
+      <c r="Y12" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="AB12" s="1">
         <v>12</v>
       </c>
-      <c r="X12" s="1">
-        <v>2024</v>
-      </c>
-      <c r="Y12" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="Z12" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="AA12" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>2</v>
-      </c>
       <c r="AC12" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AD12" s="1">
-        <v>122235821</v>
-      </c>
+        <v>2019</v>
+      </c>
+      <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
-      <c r="AG12" s="1"/>
-      <c r="AH12" s="7">
+      <c r="AG12" s="10" t="s">
+        <v>251</v>
+      </c>
+      <c r="AH12" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>101</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AM12" s="1"/>
+      <c r="AN12" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AP12" s="7">
         <v>12341</v>
       </c>
-      <c r="AI12" s="7">
+      <c r="AQ12" s="7">
         <v>22222</v>
       </c>
-      <c r="AJ12" s="11"/>
-      <c r="AK12" s="1"/>
-      <c r="AL12" s="1"/>
-      <c r="AM12" s="1"/>
-      <c r="AN12" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:43" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR12" s="11"/>
+      <c r="AS12" s="1"/>
+      <c r="AT12" s="1"/>
+      <c r="AU12" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>258</v>
+        <v>246</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="4"/>
+      <c r="E13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G13" s="1"/>
       <c r="H13" s="1" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="I13" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K13" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J13" s="1">
-        <v>2233</v>
-      </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1">
+        <v>2331</v>
+      </c>
+      <c r="M13" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L13" s="1">
-        <v>2014</v>
-      </c>
-      <c r="M13" s="2" t="s">
+      <c r="N13" s="1">
+        <v>2345</v>
+      </c>
+      <c r="O13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="P13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="Q13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="R13" s="1">
+      <c r="R13" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1">
         <v>2341567878</v>
       </c>
-      <c r="S13" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="T13" s="1" t="s">
+      <c r="V13" s="1"/>
+      <c r="W13" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="X13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U13" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="Z13" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA13" s="1">
+      <c r="Y13" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="Z13" s="27"/>
+      <c r="AA13" s="23" t="s">
+        <v>317</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>12</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AD13" s="1"/>
+      <c r="AE13" s="1"/>
+      <c r="AF13" s="1"/>
+      <c r="AG13" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="AH13" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="AI13" s="1">
         <v>2</v>
       </c>
-      <c r="AB13" s="1">
-        <v>101</v>
-      </c>
-      <c r="AC13" s="1">
+      <c r="AJ13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK13" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AD13" s="1">
+      <c r="AL13" s="1">
         <v>122235821</v>
       </c>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AG13" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AH13" s="7">
+      <c r="AM13" s="1"/>
+      <c r="AN13" s="1"/>
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="7">
         <v>12341</v>
       </c>
-      <c r="AI13" s="7">
+      <c r="AQ13" s="7">
         <v>22222</v>
       </c>
-      <c r="AJ13" s="11"/>
-      <c r="AK13" s="1"/>
-      <c r="AL13" s="1"/>
-      <c r="AM13" s="1"/>
-      <c r="AN13" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="14" spans="1:43" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR13" s="11"/>
+      <c r="AS13" s="1"/>
+      <c r="AT13" s="1"/>
+      <c r="AU13" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="4"/>
+      <c r="E14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="I14" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K14" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J14" s="1">
-        <v>8778</v>
-      </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1">
+        <v>2233</v>
+      </c>
+      <c r="M14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L14" s="1">
-        <v>8891</v>
-      </c>
-      <c r="M14" s="2" t="s">
+      <c r="N14" s="1">
+        <v>2014</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="P14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="Q14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="R14" s="1">
+      <c r="R14" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1">
         <v>2341567878</v>
       </c>
-      <c r="S14" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="T14" s="1" t="s">
+      <c r="V14" s="1"/>
+      <c r="W14" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="X14" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U14" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="Z14" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="AA14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="AC14" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AD14" s="1">
-        <v>122235821</v>
-      </c>
+      <c r="Y14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="1"/>
+      <c r="AB14" s="1"/>
+      <c r="AC14" s="1"/>
+      <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
-      <c r="AG14" s="1"/>
-      <c r="AH14" s="7">
+      <c r="AG14" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="AH14" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>101</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AL14" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AM14" s="1"/>
+      <c r="AN14" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AO14" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AP14" s="7">
         <v>12341</v>
       </c>
-      <c r="AI14" s="7">
+      <c r="AQ14" s="7">
         <v>22222</v>
       </c>
-      <c r="AJ14" s="11"/>
-      <c r="AK14" s="1"/>
-      <c r="AL14" s="1"/>
-      <c r="AM14" s="1"/>
-      <c r="AN14" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:43" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR14" s="11"/>
+      <c r="AS14" s="1"/>
+      <c r="AT14" s="1"/>
+      <c r="AU14" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>121</v>
+        <v>259</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1"/>
+      <c r="H15" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="I15" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K15" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J15" s="1">
-        <v>9876</v>
-      </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1">
+        <v>8778</v>
+      </c>
+      <c r="M15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L15" s="1">
-        <v>2345</v>
-      </c>
-      <c r="M15" s="2" t="s">
+      <c r="N15" s="1">
+        <v>8891</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="P15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="Q15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="R15" s="1">
+      <c r="R15" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1">
         <v>2341567878</v>
       </c>
-      <c r="S15" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="T15" s="1" t="s">
+      <c r="V15" s="1"/>
+      <c r="W15" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="X15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="Z15" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="AA15" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB15" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AD15" s="1">
-        <v>122235821</v>
-      </c>
+      <c r="Y15" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="1"/>
+      <c r="AB15" s="1"/>
+      <c r="AC15" s="1"/>
+      <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
-      <c r="AG15" s="1"/>
-      <c r="AH15" s="7">
+      <c r="AG15" s="10" t="s">
+        <v>263</v>
+      </c>
+      <c r="AH15" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ15" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AL15" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AM15" s="1"/>
+      <c r="AN15" s="1"/>
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="7">
         <v>12341</v>
       </c>
-      <c r="AI15" s="7">
+      <c r="AQ15" s="7">
         <v>22222</v>
       </c>
-      <c r="AJ15" s="11"/>
-      <c r="AK15" s="1"/>
-      <c r="AL15" s="1"/>
-      <c r="AM15" s="1"/>
-      <c r="AN15" s="10" t="s">
+      <c r="AR15" s="11"/>
+      <c r="AS15" s="1"/>
+      <c r="AT15" s="1"/>
+      <c r="AU15" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:43" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:50" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B16" s="20" t="s">
         <v>265</v>
@@ -4025,928 +4388,1023 @@
       <c r="C16" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="4"/>
+      <c r="E16" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="I16" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K16" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J16" s="1">
-        <v>1212</v>
-      </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1">
+        <v>9876</v>
+      </c>
+      <c r="M16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L16" s="1">
+      <c r="N16" s="1">
         <v>2345</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="O16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="P16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="Q16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="R16" s="1">
+      <c r="R16" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1">
         <v>2341567878</v>
       </c>
-      <c r="S16" s="10" t="s">
+      <c r="V16" s="1"/>
+      <c r="W16" s="10" t="s">
         <v>269</v>
       </c>
-      <c r="T16" s="1" t="s">
+      <c r="X16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="Y16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="Z16" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA16" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB16" s="1">
-        <v>3</v>
-      </c>
-      <c r="AC16" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AD16" s="1">
-        <v>122235821</v>
-      </c>
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="1"/>
+      <c r="AB16" s="1"/>
+      <c r="AC16" s="1"/>
+      <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
-      <c r="AG16" s="1"/>
-      <c r="AH16" s="7">
+      <c r="AG16" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="AH16" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AM16" s="1"/>
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="7">
         <v>12341</v>
       </c>
-      <c r="AI16" s="7">
+      <c r="AQ16" s="7">
         <v>22222</v>
       </c>
-      <c r="AJ16" s="11"/>
-      <c r="AK16" s="1"/>
-      <c r="AL16" s="1"/>
-      <c r="AM16" s="1"/>
-      <c r="AN16" s="10" t="s">
+      <c r="AR16" s="11"/>
+      <c r="AS16" s="1"/>
+      <c r="AT16" s="1"/>
+      <c r="AU16" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>279</v>
+        <v>124</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>320</v>
+        <v>265</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="4"/>
+      <c r="E17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1"/>
+      <c r="H17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="I17" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K17" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J17" s="1">
-        <v>2341</v>
-      </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1">
+        <v>1212</v>
+      </c>
+      <c r="M17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L17" s="1">
+      <c r="N17" s="1">
         <v>2345</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="O17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="P17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="Q17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="R17" s="1">
+      <c r="R17" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1">
         <v>2341567878</v>
       </c>
-      <c r="S17" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="T17" s="1" t="s">
+      <c r="V17" s="1"/>
+      <c r="W17" s="10" t="s">
+        <v>269</v>
+      </c>
+      <c r="X17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U17" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="Z17" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="AA17" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB17" s="1">
-        <v>6</v>
-      </c>
-      <c r="AC17" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AD17" s="1">
-        <v>122235821</v>
-      </c>
+      <c r="Y17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="1"/>
+      <c r="AB17" s="1"/>
+      <c r="AC17" s="1"/>
+      <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
-      <c r="AG17" s="1"/>
-      <c r="AH17" s="7">
+      <c r="AG17" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="AH17" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AM17" s="1"/>
+      <c r="AN17" s="1"/>
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="7">
         <v>12341</v>
       </c>
-      <c r="AI17" s="7">
+      <c r="AQ17" s="7">
         <v>22222</v>
       </c>
-      <c r="AJ17" s="24">
-        <v>326119881</v>
-      </c>
-      <c r="AK17" s="1"/>
-      <c r="AL17" s="1"/>
-      <c r="AM17" s="1"/>
-      <c r="AN17" s="10" t="s">
+      <c r="AR17" s="11"/>
+      <c r="AS17" s="1"/>
+      <c r="AT17" s="1"/>
+      <c r="AU17" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>265</v>
+        <v>320</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="4"/>
+      <c r="E18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1"/>
+      <c r="H18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="I18" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K18" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J18" s="1">
-        <v>9879</v>
-      </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1">
+        <v>2341</v>
+      </c>
+      <c r="M18" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L18" s="1">
+      <c r="N18" s="1">
         <v>2345</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="O18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="P18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="Q18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="R18" s="1">
+      <c r="R18" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1">
         <v>2341567878</v>
       </c>
-      <c r="S18" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="T18" s="1" t="s">
+      <c r="V18" s="1"/>
+      <c r="W18" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="X18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U18" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="Z18" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB18" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AD18" s="1">
-        <v>122235821</v>
-      </c>
+      <c r="Y18" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="1"/>
+      <c r="AB18" s="1"/>
+      <c r="AC18" s="1"/>
+      <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
-      <c r="AG18" s="1"/>
-      <c r="AH18" s="7">
+      <c r="AG18" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="AH18" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>6</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AL18" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AM18" s="1"/>
+      <c r="AN18" s="1"/>
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="7">
         <v>12341</v>
       </c>
-      <c r="AI18" s="7">
+      <c r="AQ18" s="7">
         <v>22222</v>
       </c>
-      <c r="AJ18" s="11"/>
-      <c r="AK18" s="1"/>
-      <c r="AL18" s="1"/>
-      <c r="AM18" s="1"/>
-      <c r="AN18" s="10" t="s">
+      <c r="AR18" s="24">
+        <v>326119881</v>
+      </c>
+      <c r="AS18" s="1"/>
+      <c r="AT18" s="1"/>
+      <c r="AU18" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>285</v>
+        <v>265</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="4"/>
+      <c r="E19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1"/>
+      <c r="H19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="I19" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K19" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J19" s="1">
-        <v>2013</v>
-      </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1">
+        <v>9879</v>
+      </c>
+      <c r="M19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L19" s="1">
+      <c r="N19" s="1">
         <v>2345</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="O19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="P19" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="Q19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="R19" s="1">
+      <c r="R19" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1">
         <v>2341567878</v>
       </c>
-      <c r="S19" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="T19" s="1" t="s">
+      <c r="V19" s="1"/>
+      <c r="W19" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="X19" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U19" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="Z19" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC19" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AD19" s="1">
-        <v>122235821</v>
-      </c>
+      <c r="Y19" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="1"/>
+      <c r="AB19" s="1"/>
+      <c r="AC19" s="1"/>
+      <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
-      <c r="AG19" s="1"/>
-      <c r="AH19" s="7">
+      <c r="AG19" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="AH19" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AL19" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AM19" s="1"/>
+      <c r="AN19" s="1"/>
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="7">
         <v>12341</v>
       </c>
-      <c r="AI19" s="7">
+      <c r="AQ19" s="7">
         <v>22222</v>
       </c>
-      <c r="AJ19" s="11"/>
-      <c r="AK19" s="1"/>
-      <c r="AL19" s="1"/>
-      <c r="AM19" s="1"/>
-      <c r="AN19" s="10" t="s">
+      <c r="AR19" s="11"/>
+      <c r="AS19" s="1"/>
+      <c r="AT19" s="1"/>
+      <c r="AU19" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:47" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="4"/>
+      <c r="E20" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G20" s="1"/>
       <c r="H20" s="1" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="I20" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K20" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J20" s="1">
-        <v>6540</v>
-      </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1">
+        <v>2013</v>
+      </c>
+      <c r="M20" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L20" s="1">
+      <c r="N20" s="1">
         <v>2345</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="O20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="P20" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="Q20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="R20" s="1">
+      <c r="R20" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1">
         <v>2341567878</v>
       </c>
-      <c r="S20" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="T20" s="1" t="s">
+      <c r="V20" s="1"/>
+      <c r="W20" s="10" t="s">
+        <v>286</v>
+      </c>
+      <c r="X20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U20" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="Z20" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="AA20" s="1">
+      <c r="Y20" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z20" s="1"/>
+      <c r="AA20" s="1"/>
+      <c r="AB20" s="1"/>
+      <c r="AC20" s="1"/>
+      <c r="AD20" s="1"/>
+      <c r="AE20" s="1"/>
+      <c r="AF20" s="1"/>
+      <c r="AG20" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="AH20" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="AI20" s="1">
         <v>2</v>
       </c>
-      <c r="AB20" s="1">
-        <v>101</v>
-      </c>
-      <c r="AC20" s="1">
+      <c r="AJ20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK20" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AD20" s="1">
+      <c r="AL20" s="1">
         <v>122235821</v>
       </c>
-      <c r="AE20" s="1"/>
-      <c r="AF20" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="AG20" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="AH20" s="7">
+      <c r="AM20" s="1"/>
+      <c r="AN20" s="1"/>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="7">
         <v>12341</v>
       </c>
-      <c r="AI20" s="7">
+      <c r="AQ20" s="7">
         <v>22222</v>
       </c>
-      <c r="AJ20" s="11"/>
-      <c r="AK20" s="1"/>
-      <c r="AL20" s="1"/>
-      <c r="AM20" s="1"/>
-      <c r="AN20" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="21" spans="1:40" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR20" s="11"/>
+      <c r="AS20" s="1"/>
+      <c r="AT20" s="1"/>
+      <c r="AU20" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:47" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>303</v>
+        <v>292</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="4"/>
+      <c r="E21" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I21" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J21" s="1">
-        <v>5673</v>
-      </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1">
+        <v>6540</v>
+      </c>
+      <c r="M21" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L21" s="1">
+      <c r="N21" s="1">
         <v>2345</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="O21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="P21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="Q21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q21" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="R21" s="1">
+      <c r="R21" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1">
         <v>2341567878</v>
       </c>
-      <c r="S21" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="T21" s="1" t="s">
+      <c r="V21" s="1"/>
+      <c r="W21" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="X21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U21" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="10" t="s">
-        <v>299</v>
-      </c>
-      <c r="Z21" s="10" t="s">
+      <c r="Y21" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="1"/>
+      <c r="AB21" s="1"/>
+      <c r="AC21" s="1"/>
+      <c r="AD21" s="1"/>
+      <c r="AE21" s="1"/>
+      <c r="AF21" s="1"/>
+      <c r="AG21" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="AH21" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="AA21" s="1">
+      <c r="AI21" s="1">
         <v>2</v>
       </c>
-      <c r="AB21" s="1">
+      <c r="AJ21" s="1">
         <v>101</v>
       </c>
-      <c r="AC21" s="1">
+      <c r="AK21" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AD21" s="1">
+      <c r="AL21" s="1">
         <v>122235821</v>
       </c>
-      <c r="AE21" s="1"/>
-      <c r="AF21" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="AG21" s="1"/>
-      <c r="AH21" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AI21" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AJ21" s="11"/>
-      <c r="AK21" s="1"/>
-      <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
       <c r="AN21" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="1:40" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="AO21" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP21" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AQ21" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AR21" s="11"/>
+      <c r="AS21" s="1"/>
+      <c r="AT21" s="1"/>
+      <c r="AU21" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="22" spans="1:47" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>101</v>
+        <v>295</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="4"/>
+      <c r="E22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>60</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="I22" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K22" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J22" s="1">
-        <v>2130</v>
-      </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1">
+        <v>5673</v>
+      </c>
+      <c r="M22" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L22" s="1">
+      <c r="N22" s="1">
         <v>2345</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="O22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="P22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="Q22" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="Q22" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="R22" s="1">
+      <c r="R22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S22" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1">
         <v>2341567878</v>
       </c>
-      <c r="S22" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="T22" s="1" t="s">
+      <c r="V22" s="1"/>
+      <c r="W22" s="20" t="s">
+        <v>296</v>
+      </c>
+      <c r="X22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="Z22" s="10" t="s">
+      <c r="Y22" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="1"/>
+      <c r="AB22" s="1"/>
+      <c r="AC22" s="1"/>
+      <c r="AD22" s="1"/>
+      <c r="AE22" s="1"/>
+      <c r="AF22" s="1"/>
+      <c r="AG22" s="10" t="s">
+        <v>299</v>
+      </c>
+      <c r="AH22" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="AA22" s="1">
+      <c r="AI22" s="1">
         <v>2</v>
       </c>
-      <c r="AB22" s="1">
+      <c r="AJ22" s="1">
         <v>101</v>
       </c>
-      <c r="AC22" s="1">
+      <c r="AK22" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AD22" s="1">
+      <c r="AL22" s="1">
         <v>122235821</v>
       </c>
-      <c r="AE22" s="1"/>
-      <c r="AF22" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AG22" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AH22" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AI22" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AJ22" s="11"/>
-      <c r="AK22" s="1"/>
-      <c r="AL22" s="1"/>
       <c r="AM22" s="1"/>
       <c r="AN22" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="23" spans="1:40" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>298</v>
+      </c>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AQ22" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AR22" s="11"/>
+      <c r="AS22" s="1"/>
+      <c r="AT22" s="1"/>
+      <c r="AU22" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:47" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>308</v>
+        <v>101</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="4"/>
+      <c r="E23" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="F23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="I23" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K23" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J23" s="1">
-        <v>2112</v>
-      </c>
-      <c r="K23" s="1" t="s">
+      <c r="L23" s="1">
+        <v>2130</v>
+      </c>
+      <c r="M23" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L23" s="1">
+      <c r="N23" s="1">
         <v>2345</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="O23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="P23" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="Q23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="R23" s="1">
+      <c r="R23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1">
         <v>2341567878</v>
       </c>
-      <c r="S23" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="T23" s="1" t="s">
+      <c r="V23" s="1"/>
+      <c r="W23" s="20" t="s">
+        <v>305</v>
+      </c>
+      <c r="X23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U23" s="1" t="s">
+      <c r="Y23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
       <c r="Z23" s="1"/>
-      <c r="AA23" s="1">
+      <c r="AA23" s="1"/>
+      <c r="AB23" s="1"/>
+      <c r="AC23" s="1"/>
+      <c r="AD23" s="1"/>
+      <c r="AE23" s="1"/>
+      <c r="AF23" s="1"/>
+      <c r="AG23" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="AH23" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI23" s="1">
         <v>2</v>
       </c>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1">
+      <c r="AJ23" s="1">
+        <v>101</v>
+      </c>
+      <c r="AK23" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AD23" s="1">
+      <c r="AL23" s="1">
         <v>122235821</v>
       </c>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="AG23" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="AH23" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AI23" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AJ23" s="11"/>
-      <c r="AK23" s="1"/>
-      <c r="AL23" s="1"/>
       <c r="AM23" s="1"/>
       <c r="AN23" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:40" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="AO23" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="AP23" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AQ23" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AR23" s="11"/>
+      <c r="AS23" s="1"/>
+      <c r="AT23" s="1"/>
+      <c r="AU23" s="1" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:47" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>307</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1" t="s">
-        <v>60</v>
-      </c>
+      <c r="F24" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I24" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K24" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1">
+        <v>2112</v>
+      </c>
+      <c r="M24" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L24" s="1">
+      <c r="N24" s="1">
         <v>2345</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="O24" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="P24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="Q24" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
+      <c r="R24" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>106</v>
+      </c>
       <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
+      <c r="U24" s="1">
+        <v>2341567878</v>
+      </c>
       <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
+      <c r="W24" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y24" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="Z24" s="1"/>
-      <c r="AA24" s="1">
-        <v>2</v>
-      </c>
+      <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
-      <c r="AC24" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AD24" s="1">
-        <v>122235821</v>
-      </c>
+      <c r="AC24" s="1"/>
+      <c r="AD24" s="1"/>
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
-      <c r="AH24" s="7">
+      <c r="AH24" s="1"/>
+      <c r="AI24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ24" s="1"/>
+      <c r="AK24" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AM24" s="1"/>
+      <c r="AN24" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="AO24" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="AP24" s="7">
         <v>12341</v>
       </c>
-      <c r="AI24" s="7">
+      <c r="AQ24" s="7">
         <v>22222</v>
       </c>
-      <c r="AJ24" s="11"/>
-      <c r="AK24" s="1"/>
-      <c r="AL24" s="1"/>
-      <c r="AM24" s="1"/>
-      <c r="AN24" s="1"/>
-    </row>
-    <row r="25" spans="1:40" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR24" s="11"/>
+      <c r="AS24" s="1"/>
+      <c r="AT24" s="1"/>
+      <c r="AU24" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" spans="1:47" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="4"/>
+      <c r="E25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="1"/>
       <c r="F25" s="1"/>
-      <c r="G25" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
       <c r="I25" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K25" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1"/>
+      <c r="M25" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L25" s="1">
+      <c r="N25" s="1">
         <v>2345</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="O25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="P25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="Q25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -4956,67 +5414,74 @@
       <c r="X25" s="1"/>
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
-      <c r="AA25" s="1">
-        <v>2</v>
-      </c>
+      <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
-      <c r="AC25" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AD25" s="1">
-        <v>122235821</v>
-      </c>
+      <c r="AC25" s="1"/>
+      <c r="AD25" s="1"/>
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
-      <c r="AH25" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AI25" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AJ25" s="11"/>
-      <c r="AK25" s="1"/>
-      <c r="AL25" s="1"/>
+      <c r="AH25" s="1"/>
+      <c r="AI25" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ25" s="1"/>
+      <c r="AK25" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>122235821</v>
+      </c>
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
-    </row>
-    <row r="26" spans="1:40" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO25" s="1"/>
+      <c r="AP25" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AQ25" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AR25" s="11"/>
+      <c r="AS25" s="1"/>
+      <c r="AT25" s="1"/>
+      <c r="AU25" s="1"/>
+    </row>
+    <row r="26" spans="1:47" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="4"/>
+      <c r="E26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="1"/>
       <c r="F26" s="1"/>
-      <c r="G26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
       <c r="I26" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K26" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1"/>
+      <c r="M26" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L26" s="1">
+      <c r="N26" s="1">
         <v>2345</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="O26" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="P26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="Q26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -5026,67 +5491,74 @@
       <c r="X26" s="1"/>
       <c r="Y26" s="1"/>
       <c r="Z26" s="1"/>
-      <c r="AA26" s="1">
-        <v>2</v>
-      </c>
+      <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
-      <c r="AC26" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AD26" s="1">
-        <v>122235821</v>
-      </c>
+      <c r="AC26" s="1"/>
+      <c r="AD26" s="1"/>
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
-      <c r="AH26" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AI26" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AJ26" s="11"/>
-      <c r="AK26" s="1"/>
-      <c r="AL26" s="1"/>
+      <c r="AH26" s="1"/>
+      <c r="AI26" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ26" s="1"/>
+      <c r="AK26" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AL26" s="1">
+        <v>122235821</v>
+      </c>
       <c r="AM26" s="1"/>
       <c r="AN26" s="1"/>
-    </row>
-    <row r="27" spans="1:40" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO26" s="1"/>
+      <c r="AP26" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AQ26" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AR26" s="11"/>
+      <c r="AS26" s="1"/>
+      <c r="AT26" s="1"/>
+      <c r="AU26" s="1"/>
+    </row>
+    <row r="27" spans="1:47" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="4"/>
+      <c r="E27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
-      <c r="G27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K27" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1" t="s">
+      <c r="L27" s="1"/>
+      <c r="M27" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L27" s="1">
+      <c r="N27" s="1">
         <v>2345</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="P27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="Q27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -5096,67 +5568,74 @@
       <c r="X27" s="1"/>
       <c r="Y27" s="1"/>
       <c r="Z27" s="1"/>
-      <c r="AA27" s="1">
-        <v>2</v>
-      </c>
+      <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
-      <c r="AC27" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AD27" s="1">
-        <v>122235821</v>
-      </c>
+      <c r="AC27" s="1"/>
+      <c r="AD27" s="1"/>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
-      <c r="AH27" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AI27" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AJ27" s="11"/>
-      <c r="AK27" s="1"/>
-      <c r="AL27" s="1"/>
+      <c r="AH27" s="1"/>
+      <c r="AI27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ27" s="1"/>
+      <c r="AK27" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>122235821</v>
+      </c>
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
-    </row>
-    <row r="28" spans="1:40" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO27" s="1"/>
+      <c r="AP27" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AQ27" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AR27" s="11"/>
+      <c r="AS27" s="1"/>
+      <c r="AT27" s="1"/>
+      <c r="AU27" s="1"/>
+    </row>
+    <row r="28" spans="1:47" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E28" s="1"/>
       <c r="F28" s="1"/>
-      <c r="G28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K28" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1"/>
+      <c r="M28" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L28" s="1">
+      <c r="N28" s="1">
         <v>2345</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="O28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="P28" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="Q28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -5166,67 +5645,74 @@
       <c r="X28" s="1"/>
       <c r="Y28" s="1"/>
       <c r="Z28" s="1"/>
-      <c r="AA28" s="1">
-        <v>2</v>
-      </c>
+      <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
-      <c r="AC28" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AD28" s="1">
-        <v>122235821</v>
-      </c>
+      <c r="AC28" s="1"/>
+      <c r="AD28" s="1"/>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
-      <c r="AH28" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AI28" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AJ28" s="11"/>
-      <c r="AK28" s="1"/>
-      <c r="AL28" s="1"/>
+      <c r="AH28" s="1"/>
+      <c r="AI28" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ28" s="1"/>
+      <c r="AK28" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>122235821</v>
+      </c>
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
-    </row>
-    <row r="29" spans="1:40" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO28" s="1"/>
+      <c r="AP28" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AQ28" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AR28" s="11"/>
+      <c r="AS28" s="1"/>
+      <c r="AT28" s="1"/>
+      <c r="AU28" s="1"/>
+    </row>
+    <row r="29" spans="1:47" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E29" s="1"/>
       <c r="F29" s="1"/>
-      <c r="G29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K29" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1"/>
+      <c r="M29" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L29" s="1">
+      <c r="N29" s="1">
         <v>2345</v>
       </c>
-      <c r="M29" s="2" t="s">
+      <c r="O29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="P29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="Q29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
       <c r="S29" s="1"/>
       <c r="T29" s="1"/>
@@ -5236,67 +5722,74 @@
       <c r="X29" s="1"/>
       <c r="Y29" s="1"/>
       <c r="Z29" s="1"/>
-      <c r="AA29" s="1">
-        <v>2</v>
-      </c>
+      <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
-      <c r="AC29" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AD29" s="1">
-        <v>122235821</v>
-      </c>
+      <c r="AC29" s="1"/>
+      <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
-      <c r="AH29" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AI29" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AJ29" s="11"/>
-      <c r="AK29" s="1"/>
-      <c r="AL29" s="1"/>
+      <c r="AH29" s="1"/>
+      <c r="AI29" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ29" s="1"/>
+      <c r="AK29" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AL29" s="1">
+        <v>122235821</v>
+      </c>
       <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
-    </row>
-    <row r="30" spans="1:40" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO29" s="1"/>
+      <c r="AP29" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AQ29" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AR29" s="11"/>
+      <c r="AS29" s="1"/>
+      <c r="AT29" s="1"/>
+      <c r="AU29" s="1"/>
+    </row>
+    <row r="30" spans="1:47" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="4"/>
+      <c r="E30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="1"/>
       <c r="F30" s="1"/>
-      <c r="G30" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K30" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1" t="s">
+      <c r="L30" s="1"/>
+      <c r="M30" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L30" s="1">
+      <c r="N30" s="1">
         <v>2345</v>
       </c>
-      <c r="M30" s="2" t="s">
+      <c r="O30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="P30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="Q30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
       <c r="S30" s="1"/>
       <c r="T30" s="1"/>
@@ -5306,67 +5799,74 @@
       <c r="X30" s="1"/>
       <c r="Y30" s="1"/>
       <c r="Z30" s="1"/>
-      <c r="AA30" s="1">
-        <v>2</v>
-      </c>
+      <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
-      <c r="AC30" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AD30" s="1">
-        <v>122235821</v>
-      </c>
+      <c r="AC30" s="1"/>
+      <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
-      <c r="AH30" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AI30" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AJ30" s="11"/>
-      <c r="AK30" s="1"/>
-      <c r="AL30" s="1"/>
+      <c r="AH30" s="1"/>
+      <c r="AI30" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ30" s="1"/>
+      <c r="AK30" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>122235821</v>
+      </c>
       <c r="AM30" s="1"/>
       <c r="AN30" s="1"/>
-    </row>
-    <row r="31" spans="1:40" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO30" s="1"/>
+      <c r="AP30" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AQ30" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AR30" s="11"/>
+      <c r="AS30" s="1"/>
+      <c r="AT30" s="1"/>
+      <c r="AU30" s="1"/>
+    </row>
+    <row r="31" spans="1:47" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="4"/>
+      <c r="E31" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="1"/>
       <c r="F31" s="1"/>
-      <c r="G31" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K31" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1" t="s">
+      <c r="L31" s="1"/>
+      <c r="M31" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L31" s="1">
+      <c r="N31" s="1">
         <v>2345</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="O31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="P31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="Q31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
       <c r="S31" s="1"/>
       <c r="T31" s="1"/>
@@ -5376,67 +5876,74 @@
       <c r="X31" s="1"/>
       <c r="Y31" s="1"/>
       <c r="Z31" s="1"/>
-      <c r="AA31" s="1">
-        <v>2</v>
-      </c>
+      <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
-      <c r="AC31" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AD31" s="1">
-        <v>122235821</v>
-      </c>
+      <c r="AC31" s="1"/>
+      <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
-      <c r="AH31" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AI31" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AJ31" s="11"/>
-      <c r="AK31" s="1"/>
-      <c r="AL31" s="1"/>
+      <c r="AH31" s="1"/>
+      <c r="AI31" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ31" s="1"/>
+      <c r="AK31" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AL31" s="1">
+        <v>122235821</v>
+      </c>
       <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
-    </row>
-    <row r="32" spans="1:40" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO31" s="1"/>
+      <c r="AP31" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AQ31" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AR31" s="11"/>
+      <c r="AS31" s="1"/>
+      <c r="AT31" s="1"/>
+      <c r="AU31" s="1"/>
+    </row>
+    <row r="32" spans="1:47" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="4"/>
+      <c r="E32" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="1"/>
       <c r="F32" s="1"/>
-      <c r="G32" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K32" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1"/>
+      <c r="M32" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L32" s="1">
+      <c r="N32" s="1">
         <v>2345</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="O32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="P32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="Q32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
       <c r="S32" s="1"/>
       <c r="T32" s="1"/>
@@ -5446,67 +5953,74 @@
       <c r="X32" s="1"/>
       <c r="Y32" s="1"/>
       <c r="Z32" s="1"/>
-      <c r="AA32" s="1">
-        <v>2</v>
-      </c>
+      <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
-      <c r="AC32" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AD32" s="1">
-        <v>122235821</v>
-      </c>
+      <c r="AC32" s="1"/>
+      <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
-      <c r="AH32" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AI32" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AJ32" s="11"/>
-      <c r="AK32" s="1"/>
-      <c r="AL32" s="1"/>
+      <c r="AH32" s="1"/>
+      <c r="AI32" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ32" s="1"/>
+      <c r="AK32" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AL32" s="1">
+        <v>122235821</v>
+      </c>
       <c r="AM32" s="1"/>
       <c r="AN32" s="1"/>
-    </row>
-    <row r="33" spans="1:40" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AQ32" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AR32" s="11"/>
+      <c r="AS32" s="1"/>
+      <c r="AT32" s="1"/>
+      <c r="AU32" s="1"/>
+    </row>
+    <row r="33" spans="1:47" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="4"/>
+      <c r="E33" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="1"/>
       <c r="F33" s="1"/>
-      <c r="G33" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>61</v>
-      </c>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="K33" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1" t="s">
+      <c r="L33" s="1"/>
+      <c r="M33" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="L33" s="1">
+      <c r="N33" s="1">
         <v>2345</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="O33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="P33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="Q33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
       <c r="S33" s="1"/>
       <c r="T33" s="1"/>
@@ -5516,39 +6030,46 @@
       <c r="X33" s="1"/>
       <c r="Y33" s="1"/>
       <c r="Z33" s="1"/>
-      <c r="AA33" s="1">
-        <v>2</v>
-      </c>
+      <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
-      <c r="AC33" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AD33" s="1">
-        <v>122235821</v>
-      </c>
+      <c r="AC33" s="1"/>
+      <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
-      <c r="AH33" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AI33" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AJ33" s="11"/>
-      <c r="AK33" s="1"/>
-      <c r="AL33" s="1"/>
+      <c r="AH33" s="1"/>
+      <c r="AI33" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AL33" s="1">
+        <v>122235821</v>
+      </c>
       <c r="AM33" s="1"/>
       <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AQ33" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AR33" s="11"/>
+      <c r="AS33" s="1"/>
+      <c r="AT33" s="1"/>
+      <c r="AU33" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="M3" r:id="rId1"/>
-    <hyperlink ref="M7" r:id="rId2"/>
-    <hyperlink ref="H2" r:id="rId3" display="Biswanath@54321"/>
-    <hyperlink ref="M2" r:id="rId4"/>
-    <hyperlink ref="M8:M33" r:id="rId5" display="talk2mahapatra@gmail.com"/>
-    <hyperlink ref="M11" r:id="rId6"/>
+    <hyperlink ref="O4" r:id="rId1"/>
+    <hyperlink ref="O8" r:id="rId2"/>
+    <hyperlink ref="J3" r:id="rId3" display="Biswanath@54321"/>
+    <hyperlink ref="O3" r:id="rId4"/>
+    <hyperlink ref="O12" r:id="rId5"/>
+    <hyperlink ref="O2" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>

--- a/testdata/TestData_siebel.xlsx
+++ b/testdata/TestData_siebel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xerox\AutomationTestSuite\testdata\"/>
     </mc:Choice>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="819" uniqueCount="357">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="370">
   <si>
     <t>UserId</t>
   </si>
@@ -326,19 +326,6 @@
     <t>William</t>
   </si>
   <si>
-    <t>MAILING:9369 TRIESTE DRIVE::33913:FORT MYERS:FL:USA,
-BILLING:9369 TRIESTE DRIVE::33913:FORT MYERS:FL:USA</t>
-  </si>
-  <si>
-    <t>MAILING:Avenida Central 310: :6002:Colima:CL:MEX,
-BILLING:Avenida Central 310: :6002:Colima:CL:MEX,
-SHIPPING:Avenida Central 310: :6002:Colima:CL:MEX</t>
-  </si>
-  <si>
-    <t>MAILING:632 CATHERINE FOSTER LANE: :32259:SAINT JOHNS:FL:USA,
-BILLING:632 CATHERINE FOSTER LANE: :32259:SAINT JOHNS:FL:USA</t>
-  </si>
-  <si>
     <t>ACEO_012</t>
   </si>
   <si>
@@ -367,11 +354,6 @@
   </si>
   <si>
     <t>Red Carpet Services</t>
-  </si>
-  <si>
-    <t>MAILING:Avenida Central 310: :34407:Durango:DG:MEX,
-BILLING:Avenida Central 310: :34407:Durango:DG:MEX,
-SHIPPING:Avenida Central 310: :34407:Durango:DG:MEX</t>
   </si>
   <si>
     <t>bbb1111:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,
@@ -387,15 +369,6 @@
   </si>
   <si>
     <t>ACEO_020</t>
-  </si>
-  <si>
-    <t>MAILING:1118-BLYTH HILL COURT:B2:34655:TRINITY:FL:USA,
-BILLING:1118-BLYTH HILL COURT:B2:34655:TRINITY:FL:USA</t>
-  </si>
-  <si>
-    <t>MAILING:120 WEYBRIDGE CIR APT A::33411:ROYAL PALM BEACH:FL:USA,
-BILLING:120 WEYBRIDGE CIR APT A::33411:ROYAL PALM BEACH:FL:USA,
-SHIPPING:120 WEYBRIDGE CIR APT A::33411:ROYAL PALM BEACH:FL:USA</t>
   </si>
   <si>
     <t>Brian</t>
@@ -797,10 +770,6 @@
     <t>john</t>
   </si>
   <si>
-    <t>MAILING:10049 ST MORITZ DR::33913:MIROMAR LAKES:FL:USA,
-BILLING:1118-BLYTH HILL COURT::33913:MIROMAR LAKES:FL:USA</t>
-  </si>
-  <si>
     <t>MASTERCARD</t>
   </si>
   <si>
@@ -989,10 +958,6 @@
     <t>ACEO_078</t>
   </si>
   <si>
-    <t>MAILING:250 EGRET STREET::33931:FORT MYERS BEACH:FL:USA,
-BILLING:250 EGRET STREET::33931:FORT MYERS BEACH:FL:USA</t>
-  </si>
-  <si>
     <t>miller</t>
   </si>
   <si>
@@ -1021,10 +986,6 @@
     <t>gracia</t>
   </si>
   <si>
-    <t>MAILING:632 CATHERINE FOSTER LANE::32259:SAINT JOHNS:FL:USA,
-BILLING:250 EGRET STREET::33931:SAINT JOHNS:FL:USA</t>
-  </si>
-  <si>
     <t>wbc111:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,
 wbc222:FL:STANDARD:USA:REGULAR:2014:BUICK:SPECIAL,
 wbc333:FL:STANDARD:USA:REGULAR:2014:BRAUN:ENTERVAN II, wbc444:FL:STANDARD:USA:REGULAR:2014:BMW:M</t>
@@ -1046,11 +1007,6 @@
     <t>philip</t>
   </si>
   <si>
-    <t>MAILING:202 KENSINGTON WAY::33414:WEST PALM BEACH:FL:USA,
-BILLING:202 KENSINGTON WAY::33414:WEST PALM BEACH:FL:USA,
-SHIPPING:202 KENSINGTON WAY::33414:WEST PALM BEACH:FL:USA</t>
-  </si>
-  <si>
     <t>CreditCardNo</t>
   </si>
   <si>
@@ -1183,15 +1139,102 @@
     <t>Tom Cruise</t>
   </si>
   <si>
+    <t xml:space="preserve">. </t>
+  </si>
+  <si>
+    <t>MAILING:Calle 5 de Mayo 706: APT 427:20234:Agricultura:AG:MEX;
+BILLING:4560 ESTERO BLVD:702, FORT MYERS:33913:FORT MYERS:FL:USA</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>ACEO_011</t>
+  </si>
+  <si>
+    <t>Prepaid Fleet account creation with walk-in mode along with FLEETPRE plan.</t>
+  </si>
+  <si>
+    <t>ACEO_008</t>
+  </si>
+  <si>
+    <t>Smoke/MainFlow</t>
+  </si>
+  <si>
+    <t>Prepaid RCSP account creation with walk-in mode with RCSPPRE plan.</t>
+  </si>
+  <si>
+    <t>Alternate Phone</t>
+  </si>
+  <si>
+    <t>MAILING:4560 ESTERO BLVD:702, FORT MYERS:33913:FORT MYERS:FL:USA;
+BILLING:4560 ESTERO BLVD:702, FORT MYERS:33913:FORT MYERS:FL:USA</t>
+  </si>
+  <si>
+    <t>MAILING:9369 TRIESTE DRIVE::33913:FORT MYERS:FL:USA;
+BILLING:9369 TRIESTE DRIVE::33913:FORT MYERS:FL:USA</t>
+  </si>
+  <si>
+    <t>MAILING:632 CATHERINE FOSTER LANE: :32259:SAINT JOHNS:FL:USA;
+BILLING:632 CATHERINE FOSTER LANE: :32259:SAINT JOHNS:FL:USA</t>
+  </si>
+  <si>
+    <t>MAILING:1118-BLYTH HILL COURT:B2:34655:TRINITY:FL:USA;
+BILLING:1118-BLYTH HILL COURT:B2:34655:TRINITY:FL:USA</t>
+  </si>
+  <si>
+    <t>MAILING:120 WEYBRIDGE CIR APT A::33411:ROYAL PALM BEACH:FL:USA;
+BILLING:120 WEYBRIDGE CIR APT A::33411:ROYAL PALM BEACH:FL:USA;
+SHIPPING:120 WEYBRIDGE CIR APT A::33411:ROYAL PALM BEACH:FL:USA</t>
+  </si>
+  <si>
+    <t>MAILING:10049 ST MORITZ DR::33913:MIROMAR LAKES:FL:USA;
+BILLING:1118-BLYTH HILL COURT::33913:MIROMAR LAKES:FL:USA</t>
+  </si>
+  <si>
+    <t>MAILING:250 EGRET STREET::33931:FORT MYERS BEACH:FL:USA;
+BILLING:250 EGRET STREET::33931:FORT MYERS BEACH:FL:USA</t>
+  </si>
+  <si>
+    <t>MAILING:632 CATHERINE FOSTER LANE::32259:SAINT JOHNS:FL:USA;
+BILLING:250 EGRET STREET::33931:SAINT JOHNS:FL:USA</t>
+  </si>
+  <si>
+    <t>MAILING:202 KENSINGTON WAY::33414:WEST PALM BEACH:FL:USA;
+BILLING:202 KENSINGTON WAY::33414:WEST PALM BEACH:FL:USA;
+SHIPPING:202 KENSINGTON WAY::33414:WEST PALM BEACH:FL:USA</t>
+  </si>
+  <si>
     <t>MAILING:Avenida Central 310: :6002:Colima:CL:MEX;
-BILLING:4560 ESTERO BLVD:702, FORT MYERS:33913:FORT MYERS:FL:USA</t>
+BILLING:Avenida Central 310: :6002:Colima:CL:MEX;
+SHIPPING:Avenida Central 310: :6002:Colima:CL:MEX</t>
+  </si>
+  <si>
+    <t>MAILING:Avenida Central 310: :34407:Durango:DG:MEX;
+BILLING:Avenida Central 310: :34407:Durango:DG:MEX;
+SHIPPING:Avenida Central 310: :34407:Durango:DG:MEX</t>
+  </si>
+  <si>
+    <t>Blocked for automation.
+Cyber source issue. imformed on 17-01-2017.</t>
+  </si>
+  <si>
+    <t>Blocked for automation.(country and address is not loading while doing replenishment)
+Sent mail to vineesh on 17-01-2017.</t>
+  </si>
+  <si>
+    <t>Prepaid Fleet account creation with mail-in mode along with FLEETPRE plan and NRVTAG Non-Revenue plan.</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1236,8 +1279,13 @@
       <color indexed="9"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1281,6 +1329,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="17"/>
       </patternFill>
     </fill>
@@ -1419,7 +1477,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1488,13 +1546,17 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
   </cellStyles>
-  <dxfs count="38">
+  <dxfs count="39">
     <dxf>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
@@ -1917,6 +1979,24 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
@@ -2262,8 +2342,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="37"/>
-      <tableStyleElement type="headerRow" dxfId="36"/>
+      <tableStyleElement type="wholeTable" dxfId="38"/>
+      <tableStyleElement type="headerRow" dxfId="37"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2278,22 +2358,23 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="I1:AQ5" totalsRowShown="0" headerRowDxfId="35">
-  <autoFilter ref="I1:AQ5"/>
-  <tableColumns count="35">
-    <tableColumn id="1" name="UserId" dataDxfId="34"/>
-    <tableColumn id="2" name="Password" dataDxfId="33"/>
-    <tableColumn id="46" name="Agency" dataDxfId="32"/>
-    <tableColumn id="4" name="PIN" dataDxfId="31"/>
-    <tableColumn id="5" name="Challenge Question" dataDxfId="30"/>
-    <tableColumn id="6" name="Challenge Answer" dataDxfId="29"/>
-    <tableColumn id="7" name="Email Address" dataDxfId="28"/>
-    <tableColumn id="8" name="Statement Frequency" dataDxfId="27"/>
-    <tableColumn id="9" name="LanguagePref" dataDxfId="26"/>
-    <tableColumn id="12" name="First Name" dataDxfId="25"/>
-    <tableColumn id="13" name="Last Name" dataDxfId="24"/>
-    <tableColumn id="3" name="Suffix" dataDxfId="23"/>
-    <tableColumn id="14" name="Cell Phone" dataDxfId="22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="I1:AR20" totalsRowShown="0" headerRowDxfId="36">
+  <autoFilter ref="I1:AR20"/>
+  <tableColumns count="36">
+    <tableColumn id="1" name="UserId" dataDxfId="35"/>
+    <tableColumn id="2" name="Password" dataDxfId="34"/>
+    <tableColumn id="46" name="Agency" dataDxfId="33"/>
+    <tableColumn id="4" name="PIN" dataDxfId="32"/>
+    <tableColumn id="5" name="Challenge Question" dataDxfId="31"/>
+    <tableColumn id="6" name="Challenge Answer" dataDxfId="30"/>
+    <tableColumn id="7" name="Email Address" dataDxfId="29"/>
+    <tableColumn id="8" name="Statement Frequency" dataDxfId="28"/>
+    <tableColumn id="9" name="LanguagePref" dataDxfId="27"/>
+    <tableColumn id="12" name="First Name" dataDxfId="26"/>
+    <tableColumn id="13" name="Last Name" dataDxfId="25"/>
+    <tableColumn id="3" name="Suffix" dataDxfId="24"/>
+    <tableColumn id="14" name="Cell Phone" dataDxfId="23"/>
+    <tableColumn id="28" name="Alternate Phone" dataDxfId="22"/>
     <tableColumn id="20" name="Fax" dataDxfId="21"/>
     <tableColumn id="15" name="AddressType" dataDxfId="20"/>
     <tableColumn id="22" name="Is Primary ?" dataDxfId="19"/>
@@ -2584,62 +2665,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX33"/>
+  <dimension ref="A1:AY48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
-      <selection activeCell="AS2" sqref="AS2:AT2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="57" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.75" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="21.625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="14.625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="17" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.375" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="30" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="12.75" collapsed="1"/>
-    <col min="15" max="15" width="26.625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="19" width="12.75" collapsed="1"/>
-    <col min="21" max="21" width="12.75" collapsed="1"/>
-    <col min="23" max="23" width="99" customWidth="1" collapsed="1"/>
-    <col min="24" max="25" width="12.75" collapsed="1"/>
-    <col min="27" max="27" width="23.625" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="17.75" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="14.75" customWidth="1" collapsed="1"/>
-    <col min="30" max="32" width="14.75" customWidth="1"/>
-    <col min="33" max="33" width="73.25" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="53.75" customWidth="1" collapsed="1"/>
-    <col min="35" max="39" width="12.75" collapsed="1"/>
-    <col min="40" max="40" width="19.75" customWidth="1" collapsed="1"/>
-    <col min="41" max="41" width="12.75" collapsed="1"/>
-    <col min="42" max="42" width="12.75" style="8" collapsed="1"/>
-    <col min="43" max="43" width="18.75" style="8" customWidth="1" collapsed="1"/>
-    <col min="44" max="44" width="36.25" customWidth="1" collapsed="1"/>
-    <col min="45" max="45" width="21" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="46" max="46" width="21" customWidth="1" collapsed="1"/>
-    <col min="47" max="47" width="16.25" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="57.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.75" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="23.5" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="16.75" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="21.625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="14.625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="17.375" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="14" max="14" width="12.75" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="26.625" collapsed="true"/>
+    <col min="16" max="16" bestFit="true" customWidth="true" width="19.75" collapsed="true"/>
+    <col min="17" max="19" width="12.75" collapsed="true"/>
+    <col min="21" max="21" width="12.75" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="99.0" collapsed="true"/>
+    <col min="25" max="26" width="12.75" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="23.625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="17.75" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="14.75" collapsed="true"/>
+    <col min="31" max="33" customWidth="true" width="14.75" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="73.25" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="53.75" collapsed="true"/>
+    <col min="36" max="40" width="12.75" collapsed="true"/>
+    <col min="41" max="41" customWidth="true" width="19.75" collapsed="true"/>
+    <col min="42" max="42" width="12.75" collapsed="true"/>
+    <col min="43" max="43" style="8" width="12.75" collapsed="true"/>
+    <col min="44" max="44" customWidth="true" style="8" width="18.75" collapsed="true"/>
+    <col min="45" max="45" customWidth="true" width="36.25" collapsed="true"/>
+    <col min="46" max="46" bestFit="true" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="47" max="47" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="48" max="48" customWidth="true" width="16.25" collapsed="true"/>
+    <col min="49" max="49" customWidth="true" width="30.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>66</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>37</v>
@@ -2648,7 +2730,7 @@
         <v>38</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="H1" s="3" t="s">
         <v>39</v>
@@ -2687,108 +2769,114 @@
         <v>9</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="U1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>336</v>
+        <v>354</v>
       </c>
       <c r="W1" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Z1" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="AA1" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AO1" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP1" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="AR1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS1" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="AT1" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AU1" s="9" t="s">
         <v>314</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AV1" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="AW1" s="28" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:51" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>342</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AN1" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="AO1" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="AP1" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="AQ1" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="AR1" s="9" t="s">
-        <v>319</v>
-      </c>
-      <c r="AS1" s="9" t="s">
-        <v>323</v>
-      </c>
-      <c r="AT1" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="AU1" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="2" spans="1:50" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>349</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>64</v>
@@ -2803,7 +2891,7 @@
         <v>61</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="L2" s="1">
         <v>1212</v>
@@ -2815,434 +2903,508 @@
         <v>9879</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="U2" s="1">
         <v>8907451234</v>
       </c>
-      <c r="V2" s="1">
+      <c r="W2" s="1">
         <v>2345678907</v>
       </c>
-      <c r="W2" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="X2" s="1" t="s">
+      <c r="X2" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Y2" s="1" t="s">
-        <v>337</v>
-      </c>
       <c r="Z2" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="AA2" s="21" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AB2" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AE2" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>100</v>
+      </c>
+      <c r="AG2" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="AH2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ2" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>122</v>
+      </c>
+      <c r="AL2" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AP2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>12341</v>
+      </c>
+      <c r="AR2" s="1">
+        <v>22222</v>
+      </c>
+      <c r="AT2" s="25">
+        <v>46337</v>
+      </c>
+      <c r="AU2" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AW2" s="10" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:51" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="K3" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="AB2" s="1">
-        <v>12</v>
-      </c>
-      <c r="AC2" s="1">
-        <v>2024</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="AE2" s="1">
-        <v>100</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="AG2" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AH2" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI2" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ2" s="1">
-        <v>122</v>
-      </c>
-      <c r="AK2" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AL2" s="1">
-        <v>122235821</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="AP2" s="1">
-        <v>12341</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>22222</v>
-      </c>
-      <c r="AS2" s="25">
-        <v>46337</v>
-      </c>
-      <c r="AT2" s="1">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:50" ht="60" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>350</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>326</v>
-      </c>
       <c r="L3" s="1">
-        <v>1122</v>
+        <v>5673</v>
       </c>
       <c r="M3" s="1" t="s">
         <v>35</v>
       </c>
       <c r="N3" s="1">
-        <v>2345</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>16</v>
+        <v>9879</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>17</v>
+        <v>337</v>
       </c>
       <c r="Q3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="S3" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="T3" s="1"/>
+        <v>320</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>325</v>
+      </c>
       <c r="U3" s="1">
-        <v>1231231231</v>
-      </c>
-      <c r="V3" s="1"/>
-      <c r="W3" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="X3" s="1" t="s">
+        <v>1232453444</v>
+      </c>
+      <c r="V3" s="1">
+        <v>3452341234</v>
+      </c>
+      <c r="X3" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Y3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="Z3" s="1"/>
-      <c r="AA3" s="1"/>
-      <c r="AB3" s="1"/>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="1"/>
-      <c r="AE3" s="1"/>
-      <c r="AF3" s="1"/>
-      <c r="AG3" s="10" t="s">
+      <c r="Z3" s="10" t="s">
+        <v>329</v>
+      </c>
+      <c r="AB3" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AE3" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>100</v>
+      </c>
+      <c r="AG3" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="AH3" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="AH3" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI3" s="1">
+      <c r="AI3" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ3" s="1">
         <v>2</v>
       </c>
-      <c r="AJ3" s="1">
-        <v>233</v>
-      </c>
       <c r="AK3" s="1">
+        <v>122</v>
+      </c>
+      <c r="AL3" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AL3" s="1">
+      <c r="AM3" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM3" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN3" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="AO3" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="AP3" s="7">
+        <v>344</v>
+      </c>
+      <c r="AP3" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AQ3" s="1">
         <v>12341</v>
       </c>
-      <c r="AQ3" s="7">
+      <c r="AR3" s="1">
         <v>22222</v>
       </c>
-      <c r="AR3" s="26">
-        <v>326120086</v>
-      </c>
-      <c r="AS3" s="1"/>
-      <c r="AT3" s="1"/>
-      <c r="AU3" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="AV3" s="1"/>
-      <c r="AW3" s="1"/>
-      <c r="AX3" s="1"/>
-    </row>
-    <row r="4" spans="1:50" ht="60" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C4" s="4" t="s">
+      <c r="AT3" s="25">
+        <v>46337</v>
+      </c>
+      <c r="AU3" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AV3" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="AW3" s="10" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="4" spans="1:51" s="1" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>351</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>41</v>
+      <c r="F4" s="1" t="s">
+        <v>247</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>64</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>345</v>
+        <v>60</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>346</v>
+        <v>61</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="L4" s="1">
-        <v>7860</v>
+        <v>1212</v>
       </c>
       <c r="M4" s="1" t="s">
         <v>35</v>
       </c>
       <c r="N4" s="1">
-        <v>2345</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>16</v>
+        <v>9879</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>319</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>17</v>
+        <v>337</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>18</v>
+        <v>322</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>75</v>
+        <v>323</v>
       </c>
       <c r="S4" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T4" s="1"/>
+        <v>320</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>325</v>
+      </c>
       <c r="U4" s="1">
-        <v>3452452345</v>
-      </c>
-      <c r="V4" s="1"/>
-      <c r="W4" s="10" t="s">
+        <v>8907451234</v>
+      </c>
+      <c r="W4" s="1">
+        <v>2345678907</v>
+      </c>
+      <c r="X4" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="AB4" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>100</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="AH4" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI4" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>122</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AO4" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="AP4" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>12341</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>22222</v>
+      </c>
+      <c r="AT4" s="25">
+        <v>46337</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AW4" s="10"/>
+    </row>
+    <row r="5" spans="1:51" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="X4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="Z4" s="1"/>
-      <c r="AA4" s="21" t="s">
-        <v>316</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>12</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>2024</v>
-      </c>
-      <c r="AD4" s="1"/>
-      <c r="AE4" s="1"/>
-      <c r="AF4" s="1"/>
-      <c r="AG4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="AH4" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>200</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>3453453451</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>122235821</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>101</v>
-      </c>
-      <c r="AN4" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="AO4" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AP4" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AQ4" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AR4" s="11"/>
-      <c r="AS4" s="25">
-        <v>46337</v>
-      </c>
-      <c r="AT4" s="1">
-        <v>1000</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="AV4" s="1"/>
-      <c r="AW4" s="1"/>
-      <c r="AX4" s="1"/>
-    </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="B5" s="4"/>
+      <c r="B5" s="4" t="s">
+        <v>368</v>
+      </c>
       <c r="C5" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>352</v>
+        <v>317</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>342</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="1"/>
+        <v>43</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="H5" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>345</v>
+        <v>60</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>346</v>
+        <v>61</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
+        <v>316</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1122</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2345</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>72</v>
+      </c>
       <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
+      <c r="U5" s="1">
+        <v>1231231231</v>
+      </c>
       <c r="V5" s="1"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
-      <c r="AG5" s="10"/>
-      <c r="AH5" s="10"/>
-      <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
-      <c r="AK5" s="1"/>
-      <c r="AL5" s="1"/>
-      <c r="AM5" s="1"/>
-      <c r="AN5" s="1"/>
-      <c r="AO5" s="1"/>
-      <c r="AP5" s="7"/>
-      <c r="AQ5" s="7"/>
-      <c r="AR5" s="11"/>
-      <c r="AS5" s="1"/>
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="AI5" t="n" s="29">
+        <v>3.26125599E8</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>233</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO5" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AP5" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="AQ5" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AR5" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AS5" s="26">
+        <v>326120086</v>
+      </c>
       <c r="AT5" s="1"/>
       <c r="AU5" s="1"/>
-      <c r="AV5" s="1"/>
+      <c r="AV5" s="10" t="s">
+        <v>122</v>
+      </c>
       <c r="AW5" s="1"/>
       <c r="AX5" s="1"/>
-    </row>
-    <row r="6" spans="1:50" ht="60" x14ac:dyDescent="0.25">
+      <c r="AY5" s="1"/>
+    </row>
+    <row r="6" spans="1:51" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>225</v>
+        <v>128</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>40</v>
@@ -3250,21 +3412,23 @@
       <c r="F6" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="H6" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>345</v>
+        <v>60</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>346</v>
+        <v>61</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="L6" s="1">
-        <v>7896</v>
+        <v>7860</v>
       </c>
       <c r="M6" s="1" t="s">
         <v>35</v>
@@ -3282,85 +3446,96 @@
         <v>18</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="S6" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="T6" s="1"/>
       <c r="U6" s="1">
         <v>3452452345</v>
       </c>
       <c r="V6" s="1"/>
-      <c r="W6" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="X6" s="1" t="s">
+      <c r="W6" s="1"/>
+      <c r="X6" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="Y6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Y6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="Z6" s="1"/>
+      <c r="Z6" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
+      <c r="AB6" s="21" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>2024</v>
+      </c>
       <c r="AE6" s="1"/>
       <c r="AF6" s="1"/>
-      <c r="AG6" s="10" t="s">
-        <v>83</v>
-      </c>
+      <c r="AG6" s="1"/>
       <c r="AH6" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI6" s="1">
+        <v>78</v>
+      </c>
+      <c r="AI6" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="AJ6" s="1">
         <v>2</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AK6" s="1">
         <v>200</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AL6" s="1">
         <v>3453453451</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AM6" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1" t="s">
-        <v>84</v>
+      <c r="AN6" s="1">
+        <v>101</v>
       </c>
       <c r="AO6" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AP6" s="7">
+        <v>79</v>
+      </c>
+      <c r="AP6" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AQ6" s="7">
         <v>12341</v>
       </c>
-      <c r="AQ6" s="7">
+      <c r="AR6" s="7">
         <v>22222</v>
       </c>
-      <c r="AR6" s="11"/>
-      <c r="AS6" s="1"/>
-      <c r="AT6" s="1"/>
-      <c r="AU6" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AV6" s="1"/>
+      <c r="AS6" s="11"/>
+      <c r="AT6" s="25">
+        <v>46337</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>1000</v>
+      </c>
+      <c r="AV6" s="1" t="s">
+        <v>80</v>
+      </c>
       <c r="AW6" s="1"/>
       <c r="AX6" s="1"/>
-    </row>
-    <row r="7" spans="1:50" ht="60" x14ac:dyDescent="0.25">
+      <c r="AY6" s="1"/>
+    </row>
+    <row r="7" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>227</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
         <v>62</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>40</v>
@@ -3370,55 +3545,31 @@
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>345</v>
+        <v>60</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>346</v>
+        <v>61</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L7" s="1">
-        <v>7860</v>
-      </c>
-      <c r="M7" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N7" s="1">
-        <v>2345</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R7" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>86</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
       <c r="T7" s="1"/>
-      <c r="U7" s="1">
-        <v>3452452345</v>
-      </c>
+      <c r="U7" s="1"/>
       <c r="V7" s="1"/>
-      <c r="W7" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="X7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y7" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="W7" s="1"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
@@ -3426,117 +3577,70 @@
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
-      <c r="AG7" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="AH7" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ7" s="1">
-        <v>200</v>
-      </c>
-      <c r="AK7" s="1">
-        <v>3453453451</v>
-      </c>
-      <c r="AL7" s="1">
-        <v>122235821</v>
-      </c>
+      <c r="AG7" s="1"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="1"/>
+      <c r="AK7" s="1"/>
+      <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
-      <c r="AN7" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="AO7" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="AP7" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AQ7" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AR7" s="11"/>
-      <c r="AS7" s="1"/>
+      <c r="AN7" s="1"/>
+      <c r="AO7" s="1"/>
+      <c r="AP7" s="1"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="11"/>
       <c r="AT7" s="1"/>
-      <c r="AU7" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="AU7" s="1"/>
       <c r="AV7" s="1"/>
       <c r="AW7" s="1"/>
       <c r="AX7" s="1"/>
-    </row>
-    <row r="8" spans="1:50" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AY7" s="1"/>
+    </row>
+    <row r="8" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D8" s="4"/>
+      <c r="D8" s="4" t="s">
+        <v>340</v>
+      </c>
       <c r="E8" s="4" t="s">
         <v>40</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>345</v>
+        <v>60</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L8" s="1">
-        <v>2130</v>
-      </c>
-      <c r="M8" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N8" s="1">
-        <v>2345</v>
-      </c>
-      <c r="O8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R8" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="S8" s="1" t="s">
-        <v>91</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
       <c r="T8" s="1"/>
-      <c r="U8" s="1">
-        <v>3421562345</v>
-      </c>
+      <c r="U8" s="1"/>
       <c r="V8" s="1"/>
-      <c r="W8" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="X8" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y8" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="W8" s="1"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
@@ -3544,60 +3648,41 @@
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
-      <c r="AG8" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="AH8" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ8" s="1">
-        <v>200</v>
-      </c>
-      <c r="AK8" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AL8" s="1">
-        <v>122235821</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>1</v>
-      </c>
-      <c r="AN8" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="AO8" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="AP8" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AQ8" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AR8" s="11"/>
-      <c r="AS8" s="1"/>
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="1"/>
+      <c r="AK8" s="1"/>
+      <c r="AL8" s="1"/>
+      <c r="AM8" s="1"/>
+      <c r="AN8" s="1"/>
+      <c r="AO8" s="1"/>
+      <c r="AP8" s="1"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="11"/>
       <c r="AT8" s="1"/>
-      <c r="AU8" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AV8" s="1"/>
+      <c r="AU8" s="1"/>
+      <c r="AV8" s="1" t="s">
+        <v>217</v>
+      </c>
       <c r="AW8" s="1"/>
       <c r="AX8" s="1"/>
-    </row>
-    <row r="9" spans="1:50" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AY8" s="1"/>
+    </row>
+    <row r="9" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>321</v>
+        <v>100</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>343</v>
+      </c>
       <c r="E9" s="4" t="s">
         <v>40</v>
       </c>
@@ -3605,56 +3690,30 @@
         <v>41</v>
       </c>
       <c r="G9" s="1"/>
-      <c r="H9" s="4" t="s">
+      <c r="H9" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>345</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L9" s="1">
-        <v>2098</v>
-      </c>
-      <c r="M9" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" s="1">
-        <v>2345</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P9" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R9" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="S9" s="1" t="s">
-        <v>106</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
       <c r="T9" s="1"/>
-      <c r="U9" s="1">
-        <v>2341567878</v>
-      </c>
+      <c r="U9" s="1"/>
       <c r="V9" s="1"/>
-      <c r="W9" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="X9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y9" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="W9" s="1"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
@@ -3662,50 +3721,34 @@
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
-      <c r="AG9" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="AH9" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ9" s="1">
-        <v>101</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AL9" s="1">
-        <v>122235821</v>
-      </c>
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="1"/>
+      <c r="AK9" s="1"/>
+      <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
-      <c r="AN9" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="AO9" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="AP9" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AQ9" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AR9" s="11"/>
-      <c r="AS9" s="1"/>
+      <c r="AN9" s="1"/>
+      <c r="AO9" s="1"/>
+      <c r="AP9" s="1"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="11"/>
       <c r="AT9" s="1"/>
-      <c r="AU9" s="10" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:50" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU9" s="1"/>
+      <c r="AV9" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AW9" s="1"/>
+      <c r="AX9" s="1"/>
+      <c r="AY9" s="1"/>
+    </row>
+    <row r="10" spans="1:51" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>112</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>226</v>
+        <v>98</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>62</v>
@@ -3717,57 +3760,33 @@
       <c r="F10" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1" t="s">
+      <c r="G10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" s="4" t="s">
         <v>45</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>345</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L10" s="1">
-        <v>1234</v>
-      </c>
-      <c r="M10" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N10" s="1">
-        <v>2345</v>
-      </c>
-      <c r="O10" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R10" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="S10" s="1" t="s">
-        <v>116</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
       <c r="T10" s="1"/>
-      <c r="U10" s="1">
-        <v>2341567878</v>
-      </c>
+      <c r="U10" s="1"/>
       <c r="V10" s="1"/>
-      <c r="W10" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="X10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y10" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="W10" s="1"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
@@ -3775,50 +3794,34 @@
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
-      <c r="AG10" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="AH10" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ10" s="1">
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="1"/>
+      <c r="AK10" s="1"/>
+      <c r="AL10" s="1"/>
+      <c r="AM10" s="1"/>
+      <c r="AN10" s="1"/>
+      <c r="AO10" s="1"/>
+      <c r="AP10" s="1"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="11"/>
+      <c r="AT10" s="1"/>
+      <c r="AU10" s="1"/>
+      <c r="AV10" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AW10" s="1"/>
+      <c r="AX10" s="1"/>
+      <c r="AY10" s="1"/>
+    </row>
+    <row r="11" spans="1:51" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="AK10" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AL10" s="1">
-        <v>122235821</v>
-      </c>
-      <c r="AM10" s="1"/>
-      <c r="AN10" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="AO10" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AP10" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AQ10" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AR10" s="11"/>
-      <c r="AS10" s="1"/>
-      <c r="AT10" s="1"/>
-      <c r="AU10" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="11" spans="1:50" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>230</v>
+      <c r="B11" s="20" t="s">
+        <v>311</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>62</v>
@@ -3827,60 +3830,34 @@
       <c r="E11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G11" s="1"/>
-      <c r="H11" s="1" t="s">
-        <v>15</v>
+      <c r="H11" s="4" t="s">
+        <v>45</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>345</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L11" s="1">
-        <v>9879</v>
-      </c>
-      <c r="M11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N11" s="1">
-        <v>2345</v>
-      </c>
-      <c r="O11" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R11" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>232</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
       <c r="T11" s="1"/>
-      <c r="U11" s="1">
-        <v>2341567878</v>
-      </c>
+      <c r="U11" s="1"/>
       <c r="V11" s="1"/>
-      <c r="W11" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="X11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y11" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="W11" s="1"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
@@ -3888,46 +3865,31 @@
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
-      <c r="AG11" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AH11" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AI11" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK11" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AL11" s="1">
-        <v>122235821</v>
-      </c>
+      <c r="AG11" s="1"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="1"/>
+      <c r="AK11" s="1"/>
+      <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
       <c r="AO11" s="1"/>
-      <c r="AP11" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AQ11" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AR11" s="11"/>
-      <c r="AS11" s="1"/>
+      <c r="AP11" s="1"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="11"/>
       <c r="AT11" s="1"/>
-      <c r="AU11" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:50" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU11" s="1"/>
+      <c r="AV11" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:51" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>236</v>
+        <v>108</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>220</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>62</v>
@@ -3936,117 +3898,66 @@
       <c r="E12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="4" t="s">
         <v>41</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>345</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="K12" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L12" s="1">
-        <v>5566</v>
-      </c>
-      <c r="M12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N12" s="1">
-        <v>2345</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="P12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R12" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="S12" s="1" t="s">
-        <v>239</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
       <c r="T12" s="1"/>
-      <c r="U12" s="1">
-        <v>2341567878</v>
-      </c>
+      <c r="U12" s="1"/>
       <c r="V12" s="1"/>
-      <c r="W12" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="X12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y12" s="1" t="s">
-        <v>244</v>
-      </c>
+      <c r="W12" s="1"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
-      <c r="AA12" s="22" t="s">
-        <v>316</v>
-      </c>
-      <c r="AB12" s="1">
-        <v>12</v>
-      </c>
-      <c r="AC12" s="1">
-        <v>2019</v>
-      </c>
+      <c r="AA12" s="1"/>
+      <c r="AB12" s="1"/>
+      <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="1"/>
       <c r="AF12" s="1"/>
-      <c r="AG12" s="10" t="s">
-        <v>251</v>
-      </c>
-      <c r="AH12" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="AI12" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ12" s="1">
-        <v>101</v>
-      </c>
-      <c r="AK12" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AL12" s="1">
-        <v>122235821</v>
-      </c>
+      <c r="AG12" s="1"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="1"/>
+      <c r="AK12" s="1"/>
+      <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
-      <c r="AN12" s="1" t="s">
-        <v>241</v>
-      </c>
-      <c r="AO12" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AP12" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AQ12" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AR12" s="11"/>
-      <c r="AS12" s="1"/>
+      <c r="AN12" s="1"/>
+      <c r="AO12" s="1"/>
+      <c r="AP12" s="1"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="11"/>
       <c r="AT12" s="1"/>
-      <c r="AU12" s="1" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="13" spans="1:50" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU12" s="1"/>
+      <c r="AV12" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:51" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>62</v>
@@ -4063,105 +3974,58 @@
         <v>15</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>345</v>
+        <v>60</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L13" s="1">
-        <v>2331</v>
-      </c>
-      <c r="M13" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N13" s="1">
-        <v>2345</v>
-      </c>
-      <c r="O13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q13" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R13" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="S13" s="1" t="s">
-        <v>248</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
       <c r="T13" s="1"/>
-      <c r="U13" s="1">
-        <v>2341567878</v>
-      </c>
+      <c r="U13" s="1"/>
       <c r="V13" s="1"/>
-      <c r="W13" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="X13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y13" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="Z13" s="27"/>
-      <c r="AA13" s="23" t="s">
-        <v>317</v>
-      </c>
-      <c r="AB13" s="1">
-        <v>12</v>
-      </c>
-      <c r="AC13" s="1">
-        <v>2024</v>
-      </c>
+      <c r="W13" s="1"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1"/>
+      <c r="AB13" s="1"/>
+      <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="1"/>
       <c r="AF13" s="1"/>
-      <c r="AG13" s="10" t="s">
-        <v>252</v>
-      </c>
-      <c r="AH13" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="AI13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ13" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK13" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AL13" s="1">
-        <v>122235821</v>
-      </c>
+      <c r="AG13" s="1"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="1"/>
+      <c r="AK13" s="1"/>
+      <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
       <c r="AO13" s="1"/>
-      <c r="AP13" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AQ13" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AR13" s="11"/>
-      <c r="AS13" s="1"/>
+      <c r="AP13" s="1"/>
+      <c r="AQ13" s="7"/>
+      <c r="AR13" s="7"/>
+      <c r="AS13" s="11"/>
       <c r="AT13" s="1"/>
-      <c r="AU13" s="10" t="s">
+      <c r="AU13" s="1"/>
+      <c r="AV13" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:50" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:51" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>258</v>
+        <v>229</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>62</v>
@@ -4171,59 +4035,33 @@
         <v>40</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>254</v>
+        <v>41</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>345</v>
+        <v>60</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L14" s="1">
-        <v>2233</v>
-      </c>
-      <c r="M14" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N14" s="1">
-        <v>2014</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P14" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q14" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R14" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="S14" s="1" t="s">
-        <v>256</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
       <c r="T14" s="1"/>
-      <c r="U14" s="1">
-        <v>2341567878</v>
-      </c>
+      <c r="U14" s="1"/>
       <c r="V14" s="1"/>
-      <c r="W14" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y14" s="1" t="s">
-        <v>65</v>
-      </c>
+      <c r="W14" s="1"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
@@ -4231,50 +4069,31 @@
       <c r="AD14" s="1"/>
       <c r="AE14" s="1"/>
       <c r="AF14" s="1"/>
-      <c r="AG14" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="AH14" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ14" s="1">
-        <v>101</v>
-      </c>
-      <c r="AK14" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AL14" s="1">
-        <v>122235821</v>
-      </c>
+      <c r="AG14" s="1"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="1"/>
+      <c r="AK14" s="1"/>
+      <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
-      <c r="AN14" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="AO14" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="AP14" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AQ14" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AR14" s="11"/>
-      <c r="AS14" s="1"/>
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="1"/>
+      <c r="AQ14" s="7"/>
+      <c r="AR14" s="7"/>
+      <c r="AS14" s="11"/>
       <c r="AT14" s="1"/>
-      <c r="AU14" s="10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="15" spans="1:50" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU14" s="1"/>
+      <c r="AV14" s="1" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="15" spans="1:51" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>260</v>
+        <v>239</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>224</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>62</v>
@@ -4291,52 +4110,26 @@
         <v>15</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>345</v>
+        <v>60</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L15" s="1">
-        <v>8778</v>
-      </c>
-      <c r="M15" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N15" s="1">
-        <v>8891</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R15" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="S15" s="1" t="s">
-        <v>262</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
       <c r="T15" s="1"/>
-      <c r="U15" s="1">
-        <v>2341567878</v>
-      </c>
+      <c r="U15" s="1"/>
       <c r="V15" s="1"/>
-      <c r="W15" s="10" t="s">
-        <v>268</v>
-      </c>
-      <c r="X15" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y15" s="1" t="s">
-        <v>126</v>
-      </c>
+      <c r="W15" s="1"/>
+      <c r="X15" s="10"/>
+      <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
@@ -4344,46 +4137,31 @@
       <c r="AD15" s="1"/>
       <c r="AE15" s="1"/>
       <c r="AF15" s="1"/>
-      <c r="AG15" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="AH15" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="AI15" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ15" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="AK15" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AL15" s="1">
-        <v>122235821</v>
-      </c>
+      <c r="AG15" s="1"/>
+      <c r="AH15" s="10"/>
+      <c r="AI15" s="10"/>
+      <c r="AJ15" s="1"/>
+      <c r="AK15" s="1"/>
+      <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
       <c r="AO15" s="1"/>
-      <c r="AP15" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AQ15" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AR15" s="11"/>
-      <c r="AS15" s="1"/>
+      <c r="AP15" s="1"/>
+      <c r="AQ15" s="7"/>
+      <c r="AR15" s="7"/>
+      <c r="AS15" s="11"/>
       <c r="AT15" s="1"/>
-      <c r="AU15" s="10" t="s">
+      <c r="AU15" s="1"/>
+      <c r="AV15" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:50" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:51" ht="81" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>121</v>
+        <v>246</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>265</v>
+        <v>251</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>62</v>
@@ -4393,59 +4171,33 @@
         <v>40</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>41</v>
+        <v>247</v>
       </c>
       <c r="G16" s="1"/>
       <c r="H16" s="1" t="s">
-        <v>15</v>
+        <v>44</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>345</v>
+        <v>60</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="K16" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L16" s="1">
-        <v>9876</v>
-      </c>
-      <c r="M16" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N16" s="1">
-        <v>2345</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R16" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="S16" s="1" t="s">
-        <v>266</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
       <c r="T16" s="1"/>
-      <c r="U16" s="1">
-        <v>2341567878</v>
-      </c>
+      <c r="U16" s="1"/>
       <c r="V16" s="1"/>
-      <c r="W16" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="X16" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y16" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="W16" s="1"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
@@ -4453,46 +4205,31 @@
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
-      <c r="AG16" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="AH16" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="AI16" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ16" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK16" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AL16" s="1">
-        <v>122235821</v>
-      </c>
+      <c r="AG16" s="1"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="10"/>
+      <c r="AJ16" s="1"/>
+      <c r="AK16" s="1"/>
+      <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
       <c r="AO16" s="1"/>
-      <c r="AP16" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AQ16" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AR16" s="11"/>
-      <c r="AS16" s="1"/>
+      <c r="AP16" s="1"/>
+      <c r="AQ16" s="7"/>
+      <c r="AR16" s="7"/>
+      <c r="AS16" s="11"/>
       <c r="AT16" s="1"/>
-      <c r="AU16" s="10" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="1:47" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU16" s="1"/>
+      <c r="AV16" s="10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:48" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>124</v>
+        <v>252</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>62</v>
@@ -4509,52 +4246,26 @@
         <v>15</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>345</v>
+        <v>60</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L17" s="1">
-        <v>1212</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N17" s="1">
-        <v>2345</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R17" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>125</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
       <c r="T17" s="1"/>
-      <c r="U17" s="1">
-        <v>2341567878</v>
-      </c>
+      <c r="U17" s="1"/>
       <c r="V17" s="1"/>
-      <c r="W17" s="10" t="s">
-        <v>269</v>
-      </c>
-      <c r="X17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y17" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="W17" s="1"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
@@ -4562,46 +4273,31 @@
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
-      <c r="AG17" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="AH17" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="AI17" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ17" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK17" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AL17" s="1">
-        <v>122235821</v>
-      </c>
+      <c r="AG17" s="1"/>
+      <c r="AH17" s="10"/>
+      <c r="AI17" s="10"/>
+      <c r="AJ17" s="1"/>
+      <c r="AK17" s="1"/>
+      <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
       <c r="AO17" s="1"/>
-      <c r="AP17" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AQ17" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AR17" s="11"/>
-      <c r="AS17" s="1"/>
+      <c r="AP17" s="1"/>
+      <c r="AQ17" s="7"/>
+      <c r="AR17" s="7"/>
+      <c r="AS17" s="11"/>
       <c r="AT17" s="1"/>
-      <c r="AU17" s="10" t="s">
+      <c r="AU17" s="1"/>
+      <c r="AV17" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:47" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>279</v>
+        <v>115</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>320</v>
+        <v>258</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>62</v>
@@ -4618,52 +4314,26 @@
         <v>15</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>345</v>
+        <v>60</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="K18" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L18" s="1">
-        <v>2341</v>
-      </c>
-      <c r="M18" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N18" s="1">
-        <v>2345</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R18" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="S18" s="1" t="s">
-        <v>274</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
       <c r="T18" s="1"/>
-      <c r="U18" s="1">
-        <v>2341567878</v>
-      </c>
+      <c r="U18" s="1"/>
       <c r="V18" s="1"/>
-      <c r="W18" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="X18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y18" s="1" t="s">
-        <v>276</v>
-      </c>
+      <c r="W18" s="1"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
@@ -4671,48 +4341,31 @@
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
-      <c r="AG18" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="AH18" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="AI18" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ18" s="1">
-        <v>6</v>
-      </c>
-      <c r="AK18" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AL18" s="1">
-        <v>122235821</v>
-      </c>
+      <c r="AG18" s="1"/>
+      <c r="AH18" s="10"/>
+      <c r="AI18" s="10"/>
+      <c r="AJ18" s="1"/>
+      <c r="AK18" s="1"/>
+      <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
       <c r="AO18" s="1"/>
-      <c r="AP18" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AQ18" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AR18" s="24">
-        <v>326119881</v>
-      </c>
-      <c r="AS18" s="1"/>
+      <c r="AP18" s="1"/>
+      <c r="AQ18" s="7"/>
+      <c r="AR18" s="7"/>
+      <c r="AS18" s="11"/>
       <c r="AT18" s="1"/>
-      <c r="AU18" s="10" t="s">
+      <c r="AU18" s="1"/>
+      <c r="AV18" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:47" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>280</v>
+        <v>118</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>62</v>
@@ -4729,52 +4382,26 @@
         <v>15</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>345</v>
+        <v>60</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="K19" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L19" s="1">
-        <v>9879</v>
-      </c>
-      <c r="M19" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N19" s="1">
-        <v>2345</v>
-      </c>
-      <c r="O19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q19" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R19" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="S19" s="1" t="s">
-        <v>232</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
       <c r="T19" s="1"/>
-      <c r="U19" s="1">
-        <v>2341567878</v>
-      </c>
+      <c r="U19" s="1"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="X19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y19" s="1" t="s">
-        <v>63</v>
-      </c>
+      <c r="W19" s="1"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
@@ -4782,46 +4409,31 @@
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
-      <c r="AG19" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="AH19" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="AI19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ19" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK19" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AL19" s="1">
-        <v>122235821</v>
-      </c>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
       <c r="AO19" s="1"/>
-      <c r="AP19" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AQ19" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AR19" s="11"/>
-      <c r="AS19" s="1"/>
+      <c r="AP19" s="1"/>
+      <c r="AQ19" s="7"/>
+      <c r="AR19" s="7"/>
+      <c r="AS19" s="11"/>
       <c r="AT19" s="1"/>
-      <c r="AU19" s="10" t="s">
+      <c r="AU19" s="1"/>
+      <c r="AV19" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="1:47" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>285</v>
+        <v>310</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>62</v>
@@ -4838,52 +4450,26 @@
         <v>15</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>345</v>
+        <v>60</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L20" s="1">
-        <v>2013</v>
-      </c>
-      <c r="M20" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="N20" s="1">
-        <v>2345</v>
-      </c>
-      <c r="O20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="P20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="R20" s="1" t="s">
-        <v>247</v>
-      </c>
-      <c r="S20" s="1" t="s">
-        <v>248</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
       <c r="T20" s="1"/>
-      <c r="U20" s="1">
-        <v>2341567878</v>
-      </c>
+      <c r="U20" s="1"/>
       <c r="V20" s="1"/>
-      <c r="W20" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="X20" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="Y20" s="1" t="s">
-        <v>276</v>
-      </c>
+      <c r="W20" s="1"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
@@ -4891,46 +4477,33 @@
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
-      <c r="AG20" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="AH20" s="10" t="s">
-        <v>287</v>
-      </c>
-      <c r="AI20" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ20" s="1">
-        <v>2</v>
-      </c>
-      <c r="AK20" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AL20" s="1">
-        <v>122235821</v>
-      </c>
+      <c r="AG20" s="1"/>
+      <c r="AH20" s="10"/>
+      <c r="AI20" s="10"/>
+      <c r="AJ20" s="1"/>
+      <c r="AK20" s="1"/>
+      <c r="AL20" s="1"/>
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
       <c r="AO20" s="1"/>
-      <c r="AP20" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AQ20" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AR20" s="11"/>
-      <c r="AS20" s="1"/>
+      <c r="AP20" s="1"/>
+      <c r="AQ20" s="7"/>
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="24">
+        <v>326119881</v>
+      </c>
       <c r="AT20" s="1"/>
-      <c r="AU20" s="10" t="s">
+      <c r="AU20" s="1"/>
+      <c r="AV20" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:47" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>62</v>
@@ -4940,23 +4513,23 @@
         <v>40</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="L21" s="1">
-        <v>6540</v>
+        <v>7896</v>
       </c>
       <c r="M21" s="1" t="s">
         <v>35</v>
@@ -4974,76 +4547,77 @@
         <v>18</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>290</v>
+        <v>81</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>274</v>
+        <v>82</v>
       </c>
       <c r="T21" s="1"/>
       <c r="U21" s="1">
-        <v>2341567878</v>
+        <v>3452452345</v>
       </c>
       <c r="V21" s="1"/>
-      <c r="W21" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="X21" s="1" t="s">
+      <c r="W21" s="1"/>
+      <c r="X21" s="10" t="s">
+        <v>364</v>
+      </c>
+      <c r="Y21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Y21" s="1" t="s">
+      <c r="Z21" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
-      <c r="AG21" s="10" t="s">
-        <v>294</v>
-      </c>
+      <c r="AG21" s="1"/>
       <c r="AH21" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI21" s="1">
+        <v>83</v>
+      </c>
+      <c r="AI21" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ21" s="1">
         <v>2</v>
       </c>
-      <c r="AJ21" s="1">
-        <v>101</v>
-      </c>
       <c r="AK21" s="1">
-        <v>1234567890</v>
+        <v>200</v>
       </c>
       <c r="AL21" s="1">
+        <v>3453453451</v>
+      </c>
+      <c r="AM21" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM21" s="1"/>
-      <c r="AN21" s="1" t="s">
-        <v>291</v>
-      </c>
+      <c r="AN21" s="1"/>
       <c r="AO21" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="AP21" s="7">
+        <v>84</v>
+      </c>
+      <c r="AP21" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ21" s="7">
         <v>12341</v>
       </c>
-      <c r="AQ21" s="7">
+      <c r="AR21" s="7">
         <v>22222</v>
       </c>
-      <c r="AR21" s="11"/>
-      <c r="AS21" s="1"/>
+      <c r="AS21" s="11"/>
       <c r="AT21" s="1"/>
-      <c r="AU21" s="1" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="22" spans="1:47" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU21" s="1"/>
+      <c r="AV21" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:48" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>295</v>
+        <v>274</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>62</v>
@@ -5053,23 +4627,23 @@
         <v>40</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
-        <v>44</v>
+        <v>15</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="L22" s="1">
-        <v>5673</v>
+        <v>7860</v>
       </c>
       <c r="M22" s="1" t="s">
         <v>35</v>
@@ -5087,74 +4661,77 @@
         <v>18</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>297</v>
+        <v>86</v>
       </c>
       <c r="T22" s="1"/>
       <c r="U22" s="1">
-        <v>2341567878</v>
+        <v>3452452345</v>
       </c>
       <c r="V22" s="1"/>
-      <c r="W22" s="20" t="s">
-        <v>296</v>
-      </c>
-      <c r="X22" s="1" t="s">
+      <c r="W22" s="1"/>
+      <c r="X22" s="10" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Y22" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="Z22" s="1"/>
+      <c r="Z22" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="1"/>
       <c r="AF22" s="1"/>
-      <c r="AG22" s="10" t="s">
-        <v>299</v>
-      </c>
+      <c r="AG22" s="1"/>
       <c r="AH22" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI22" s="1">
+        <v>87</v>
+      </c>
+      <c r="AI22" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ22" s="1">
         <v>2</v>
       </c>
-      <c r="AJ22" s="1">
-        <v>101</v>
-      </c>
       <c r="AK22" s="1">
-        <v>1234567890</v>
+        <v>200</v>
       </c>
       <c r="AL22" s="1">
+        <v>3453453451</v>
+      </c>
+      <c r="AM22" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM22" s="1"/>
-      <c r="AN22" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="AO22" s="1"/>
-      <c r="AP22" s="7">
+      <c r="AN22" s="1"/>
+      <c r="AO22" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AP22" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="AQ22" s="7">
         <v>12341</v>
       </c>
-      <c r="AQ22" s="7">
+      <c r="AR22" s="7">
         <v>22222</v>
       </c>
-      <c r="AR22" s="11"/>
-      <c r="AS22" s="1"/>
+      <c r="AS22" s="11"/>
       <c r="AT22" s="1"/>
-      <c r="AU22" s="1" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:47" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU22" s="1"/>
+      <c r="AV22" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:48" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>101</v>
+        <v>282</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>302</v>
+        <v>285</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>62</v>
@@ -5164,20 +4741,20 @@
         <v>40</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G23" s="1"/>
       <c r="H23" s="1" t="s">
         <v>45</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="L23" s="1">
         <v>2130</v>
@@ -5201,73 +4778,76 @@
         <v>90</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>304</v>
+        <v>91</v>
       </c>
       <c r="T23" s="1"/>
       <c r="U23" s="1">
-        <v>2341567878</v>
+        <v>3421562345</v>
       </c>
       <c r="V23" s="1"/>
-      <c r="W23" s="20" t="s">
-        <v>305</v>
-      </c>
-      <c r="X23" s="1" t="s">
+      <c r="W23" s="1"/>
+      <c r="X23" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="Y23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Y23" s="1" t="s">
+      <c r="Z23" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="1"/>
       <c r="AF23" s="1"/>
-      <c r="AG23" s="10" t="s">
-        <v>306</v>
-      </c>
+      <c r="AG23" s="1"/>
       <c r="AH23" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="AI23" s="1">
+        <v>92</v>
+      </c>
+      <c r="AI23" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ23" s="1">
         <v>2</v>
       </c>
-      <c r="AJ23" s="1">
-        <v>101</v>
-      </c>
       <c r="AK23" s="1">
+        <v>200</v>
+      </c>
+      <c r="AL23" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AL23" s="1">
+      <c r="AM23" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM23" s="1"/>
-      <c r="AN23" s="1" t="s">
+      <c r="AN23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO23" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AO23" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="AP23" s="7">
+      <c r="AP23" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AQ23" s="7">
         <v>12341</v>
       </c>
-      <c r="AQ23" s="7">
+      <c r="AR23" s="7">
         <v>22222</v>
       </c>
-      <c r="AR23" s="11"/>
-      <c r="AS23" s="1"/>
+      <c r="AS23" s="11"/>
       <c r="AT23" s="1"/>
-      <c r="AU23" s="1" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="24" spans="1:47" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AU23" s="1"/>
+      <c r="AV23" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="24" spans="1:48" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>308</v>
+        <v>288</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="C24" s="4" t="s">
         <v>62</v>
@@ -5281,19 +4861,19 @@
       </c>
       <c r="G24" s="1"/>
       <c r="H24" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="L24" s="1">
-        <v>2112</v>
+        <v>2098</v>
       </c>
       <c r="M24" s="1" t="s">
         <v>35</v>
@@ -5311,26 +4891,26 @@
         <v>18</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>309</v>
+        <v>102</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="T24" s="1"/>
       <c r="U24" s="1">
         <v>2341567878</v>
       </c>
       <c r="V24" s="1"/>
-      <c r="W24" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="X24" s="1" t="s">
+      <c r="W24" s="1"/>
+      <c r="X24" s="10" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Y24" s="1" t="s">
+      <c r="Z24" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
@@ -5338,58 +4918,77 @@
       <c r="AE24" s="1"/>
       <c r="AF24" s="1"/>
       <c r="AG24" s="1"/>
-      <c r="AH24" s="1"/>
-      <c r="AI24" s="1">
+      <c r="AH24" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="AI24" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ24" s="1">
         <v>2</v>
       </c>
-      <c r="AJ24" s="1"/>
       <c r="AK24" s="1">
+        <v>101</v>
+      </c>
+      <c r="AL24" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AL24" s="1">
+      <c r="AM24" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM24" s="1"/>
-      <c r="AN24" s="1" t="s">
-        <v>310</v>
-      </c>
+      <c r="AN24" s="1"/>
       <c r="AO24" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="AP24" s="7">
+        <v>104</v>
+      </c>
+      <c r="AP24" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="AQ24" s="7">
         <v>12341</v>
       </c>
-      <c r="AQ24" s="7">
+      <c r="AR24" s="7">
         <v>22222</v>
       </c>
-      <c r="AR24" s="11"/>
-      <c r="AS24" s="1"/>
+      <c r="AS24" s="11"/>
       <c r="AT24" s="1"/>
-      <c r="AU24" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="25" spans="1:47" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="AU24" s="1"/>
+      <c r="AV24" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:48" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
+      <c r="H25" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I25" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L25" s="1"/>
+        <v>316</v>
+      </c>
+      <c r="L25" s="1">
+        <v>1234</v>
+      </c>
       <c r="M25" s="1" t="s">
         <v>35</v>
       </c>
@@ -5405,15 +5004,27 @@
       <c r="Q25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
+      <c r="R25" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>110</v>
+      </c>
       <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
+      <c r="U25" s="1">
+        <v>2341567878</v>
+      </c>
       <c r="V25" s="1"/>
       <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
+      <c r="X25" s="10" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z25" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
@@ -5421,52 +5032,77 @@
       <c r="AE25" s="1"/>
       <c r="AF25" s="1"/>
       <c r="AG25" s="1"/>
-      <c r="AH25" s="1"/>
-      <c r="AI25" s="1">
+      <c r="AH25" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AI25" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ25" s="1">
         <v>2</v>
       </c>
-      <c r="AJ25" s="1"/>
       <c r="AK25" s="1">
+        <v>101</v>
+      </c>
+      <c r="AL25" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AL25" s="1">
+      <c r="AM25" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
-      <c r="AO25" s="1"/>
-      <c r="AP25" s="7">
+      <c r="AO25" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AP25" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ25" s="7">
         <v>12341</v>
       </c>
-      <c r="AQ25" s="7">
+      <c r="AR25" s="7">
         <v>22222</v>
       </c>
-      <c r="AR25" s="11"/>
-      <c r="AS25" s="1"/>
+      <c r="AS25" s="11"/>
       <c r="AT25" s="1"/>
       <c r="AU25" s="1"/>
-    </row>
-    <row r="26" spans="1:47" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="AV25" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="26" spans="1:48" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="F26" s="1"/>
+      <c r="F26" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
+      <c r="H26" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="I26" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L26" s="1"/>
+        <v>316</v>
+      </c>
+      <c r="L26" s="1">
+        <v>9879</v>
+      </c>
       <c r="M26" s="1" t="s">
         <v>35</v>
       </c>
@@ -5482,15 +5118,27 @@
       <c r="Q26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
+      <c r="R26" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="S26" s="1" t="s">
+        <v>226</v>
+      </c>
       <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
+      <c r="U26" s="1">
+        <v>2341567878</v>
+      </c>
       <c r="V26" s="1"/>
       <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
+      <c r="X26" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="Y26" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z26" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
@@ -5498,32 +5146,41 @@
       <c r="AE26" s="1"/>
       <c r="AF26" s="1"/>
       <c r="AG26" s="1"/>
-      <c r="AH26" s="1"/>
-      <c r="AI26" s="1">
+      <c r="AH26" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AI26" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="AJ26" s="1">
         <v>2</v>
       </c>
-      <c r="AJ26" s="1"/>
       <c r="AK26" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL26" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AL26" s="1">
+      <c r="AM26" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM26" s="1"/>
       <c r="AN26" s="1"/>
       <c r="AO26" s="1"/>
-      <c r="AP26" s="7">
+      <c r="AP26" s="1"/>
+      <c r="AQ26" s="7">
         <v>12341</v>
       </c>
-      <c r="AQ26" s="7">
+      <c r="AR26" s="7">
         <v>22222</v>
       </c>
-      <c r="AR26" s="11"/>
-      <c r="AS26" s="1"/>
+      <c r="AS26" s="11"/>
       <c r="AT26" s="1"/>
       <c r="AU26" s="1"/>
-    </row>
-    <row r="27" spans="1:47" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV26" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:48" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
@@ -5535,15 +5192,17 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L27" s="1"/>
+        <v>316</v>
+      </c>
+      <c r="L27" s="1">
+        <v>5566</v>
+      </c>
       <c r="M27" s="1" t="s">
         <v>35</v>
       </c>
@@ -5551,7 +5210,7 @@
         <v>2345</v>
       </c>
       <c r="O27" s="2" t="s">
-        <v>16</v>
+        <v>231</v>
       </c>
       <c r="P27" s="1" t="s">
         <v>17</v>
@@ -5559,48 +5218,77 @@
       <c r="Q27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
+      <c r="R27" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
+      <c r="U27" s="1">
+        <v>2341567878</v>
+      </c>
       <c r="V27" s="1"/>
       <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
+      <c r="X27" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="Y27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z27" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
-      <c r="AD27" s="1"/>
+      <c r="AB27" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="AC27" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD27" s="1">
+        <v>2019</v>
+      </c>
       <c r="AE27" s="1"/>
       <c r="AF27" s="1"/>
       <c r="AG27" s="1"/>
-      <c r="AH27" s="1"/>
-      <c r="AI27" s="1">
+      <c r="AH27" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="AI27" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="AJ27" s="1">
         <v>2</v>
       </c>
-      <c r="AJ27" s="1"/>
       <c r="AK27" s="1">
+        <v>101</v>
+      </c>
+      <c r="AL27" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AL27" s="1">
+      <c r="AM27" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
-      <c r="AO27" s="1"/>
-      <c r="AP27" s="7">
+      <c r="AO27" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="AP27" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AQ27" s="7">
         <v>12341</v>
       </c>
-      <c r="AQ27" s="7">
+      <c r="AR27" s="7">
         <v>22222</v>
       </c>
-      <c r="AR27" s="11"/>
-      <c r="AS27" s="1"/>
+      <c r="AS27" s="11"/>
       <c r="AT27" s="1"/>
       <c r="AU27" s="1"/>
-    </row>
-    <row r="28" spans="1:47" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV27" s="1"/>
+    </row>
+    <row r="28" spans="1:48" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
@@ -5612,15 +5300,17 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L28" s="1"/>
+        <v>316</v>
+      </c>
+      <c r="L28" s="1">
+        <v>2331</v>
+      </c>
       <c r="M28" s="1" t="s">
         <v>35</v>
       </c>
@@ -5636,48 +5326,73 @@
       <c r="Q28" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
+      <c r="R28" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="S28" s="1" t="s">
+        <v>241</v>
+      </c>
       <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
+      <c r="U28" s="1">
+        <v>2341567878</v>
+      </c>
       <c r="V28" s="1"/>
       <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
+      <c r="X28" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z28" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="AA28" s="27"/>
+      <c r="AB28" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>12</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>2024</v>
+      </c>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
       <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
-      <c r="AI28" s="1">
+      <c r="AH28" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="AI28" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ28" s="1">
         <v>2</v>
       </c>
-      <c r="AJ28" s="1"/>
       <c r="AK28" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL28" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AL28" s="1">
+      <c r="AM28" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
       <c r="AO28" s="1"/>
-      <c r="AP28" s="7">
+      <c r="AP28" s="1"/>
+      <c r="AQ28" s="7">
         <v>12341</v>
       </c>
-      <c r="AQ28" s="7">
+      <c r="AR28" s="7">
         <v>22222</v>
       </c>
-      <c r="AR28" s="11"/>
-      <c r="AS28" s="1"/>
+      <c r="AS28" s="11"/>
       <c r="AT28" s="1"/>
       <c r="AU28" s="1"/>
-    </row>
-    <row r="29" spans="1:47" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV28" s="1"/>
+    </row>
+    <row r="29" spans="1:48" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -5689,20 +5404,22 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L29" s="1"/>
+        <v>316</v>
+      </c>
+      <c r="L29" s="1">
+        <v>2233</v>
+      </c>
       <c r="M29" s="1" t="s">
         <v>35</v>
       </c>
       <c r="N29" s="1">
-        <v>2345</v>
+        <v>2014</v>
       </c>
       <c r="O29" s="2" t="s">
         <v>16</v>
@@ -5713,15 +5430,27 @@
       <c r="Q29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
+      <c r="R29" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="S29" s="1" t="s">
+        <v>249</v>
+      </c>
       <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
+      <c r="U29" s="1">
+        <v>2341567878</v>
+      </c>
       <c r="V29" s="1"/>
       <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
+      <c r="X29" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z29" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
@@ -5729,32 +5458,43 @@
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
       <c r="AG29" s="1"/>
-      <c r="AH29" s="1"/>
-      <c r="AI29" s="1">
+      <c r="AH29" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="AI29" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ29" s="1">
         <v>2</v>
       </c>
-      <c r="AJ29" s="1"/>
       <c r="AK29" s="1">
+        <v>101</v>
+      </c>
+      <c r="AL29" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AL29" s="1">
+      <c r="AM29" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
-      <c r="AO29" s="1"/>
-      <c r="AP29" s="7">
+      <c r="AO29" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="AP29" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AQ29" s="7">
         <v>12341</v>
       </c>
-      <c r="AQ29" s="7">
+      <c r="AR29" s="7">
         <v>22222</v>
       </c>
-      <c r="AR29" s="11"/>
-      <c r="AS29" s="1"/>
+      <c r="AS29" s="11"/>
       <c r="AT29" s="1"/>
       <c r="AU29" s="1"/>
-    </row>
-    <row r="30" spans="1:47" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV29" s="1"/>
+    </row>
+    <row r="30" spans="1:48" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -5766,20 +5506,22 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L30" s="1"/>
+        <v>316</v>
+      </c>
+      <c r="L30" s="1">
+        <v>8778</v>
+      </c>
       <c r="M30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="N30" s="1">
-        <v>2345</v>
+        <v>8891</v>
       </c>
       <c r="O30" s="2" t="s">
         <v>16</v>
@@ -5790,15 +5532,27 @@
       <c r="Q30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
+      <c r="R30" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="S30" s="1" t="s">
+        <v>255</v>
+      </c>
       <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
+      <c r="U30" s="1">
+        <v>2341567878</v>
+      </c>
       <c r="V30" s="1"/>
       <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
+      <c r="X30" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="Y30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
@@ -5806,32 +5560,39 @@
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
       <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
-      <c r="AI30" s="1">
+      <c r="AH30" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="AI30" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ30" s="1">
         <v>2</v>
       </c>
-      <c r="AJ30" s="1"/>
-      <c r="AK30" s="1">
+      <c r="AK30" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="AL30" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AL30" s="1">
+      <c r="AM30" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM30" s="1"/>
       <c r="AN30" s="1"/>
       <c r="AO30" s="1"/>
-      <c r="AP30" s="7">
+      <c r="AP30" s="1"/>
+      <c r="AQ30" s="7">
         <v>12341</v>
       </c>
-      <c r="AQ30" s="7">
+      <c r="AR30" s="7">
         <v>22222</v>
       </c>
-      <c r="AR30" s="11"/>
-      <c r="AS30" s="1"/>
+      <c r="AS30" s="11"/>
       <c r="AT30" s="1"/>
       <c r="AU30" s="1"/>
-    </row>
-    <row r="31" spans="1:47" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV30" s="1"/>
+    </row>
+    <row r="31" spans="1:48" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -5843,15 +5604,17 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L31" s="1"/>
+        <v>316</v>
+      </c>
+      <c r="L31" s="1">
+        <v>9876</v>
+      </c>
       <c r="M31" s="1" t="s">
         <v>35</v>
       </c>
@@ -5867,15 +5630,27 @@
       <c r="Q31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
+      <c r="R31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="S31" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
+      <c r="U31" s="1">
+        <v>2341567878</v>
+      </c>
       <c r="V31" s="1"/>
       <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
+      <c r="X31" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
@@ -5883,32 +5658,39 @@
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
       <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
-      <c r="AI31" s="1">
+      <c r="AH31" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="AI31" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ31" s="1">
         <v>2</v>
       </c>
-      <c r="AJ31" s="1"/>
       <c r="AK31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL31" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AL31" s="1">
+      <c r="AM31" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
       <c r="AO31" s="1"/>
-      <c r="AP31" s="7">
+      <c r="AP31" s="1"/>
+      <c r="AQ31" s="7">
         <v>12341</v>
       </c>
-      <c r="AQ31" s="7">
+      <c r="AR31" s="7">
         <v>22222</v>
       </c>
-      <c r="AR31" s="11"/>
-      <c r="AS31" s="1"/>
+      <c r="AS31" s="11"/>
       <c r="AT31" s="1"/>
       <c r="AU31" s="1"/>
-    </row>
-    <row r="32" spans="1:47" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV31" s="1"/>
+    </row>
+    <row r="32" spans="1:48" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -5920,15 +5702,17 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L32" s="1"/>
+        <v>316</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1212</v>
+      </c>
       <c r="M32" s="1" t="s">
         <v>35</v>
       </c>
@@ -5944,15 +5728,27 @@
       <c r="Q32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
+      <c r="R32" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="S32" s="1" t="s">
+        <v>119</v>
+      </c>
       <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
+      <c r="U32" s="1">
+        <v>2341567878</v>
+      </c>
       <c r="V32" s="1"/>
       <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
+      <c r="X32" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z32" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
@@ -5960,32 +5756,39 @@
       <c r="AE32" s="1"/>
       <c r="AF32" s="1"/>
       <c r="AG32" s="1"/>
-      <c r="AH32" s="1"/>
-      <c r="AI32" s="1">
+      <c r="AH32" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="AI32" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="AJ32" s="1">
         <v>2</v>
       </c>
-      <c r="AJ32" s="1"/>
       <c r="AK32" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL32" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AL32" s="1">
+      <c r="AM32" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM32" s="1"/>
       <c r="AN32" s="1"/>
       <c r="AO32" s="1"/>
-      <c r="AP32" s="7">
+      <c r="AP32" s="1"/>
+      <c r="AQ32" s="7">
         <v>12341</v>
       </c>
-      <c r="AQ32" s="7">
+      <c r="AR32" s="7">
         <v>22222</v>
       </c>
-      <c r="AR32" s="11"/>
-      <c r="AS32" s="1"/>
+      <c r="AS32" s="11"/>
       <c r="AT32" s="1"/>
       <c r="AU32" s="1"/>
-    </row>
-    <row r="33" spans="1:47" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AV32" s="1"/>
+    </row>
+    <row r="33" spans="1:48" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -5997,15 +5800,17 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="L33" s="1"/>
+        <v>316</v>
+      </c>
+      <c r="L33" s="1">
+        <v>2341</v>
+      </c>
       <c r="M33" s="1" t="s">
         <v>35</v>
       </c>
@@ -6021,15 +5826,27 @@
       <c r="Q33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
+      <c r="R33" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="S33" s="1" t="s">
+        <v>267</v>
+      </c>
       <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
+      <c r="U33" s="1">
+        <v>2341567878</v>
+      </c>
       <c r="V33" s="1"/>
       <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
+      <c r="X33" s="10" t="s">
+        <v>268</v>
+      </c>
+      <c r="Y33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z33" s="1" t="s">
+        <v>269</v>
+      </c>
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
@@ -6037,44 +5854,1168 @@
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
       <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
-      <c r="AI33" s="1">
+      <c r="AH33" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="AI33" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="AJ33" s="1">
         <v>2</v>
       </c>
-      <c r="AJ33" s="1"/>
       <c r="AK33" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL33" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AL33" s="1">
+      <c r="AM33" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM33" s="1"/>
       <c r="AN33" s="1"/>
       <c r="AO33" s="1"/>
-      <c r="AP33" s="7">
+      <c r="AP33" s="1"/>
+      <c r="AQ33" s="7">
         <v>12341</v>
       </c>
-      <c r="AQ33" s="7">
+      <c r="AR33" s="7">
         <v>22222</v>
       </c>
-      <c r="AR33" s="11"/>
-      <c r="AS33" s="1"/>
+      <c r="AS33" s="11"/>
       <c r="AT33" s="1"/>
       <c r="AU33" s="1"/>
+      <c r="AV33" s="1"/>
+    </row>
+    <row r="34" spans="1:48" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="L34" s="1">
+        <v>9879</v>
+      </c>
+      <c r="M34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N34" s="1">
+        <v>2345</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1">
+        <v>2341567878</v>
+      </c>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z34" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA34" s="1"/>
+      <c r="AB34" s="1"/>
+      <c r="AC34" s="1"/>
+      <c r="AD34" s="1"/>
+      <c r="AE34" s="1"/>
+      <c r="AF34" s="1"/>
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="AI34" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AJ34" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL34" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AN34" s="1"/>
+      <c r="AO34" s="1"/>
+      <c r="AP34" s="1"/>
+      <c r="AQ34" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AR34" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AS34" s="11"/>
+      <c r="AT34" s="1"/>
+      <c r="AU34" s="1"/>
+      <c r="AV34" s="1"/>
+    </row>
+    <row r="35" spans="1:48" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="L35" s="1">
+        <v>2013</v>
+      </c>
+      <c r="M35" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N35" s="1">
+        <v>2345</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1">
+        <v>2341567878</v>
+      </c>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="Y35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z35" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA35" s="1"/>
+      <c r="AB35" s="1"/>
+      <c r="AC35" s="1"/>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1"/>
+      <c r="AF35" s="1"/>
+      <c r="AG35" s="1"/>
+      <c r="AH35" s="10" t="s">
+        <v>281</v>
+      </c>
+      <c r="AI35" s="10" t="s">
+        <v>280</v>
+      </c>
+      <c r="AJ35" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL35" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AN35" s="1"/>
+      <c r="AO35" s="1"/>
+      <c r="AP35" s="1"/>
+      <c r="AQ35" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AR35" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AS35" s="11"/>
+      <c r="AT35" s="1"/>
+      <c r="AU35" s="1"/>
+      <c r="AV35" s="1"/>
+    </row>
+    <row r="36" spans="1:48" ht="60" x14ac:dyDescent="0.25">
+      <c r="I36" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="L36" s="1">
+        <v>6540</v>
+      </c>
+      <c r="M36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N36" s="1">
+        <v>2345</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q36" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R36" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="S36" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1">
+        <v>2341567878</v>
+      </c>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="Y36" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z36" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="AI36" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ36" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK36" s="1">
+        <v>101</v>
+      </c>
+      <c r="AL36" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AM36" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="AP36" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AQ36" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AR36" s="7">
+        <v>22222</v>
+      </c>
+    </row>
+    <row r="37" spans="1:48" ht="60" x14ac:dyDescent="0.25">
+      <c r="I37" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="L37" s="1">
+        <v>5673</v>
+      </c>
+      <c r="M37" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N37" s="1">
+        <v>2345</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R37" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="S37" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1">
+        <v>2341567878</v>
+      </c>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z37" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="10" t="s">
+        <v>291</v>
+      </c>
+      <c r="AI37" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ37" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK37" s="1">
+        <v>101</v>
+      </c>
+      <c r="AL37" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AM37" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="AP37" s="1"/>
+      <c r="AQ37" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AR37" s="7">
+        <v>22222</v>
+      </c>
+    </row>
+    <row r="38" spans="1:48" ht="60" x14ac:dyDescent="0.25">
+      <c r="I38" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="L38" s="1">
+        <v>2130</v>
+      </c>
+      <c r="M38" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N38" s="1">
+        <v>2345</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P38" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q38" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S38" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1">
+        <v>2341567878</v>
+      </c>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z38" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA38" s="1"/>
+      <c r="AB38" s="1"/>
+      <c r="AC38" s="1"/>
+      <c r="AD38" s="1"/>
+      <c r="AE38" s="1"/>
+      <c r="AF38" s="1"/>
+      <c r="AG38" s="1"/>
+      <c r="AH38" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="AI38" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="AJ38" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK38" s="1">
+        <v>101</v>
+      </c>
+      <c r="AL38" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AM38" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AN38" s="1"/>
+      <c r="AO38" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="AP38" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="AQ38" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AR38" s="7">
+        <v>22222</v>
+      </c>
+    </row>
+    <row r="39" spans="1:48" ht="45" x14ac:dyDescent="0.25">
+      <c r="I39" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="L39" s="1">
+        <v>2112</v>
+      </c>
+      <c r="M39" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N39" s="1">
+        <v>2345</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q39" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R39" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="S39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1">
+        <v>2341567878</v>
+      </c>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="10" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y39" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Z39" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA39" s="1"/>
+      <c r="AB39" s="1"/>
+      <c r="AC39" s="1"/>
+      <c r="AD39" s="1"/>
+      <c r="AE39" s="1"/>
+      <c r="AF39" s="1"/>
+      <c r="AG39" s="1"/>
+      <c r="AH39" s="1"/>
+      <c r="AI39" s="1"/>
+      <c r="AJ39" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK39" s="1"/>
+      <c r="AL39" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AM39" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AN39" s="1"/>
+      <c r="AO39" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="AP39" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AQ39" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AR39" s="7">
+        <v>22222</v>
+      </c>
+    </row>
+    <row r="40" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="I40" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N40" s="1">
+        <v>2345</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q40" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+      <c r="AA40" s="1"/>
+      <c r="AB40" s="1"/>
+      <c r="AC40" s="1"/>
+      <c r="AD40" s="1"/>
+      <c r="AE40" s="1"/>
+      <c r="AF40" s="1"/>
+      <c r="AG40" s="1"/>
+      <c r="AH40" s="1"/>
+      <c r="AI40" s="1"/>
+      <c r="AJ40" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK40" s="1"/>
+      <c r="AL40" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AM40" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AN40" s="1"/>
+      <c r="AO40" s="1"/>
+      <c r="AP40" s="1"/>
+      <c r="AQ40" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AR40" s="7">
+        <v>22222</v>
+      </c>
+    </row>
+    <row r="41" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="I41" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N41" s="1">
+        <v>2345</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+      <c r="AA41" s="1"/>
+      <c r="AB41" s="1"/>
+      <c r="AC41" s="1"/>
+      <c r="AD41" s="1"/>
+      <c r="AE41" s="1"/>
+      <c r="AF41" s="1"/>
+      <c r="AG41" s="1"/>
+      <c r="AH41" s="1"/>
+      <c r="AI41" s="1"/>
+      <c r="AJ41" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK41" s="1"/>
+      <c r="AL41" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AM41" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AN41" s="1"/>
+      <c r="AO41" s="1"/>
+      <c r="AP41" s="1"/>
+      <c r="AQ41" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AR41" s="7">
+        <v>22222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="I42" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N42" s="1">
+        <v>2345</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q42" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+      <c r="AA42" s="1"/>
+      <c r="AB42" s="1"/>
+      <c r="AC42" s="1"/>
+      <c r="AD42" s="1"/>
+      <c r="AE42" s="1"/>
+      <c r="AF42" s="1"/>
+      <c r="AG42" s="1"/>
+      <c r="AH42" s="1"/>
+      <c r="AI42" s="1"/>
+      <c r="AJ42" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK42" s="1"/>
+      <c r="AL42" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AM42" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AN42" s="1"/>
+      <c r="AO42" s="1"/>
+      <c r="AP42" s="1"/>
+      <c r="AQ42" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AR42" s="7">
+        <v>22222</v>
+      </c>
+    </row>
+    <row r="43" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="I43" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N43" s="1">
+        <v>2345</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q43" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+      <c r="AA43" s="1"/>
+      <c r="AB43" s="1"/>
+      <c r="AC43" s="1"/>
+      <c r="AD43" s="1"/>
+      <c r="AE43" s="1"/>
+      <c r="AF43" s="1"/>
+      <c r="AG43" s="1"/>
+      <c r="AH43" s="1"/>
+      <c r="AI43" s="1"/>
+      <c r="AJ43" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK43" s="1"/>
+      <c r="AL43" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AM43" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AN43" s="1"/>
+      <c r="AO43" s="1"/>
+      <c r="AP43" s="1"/>
+      <c r="AQ43" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AR43" s="7">
+        <v>22222</v>
+      </c>
+    </row>
+    <row r="44" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="I44" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N44" s="1">
+        <v>2345</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+      <c r="AA44" s="1"/>
+      <c r="AB44" s="1"/>
+      <c r="AC44" s="1"/>
+      <c r="AD44" s="1"/>
+      <c r="AE44" s="1"/>
+      <c r="AF44" s="1"/>
+      <c r="AG44" s="1"/>
+      <c r="AH44" s="1"/>
+      <c r="AI44" s="1"/>
+      <c r="AJ44" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK44" s="1"/>
+      <c r="AL44" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AM44" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AN44" s="1"/>
+      <c r="AO44" s="1"/>
+      <c r="AP44" s="1"/>
+      <c r="AQ44" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AR44" s="7">
+        <v>22222</v>
+      </c>
+    </row>
+    <row r="45" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="I45" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N45" s="1">
+        <v>2345</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q45" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+      <c r="AA45" s="1"/>
+      <c r="AB45" s="1"/>
+      <c r="AC45" s="1"/>
+      <c r="AD45" s="1"/>
+      <c r="AE45" s="1"/>
+      <c r="AF45" s="1"/>
+      <c r="AG45" s="1"/>
+      <c r="AH45" s="1"/>
+      <c r="AI45" s="1"/>
+      <c r="AJ45" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK45" s="1"/>
+      <c r="AL45" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AM45" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AN45" s="1"/>
+      <c r="AO45" s="1"/>
+      <c r="AP45" s="1"/>
+      <c r="AQ45" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AR45" s="7">
+        <v>22222</v>
+      </c>
+    </row>
+    <row r="46" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="I46" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N46" s="1">
+        <v>2345</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q46" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+      <c r="AA46" s="1"/>
+      <c r="AB46" s="1"/>
+      <c r="AC46" s="1"/>
+      <c r="AD46" s="1"/>
+      <c r="AE46" s="1"/>
+      <c r="AF46" s="1"/>
+      <c r="AG46" s="1"/>
+      <c r="AH46" s="1"/>
+      <c r="AI46" s="1"/>
+      <c r="AJ46" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK46" s="1"/>
+      <c r="AL46" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AM46" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AN46" s="1"/>
+      <c r="AO46" s="1"/>
+      <c r="AP46" s="1"/>
+      <c r="AQ46" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AR46" s="7">
+        <v>22222</v>
+      </c>
+    </row>
+    <row r="47" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="I47" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N47" s="1">
+        <v>2345</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q47" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+      <c r="AA47" s="1"/>
+      <c r="AB47" s="1"/>
+      <c r="AC47" s="1"/>
+      <c r="AD47" s="1"/>
+      <c r="AE47" s="1"/>
+      <c r="AF47" s="1"/>
+      <c r="AG47" s="1"/>
+      <c r="AH47" s="1"/>
+      <c r="AI47" s="1"/>
+      <c r="AJ47" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK47" s="1"/>
+      <c r="AL47" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AM47" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AN47" s="1"/>
+      <c r="AO47" s="1"/>
+      <c r="AP47" s="1"/>
+      <c r="AQ47" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AR47" s="7">
+        <v>22222</v>
+      </c>
+    </row>
+    <row r="48" spans="1:48" x14ac:dyDescent="0.25">
+      <c r="I48" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="K48" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N48" s="1">
+        <v>2345</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="P48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q48" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+      <c r="AA48" s="1"/>
+      <c r="AB48" s="1"/>
+      <c r="AC48" s="1"/>
+      <c r="AD48" s="1"/>
+      <c r="AE48" s="1"/>
+      <c r="AF48" s="1"/>
+      <c r="AG48" s="1"/>
+      <c r="AH48" s="1"/>
+      <c r="AI48" s="1"/>
+      <c r="AJ48" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK48" s="1"/>
+      <c r="AL48" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AM48" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AN48" s="1"/>
+      <c r="AO48" s="1"/>
+      <c r="AP48" s="1"/>
+      <c r="AQ48" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AR48" s="7">
+        <v>22222</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="O4" r:id="rId1"/>
-    <hyperlink ref="O8" r:id="rId2"/>
-    <hyperlink ref="J3" r:id="rId3" display="Biswanath@54321"/>
-    <hyperlink ref="O3" r:id="rId4"/>
-    <hyperlink ref="O12" r:id="rId5"/>
-    <hyperlink ref="O2" r:id="rId6"/>
+    <hyperlink ref="O6" r:id="rId1"/>
+    <hyperlink ref="O23" r:id="rId2"/>
+    <hyperlink ref="O5" r:id="rId3"/>
+    <hyperlink ref="O27" r:id="rId4"/>
+    <hyperlink ref="O2" r:id="rId5"/>
+    <hyperlink ref="O4" r:id="rId6"/>
+    <hyperlink ref="O3" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
   <tableParts count="1">
-    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
@@ -6504,510 +7445,510 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="39.125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="127.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="127.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="140.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="204" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B36" s="19"/>
     </row>
     <row r="37" spans="1:2" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="242.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="178.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="280.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="127.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="242.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="204" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="216.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="165.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/testdata/TestData_siebel.xlsx
+++ b/testdata/TestData_siebel.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xerox\AutomationTestSuite\testdata\"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="402">
   <si>
     <t>UserId</t>
   </si>
@@ -1040,26 +1040,6 @@
     <t>6011308744444440</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Create Commercial account  ISPPOST with walk-in mode 
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>[34407 zipcode not giving City so changed zip code]</t>
-    </r>
-  </si>
-  <si>
-    <t>Creating private prepaid Account with Add non-standardized address in mailing
- address. [Check no pop up coming]</t>
-  </si>
-  <si>
     <t>MAILING:9369 TRIESTE DRIVE::33913:FORT MYERS:FL:USA;
 BILLING:9369 TRIESTE DRIVE::33913:FORT MYERS:FL:USA</t>
   </si>
@@ -1194,6 +1174,171 @@
   </si>
   <si>
     <t>Account created</t>
+  </si>
+  <si>
+    <t>370000888888882</t>
+  </si>
+  <si>
+    <t>kamani</t>
+  </si>
+  <si>
+    <t>venkatak</t>
+  </si>
+  <si>
+    <t>MAIL MONTHLY</t>
+  </si>
+  <si>
+    <t>Create Commercial account  ISPPOST with walk-in mode</t>
+  </si>
+  <si>
+    <t>sumitb</t>
+  </si>
+  <si>
+    <t>burnwal</t>
+  </si>
+  <si>
+    <t>FL CCSS</t>
+  </si>
+  <si>
+    <t>Creating private prepaid Account with Add non-standardized address in mailing
+ address.</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>Smoke/MainFlow/Regression</t>
+  </si>
+  <si>
+    <t>ACEO_068</t>
+  </si>
+  <si>
+    <t>create Anonymous private account with SATANDARD plan and 
+with walk-in mode</t>
+  </si>
+  <si>
+    <t>stefen</t>
+  </si>
+  <si>
+    <t>fleming</t>
+  </si>
+  <si>
+    <t>MAILING:135 HAMILTON TER::33414:WEST PALM BEACH :FL:USA</t>
+  </si>
+  <si>
+    <t>wer9999:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SunPass Portable:1
+</t>
+  </si>
+  <si>
+    <t>ACEO_153</t>
+  </si>
+  <si>
+    <t>STANDARD,
+PBR</t>
+  </si>
+  <si>
+    <t>EAMIL MONTHLY</t>
+  </si>
+  <si>
+    <t>water</t>
+  </si>
+  <si>
+    <t>hill</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAILING:2007 SHOMA DR::33414:WEST PALM BEACH:FL:USA
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wbc111:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,
+SunPass Mini :3
+</t>
+  </si>
+  <si>
+    <t>ACEO_137</t>
+  </si>
+  <si>
+    <t>Prepaid Private account creation when Credit Card information associated to another account; Cancel the warning; enter new  credit card info.
+Private account creation with walk-in mode</t>
+  </si>
+  <si>
+    <t>emir</t>
+  </si>
+  <si>
+    <t>sharaphunu</t>
+  </si>
+  <si>
+    <t>Prepaid Private account creation; only Pinellas Bayway Residents Annual Plan; Discount plan request for Sticker; Discount plan count less than 5.
+Private account creation with PBR along with walk-in mode</t>
+  </si>
+  <si>
+    <t>ACEO_155</t>
+  </si>
+  <si>
+    <t>Prepaid Private account creation; only Pinellas Bayway Residents Annual Plan; Device Request for Sticker; Discount plan count greater than 5.
+Private account creation with PBR along with walk-in mode</t>
+  </si>
+  <si>
+    <t>nicholas</t>
+  </si>
+  <si>
+    <t>carter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,
+SunPass Mini :10
+</t>
+  </si>
+  <si>
+    <t>ACEO_165</t>
+  </si>
+  <si>
+    <t>Prepaid Private account creation; only Pinellas Bayway Residents Annual Plan; Device Request for Sticker; Discount plan count greater than 5.
+Private account creation with PBC along with walk-in mode</t>
+  </si>
+  <si>
+    <t>STANDARD,
+PBC</t>
+  </si>
+  <si>
+    <t>victor</t>
+  </si>
+  <si>
+    <t>perez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAILING:202 KENSINGTON WAY::33414:ROYAL PALM BEACH:FL:USA
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">,
+SunPass Mini :1
+</t>
+  </si>
+  <si>
+    <t>Account created successfully; Start date of Discount plan is June of current year; Discount plan end date is June of next year.</t>
+  </si>
+  <si>
+    <t>ACEO_086</t>
+  </si>
+  <si>
+    <t>ACEO_093</t>
+  </si>
+  <si>
+    <t>Prepaid Fleet account creation in walk-in mode with BVIDEOREG plan.</t>
+  </si>
+  <si>
+    <t>Postpaid ISP account creation in fax-in mode with ISPPOST plan.</t>
   </si>
 </sst>
 </file>
@@ -1203,7 +1348,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1243,13 +1388,6 @@
       <color indexed="9"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1336,7 +1474,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="26">
+  <fills count="24">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1382,18 +1520,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
@@ -1472,7 +1598,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1595,6 +1721,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1671,30 +1810,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1708,8 +1832,27 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2420,7 +2563,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2455,7 +2598,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2640,10 +2783,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR51"/>
+  <dimension ref="A1:AR45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
-      <selection activeCell="AO3" sqref="AO3"/>
+    <sheetView tabSelected="1" topLeftCell="AA30" workbookViewId="0">
+      <selection activeCell="AE32" sqref="AE32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2651,8 +2794,7 @@
     <col min="1" max="1" width="16.125" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="45.125" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="13.75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="16.75" customWidth="1"/>
-    <col min="5" max="5" width="16.75" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="16.75" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="9.625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="11.25" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="18.375" bestFit="1" customWidth="1" collapsed="1"/>
@@ -2666,7 +2808,8 @@
     <col min="19" max="19" width="30" customWidth="1" collapsed="1"/>
     <col min="20" max="20" width="12.75" collapsed="1"/>
     <col min="21" max="21" width="26.625" customWidth="1" collapsed="1"/>
-    <col min="22" max="24" width="12.75" collapsed="1"/>
+    <col min="22" max="23" width="12.75" collapsed="1"/>
+    <col min="24" max="24" width="13.375" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="26" max="26" width="99" customWidth="1" collapsed="1"/>
     <col min="27" max="28" width="12.75" collapsed="1"/>
     <col min="30" max="30" width="23.625" customWidth="1" collapsed="1"/>
@@ -2693,7 +2836,7 @@
         <v>35</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>36</v>
@@ -2720,7 +2863,7 @@
         <v>2</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="N1" s="3" t="s">
         <v>6</v>
@@ -2756,7 +2899,7 @@
         <v>10</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="Z1" s="1" t="s">
         <v>11</v>
@@ -2768,7 +2911,7 @@
         <v>12</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AD1" s="1" t="s">
         <v>295</v>
@@ -2809,25 +2952,25 @@
       <c r="AP1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AQ1" s="51" t="s">
+      <c r="AQ1" s="40" t="s">
         <v>301</v>
       </c>
       <c r="AR1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2" spans="1:44" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>39</v>
@@ -2852,22 +2995,22 @@
         <v>1212</v>
       </c>
       <c r="M2" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="P2" s="1" t="s">
-        <v>59</v>
+        <v>355</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>60</v>
+        <v>354</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>33</v>
+        <v>360</v>
       </c>
       <c r="S2" s="1" t="s">
         <v>34</v>
@@ -2876,38 +3019,38 @@
         <v>2345</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="X2" s="1">
         <v>8907451234</v>
       </c>
       <c r="Y2" s="1"/>
       <c r="Z2" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AC2" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AD2" s="21" t="s">
-        <v>298</v>
+        <v>353</v>
       </c>
       <c r="AE2" s="1">
         <v>12</v>
       </c>
       <c r="AF2" s="1">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="AG2" s="10" t="s">
         <v>72</v>
@@ -2928,32 +3071,32 @@
         <v>122235821</v>
       </c>
       <c r="AM2" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AN2" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AO2" s="1">
         <v>12341</v>
       </c>
       <c r="AP2" s="7"/>
-      <c r="AQ2" s="51"/>
+      <c r="AQ2" s="40"/>
       <c r="AR2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:44" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>39</v>
@@ -2976,26 +3119,26 @@
       <c r="K3" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="L3" s="47">
+      <c r="L3" s="36">
         <v>5673</v>
       </c>
-      <c r="M3" s="47" t="s">
-        <v>329</v>
+      <c r="M3" s="36" t="s">
+        <v>327</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="O3" s="47" t="s">
+        <v>325</v>
+      </c>
+      <c r="O3" s="36" t="s">
         <v>18</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>59</v>
+        <v>355</v>
       </c>
       <c r="Q3" s="1" t="s">
-        <v>60</v>
+        <v>354</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>33</v>
+        <v>360</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>34</v>
@@ -3004,13 +3147,13 @@
         <v>2345</v>
       </c>
       <c r="U3" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="V3" s="1" t="s">
         <v>100</v>
       </c>
       <c r="W3" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="X3" s="1">
         <v>1232453444</v>
@@ -3019,13 +3162,13 @@
         <v>3452341234</v>
       </c>
       <c r="Z3" s="10" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="AA3" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AB3" s="10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AC3" s="1"/>
       <c r="AD3" s="21" t="s">
@@ -3056,32 +3199,32 @@
         <v>122235821</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="AO3" s="1">
         <v>12341</v>
       </c>
       <c r="AP3" s="7"/>
-      <c r="AQ3" s="51"/>
+      <c r="AQ3" s="40"/>
       <c r="AR3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4" spans="1:44" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>39</v>
@@ -3108,22 +3251,22 @@
         <v>2130</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>59</v>
+        <v>355</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>60</v>
+        <v>354</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>33</v>
+        <v>360</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>34</v>
@@ -3132,20 +3275,20 @@
         <v>2345</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="V4" s="19" t="s">
         <v>73</v>
       </c>
       <c r="W4" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="X4" s="49">
+        <v>340</v>
+      </c>
+      <c r="X4" s="38">
         <v>3421562345</v>
       </c>
       <c r="Y4" s="1"/>
       <c r="Z4" s="10" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="AA4" s="1" t="s">
         <v>19</v>
@@ -3167,7 +3310,7 @@
         <v>72</v>
       </c>
       <c r="AH4" s="10" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AI4" s="1">
         <v>2</v>
@@ -3181,19 +3324,19 @@
       <c r="AL4" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM4" s="50" t="s">
+      <c r="AM4" s="39" t="s">
         <v>91</v>
       </c>
-      <c r="AN4" s="50" t="s">
-        <v>351</v>
+      <c r="AN4" s="39" t="s">
+        <v>349</v>
       </c>
       <c r="AO4" s="1">
         <v>12341</v>
       </c>
       <c r="AP4" s="7"/>
-      <c r="AQ4" s="51"/>
+      <c r="AQ4" s="40"/>
       <c r="AR4" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5" spans="1:44" ht="60" x14ac:dyDescent="0.25">
@@ -3201,13 +3344,13 @@
         <v>93</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>39</v>
@@ -3230,10 +3373,10 @@
         <v>1122</v>
       </c>
       <c r="M5" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O5" s="1" t="s">
         <v>18</v>
@@ -3245,7 +3388,7 @@
         <v>60</v>
       </c>
       <c r="R5" s="1" t="s">
-        <v>33</v>
+        <v>360</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>34</v>
@@ -3267,7 +3410,7 @@
       </c>
       <c r="Y5" s="1"/>
       <c r="Z5" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AA5" s="1" t="s">
         <v>19</v>
@@ -3276,7 +3419,7 @@
         <v>64</v>
       </c>
       <c r="AC5" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="AD5" s="1"/>
       <c r="AE5" s="1"/>
@@ -3285,7 +3428,7 @@
         <v>72</v>
       </c>
       <c r="AH5" s="10" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AI5" s="1">
         <v>2</v>
@@ -3311,11 +3454,11 @@
       <c r="AP5" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ5" s="52">
+      <c r="AQ5" s="41">
         <v>326120218</v>
       </c>
       <c r="AR5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6" spans="1:44" ht="60" x14ac:dyDescent="0.25">
@@ -3329,7 +3472,7 @@
         <v>61</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>326</v>
+        <v>364</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>39</v>
@@ -3356,10 +3499,10 @@
         <v>7860</v>
       </c>
       <c r="M6" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O6" s="1" t="s">
         <v>18</v>
@@ -3371,7 +3514,7 @@
         <v>60</v>
       </c>
       <c r="R6" s="1" t="s">
-        <v>33</v>
+        <v>360</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>34</v>
@@ -3395,7 +3538,7 @@
         <v>3452341234</v>
       </c>
       <c r="Z6" s="10" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AA6" s="1" t="s">
         <v>19</v>
@@ -3443,7 +3586,7 @@
       <c r="AP6" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ6" s="53"/>
+      <c r="AQ6" s="42"/>
     </row>
     <row r="7" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
@@ -3455,9 +3598,7 @@
       <c r="C7" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>325</v>
-      </c>
+      <c r="D7" s="1"/>
       <c r="E7" s="4" t="s">
         <v>39</v>
       </c>
@@ -3473,7 +3614,7 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
@@ -3484,7 +3625,7 @@
         <v>60</v>
       </c>
       <c r="R7" s="1" t="s">
-        <v>33</v>
+        <v>360</v>
       </c>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -3522,9 +3663,7 @@
       <c r="C8" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="1" t="s">
-        <v>325</v>
-      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="4" t="s">
         <v>39</v>
       </c>
@@ -3545,7 +3684,7 @@
       </c>
       <c r="M8" s="1"/>
       <c r="N8" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>18</v>
@@ -3557,7 +3696,7 @@
         <v>60</v>
       </c>
       <c r="R8" s="1" t="s">
-        <v>33</v>
+        <v>360</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>34</v>
@@ -3579,7 +3718,7 @@
       </c>
       <c r="Y8" s="1"/>
       <c r="Z8" s="20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AA8" s="1" t="s">
         <v>19</v>
@@ -3621,7 +3760,7 @@
       <c r="AP8" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ8" s="33">
+      <c r="AQ8" s="27">
         <v>326120242</v>
       </c>
     </row>
@@ -3630,7 +3769,7 @@
         <v>98</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>314</v>
+        <v>357</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>61</v>
@@ -3656,7 +3795,7 @@
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="O9" s="1" t="s">
         <v>18</v>
@@ -3668,7 +3807,7 @@
         <v>60</v>
       </c>
       <c r="R9" s="1" t="s">
-        <v>33</v>
+        <v>360</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>34</v>
@@ -3690,7 +3829,7 @@
       </c>
       <c r="Y9" s="1"/>
       <c r="Z9" s="20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AA9" s="1" t="s">
         <v>19</v>
@@ -3732,7 +3871,7 @@
       <c r="AP9" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ9" s="34">
+      <c r="AQ9" s="28">
         <v>326120250</v>
       </c>
     </row>
@@ -3781,7 +3920,7 @@
         <v>60</v>
       </c>
       <c r="R10" s="1" t="s">
-        <v>33</v>
+        <v>360</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>34</v>
@@ -3803,7 +3942,7 @@
       </c>
       <c r="Y10" s="1"/>
       <c r="Z10" s="10" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="AA10" s="1" t="s">
         <v>19</v>
@@ -3845,7 +3984,7 @@
       <c r="AP10" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ10" s="35">
+      <c r="AQ10" s="29">
         <v>326120276</v>
       </c>
     </row>
@@ -3892,7 +4031,7 @@
         <v>60</v>
       </c>
       <c r="R11" s="1" t="s">
-        <v>33</v>
+        <v>360</v>
       </c>
       <c r="S11" s="1" t="s">
         <v>34</v>
@@ -3914,7 +4053,7 @@
       </c>
       <c r="Y11" s="1"/>
       <c r="Z11" s="10" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AA11" s="1" t="s">
         <v>19</v>
@@ -3956,7 +4095,7 @@
       <c r="AP11" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ11" s="36">
+      <c r="AQ11" s="30">
         <v>326120292</v>
       </c>
     </row>
@@ -4003,7 +4142,7 @@
         <v>60</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>33</v>
+        <v>360</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>34</v>
@@ -4025,7 +4164,7 @@
       </c>
       <c r="Y12" s="1"/>
       <c r="Z12" s="10" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AA12" s="1" t="s">
         <v>19</v>
@@ -4067,7 +4206,7 @@
       <c r="AP12" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ12" s="37">
+      <c r="AQ12" s="31">
         <v>326120309</v>
       </c>
     </row>
@@ -4079,7 +4218,7 @@
         <v>220</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>308</v>
+        <v>61</v>
       </c>
       <c r="D13" s="4"/>
       <c r="E13" s="4" t="s">
@@ -4114,7 +4253,7 @@
         <v>60</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>33</v>
+        <v>360</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>34</v>
@@ -4174,7 +4313,7 @@
       <c r="AP13" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ13" s="38">
+      <c r="AQ13" s="32">
         <v>326120317</v>
       </c>
     </row>
@@ -4209,19 +4348,19 @@
       </c>
       <c r="M14" s="1"/>
       <c r="N14" s="1" t="s">
-        <v>17</v>
+        <v>325</v>
       </c>
       <c r="O14" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P14" s="1" t="s">
-        <v>59</v>
+        <v>358</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>60</v>
+        <v>359</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>33</v>
+        <v>360</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>34</v>
@@ -4243,7 +4382,7 @@
       </c>
       <c r="Y14" s="1"/>
       <c r="Z14" s="10" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AA14" s="1" t="s">
         <v>19</v>
@@ -4291,7 +4430,7 @@
       <c r="AP14" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ14" s="39">
+      <c r="AQ14" s="33">
         <v>326120325</v>
       </c>
     </row>
@@ -4326,19 +4465,19 @@
       </c>
       <c r="M15" s="1"/>
       <c r="N15" s="1" t="s">
-        <v>17</v>
+        <v>325</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P15" s="1" t="s">
-        <v>59</v>
+        <v>358</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>60</v>
+        <v>359</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>33</v>
+        <v>360</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>34</v>
@@ -4368,7 +4507,7 @@
       <c r="AB15" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="AC15" s="48"/>
+      <c r="AC15" s="37"/>
       <c r="AD15" s="23" t="s">
         <v>299</v>
       </c>
@@ -4404,7 +4543,7 @@
       <c r="AP15" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ15" s="40">
+      <c r="AQ15" s="34">
         <v>326120333</v>
       </c>
     </row>
@@ -4439,19 +4578,19 @@
       </c>
       <c r="M16" s="1"/>
       <c r="N16" s="1" t="s">
-        <v>17</v>
+        <v>325</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P16" s="1" t="s">
-        <v>59</v>
+        <v>358</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>60</v>
+        <v>359</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>33</v>
+        <v>360</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>34</v>
@@ -4473,7 +4612,7 @@
       </c>
       <c r="Y16" s="1"/>
       <c r="Z16" s="20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AA16" s="1" t="s">
         <v>19</v>
@@ -4515,15 +4654,15 @@
       <c r="AP16" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ16" s="41">
+      <c r="AQ16" s="35">
         <v>326120383</v>
       </c>
     </row>
-    <row r="17" spans="1:43" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:44" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>248</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="20" t="s">
         <v>311</v>
       </c>
       <c r="C17" s="4" t="s">
@@ -4550,19 +4689,19 @@
       </c>
       <c r="M17" s="1"/>
       <c r="N17" s="1" t="s">
-        <v>17</v>
+        <v>325</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P17" s="1" t="s">
-        <v>59</v>
+        <v>358</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>60</v>
+        <v>359</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>33</v>
+        <v>360</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>34</v>
@@ -4624,7 +4763,7 @@
       </c>
       <c r="AQ17" s="11"/>
     </row>
-    <row r="18" spans="1:43" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:44" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>113</v>
       </c>
@@ -4634,7 +4773,9 @@
       <c r="C18" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D18" s="4"/>
+      <c r="D18" s="4" t="s">
+        <v>363</v>
+      </c>
       <c r="E18" s="4" t="s">
         <v>39</v>
       </c>
@@ -4655,19 +4796,19 @@
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="1" t="s">
-        <v>17</v>
+        <v>325</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P18" s="1" t="s">
-        <v>59</v>
+        <v>358</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>60</v>
+        <v>359</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>33</v>
+        <v>360</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>34</v>
@@ -4727,11 +4868,11 @@
       <c r="AP18" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ18" s="42">
-        <v>326120440</v>
-      </c>
-    </row>
-    <row r="19" spans="1:43" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ18" s="43">
+        <v>326126042</v>
+      </c>
+    </row>
+    <row r="19" spans="1:44" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
         <v>116</v>
       </c>
@@ -4762,19 +4903,19 @@
       </c>
       <c r="M19" s="1"/>
       <c r="N19" s="1" t="s">
-        <v>17</v>
+        <v>325</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P19" s="1" t="s">
-        <v>59</v>
+        <v>358</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>60</v>
+        <v>359</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>33</v>
+        <v>360</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>34</v>
@@ -4834,11 +4975,11 @@
       <c r="AP19" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ19" s="43">
-        <v>326120458</v>
-      </c>
-    </row>
-    <row r="20" spans="1:43" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ19" s="44">
+        <v>326126050</v>
+      </c>
+    </row>
+    <row r="20" spans="1:44" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
         <v>267</v>
       </c>
@@ -4869,19 +5010,19 @@
       </c>
       <c r="M20" s="1"/>
       <c r="N20" s="1" t="s">
-        <v>17</v>
+        <v>356</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P20" s="1" t="s">
-        <v>59</v>
+        <v>358</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>60</v>
+        <v>359</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>33</v>
+        <v>360</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>34</v>
@@ -4941,11 +5082,11 @@
       <c r="AP20" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ20" s="44">
-        <v>326120466</v>
-      </c>
-    </row>
-    <row r="21" spans="1:43" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ20" s="45">
+        <v>326126068</v>
+      </c>
+    </row>
+    <row r="21" spans="1:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
         <v>268</v>
       </c>
@@ -4955,7 +5096,9 @@
       <c r="C21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="4"/>
+      <c r="D21" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="E21" s="4" t="s">
         <v>39</v>
       </c>
@@ -4976,19 +5119,19 @@
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
-        <v>17</v>
+        <v>325</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P21" s="1" t="s">
-        <v>59</v>
+        <v>358</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>60</v>
+        <v>359</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>33</v>
+        <v>360</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>34</v>
@@ -5048,16 +5191,16 @@
       <c r="AP21" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ21" s="45">
-        <v>326120474</v>
-      </c>
-    </row>
-    <row r="22" spans="1:43" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ21" s="46">
+        <v>326126076</v>
+      </c>
+    </row>
+    <row r="22" spans="1:44" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>315</v>
+      <c r="B22" s="20" t="s">
+        <v>361</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>61</v>
@@ -5083,19 +5226,19 @@
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="1" t="s">
-        <v>17</v>
+        <v>325</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P22" s="1" t="s">
-        <v>59</v>
+        <v>358</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>60</v>
+        <v>359</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>33</v>
+        <v>360</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>34</v>
@@ -5155,11 +5298,11 @@
       <c r="AP22" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ22" s="46">
-        <v>326120507</v>
-      </c>
-    </row>
-    <row r="23" spans="1:43" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ22" s="47">
+        <v>326126109</v>
+      </c>
+    </row>
+    <row r="23" spans="1:44" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>275</v>
       </c>
@@ -5169,7 +5312,9 @@
       <c r="C23" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="4"/>
+      <c r="D23" s="4" t="s">
+        <v>363</v>
+      </c>
       <c r="E23" s="4" t="s">
         <v>39</v>
       </c>
@@ -5190,19 +5335,19 @@
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="1" t="s">
-        <v>17</v>
+        <v>325</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P23" s="1" t="s">
-        <v>59</v>
+        <v>358</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>60</v>
+        <v>359</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>33</v>
+        <v>360</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>34</v>
@@ -5224,13 +5369,13 @@
       </c>
       <c r="Y23" s="1"/>
       <c r="Z23" s="20" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="AA23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AB23" s="1" t="s">
-        <v>62</v>
+        <v>264</v>
       </c>
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
@@ -5268,7 +5413,7 @@
       </c>
       <c r="AQ23" s="11"/>
     </row>
-    <row r="24" spans="1:43" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:44" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>281</v>
       </c>
@@ -5278,7 +5423,9 @@
       <c r="C24" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D24" s="4"/>
+      <c r="D24" s="4" t="s">
+        <v>362</v>
+      </c>
       <c r="E24" s="4" t="s">
         <v>39</v>
       </c>
@@ -5301,19 +5448,19 @@
         <v>80</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>17</v>
+        <v>325</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P24" s="1" t="s">
-        <v>59</v>
+        <v>358</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>60</v>
+        <v>359</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>33</v>
+        <v>360</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>34</v>
@@ -5335,7 +5482,7 @@
       </c>
       <c r="Y24" s="1"/>
       <c r="Z24" s="20" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AA24" s="1" t="s">
         <v>19</v>
@@ -5385,7 +5532,7 @@
       </c>
       <c r="AQ24" s="11"/>
     </row>
-    <row r="25" spans="1:43" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:44" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>96</v>
       </c>
@@ -5418,19 +5565,19 @@
         <v>84</v>
       </c>
       <c r="N25" s="1" t="s">
-        <v>17</v>
+        <v>325</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P25" s="1" t="s">
-        <v>59</v>
+        <v>358</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>60</v>
+        <v>359</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>33</v>
+        <v>360</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>34</v>
@@ -5452,7 +5599,7 @@
       </c>
       <c r="Y25" s="1"/>
       <c r="Z25" s="20" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AA25" s="1" t="s">
         <v>19</v>
@@ -5496,7 +5643,7 @@
       </c>
       <c r="AQ25" s="11"/>
     </row>
-    <row r="26" spans="1:43" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:44" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
         <v>291</v>
       </c>
@@ -5529,19 +5676,19 @@
         <v>89</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>17</v>
+        <v>356</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P26" s="1" t="s">
-        <v>59</v>
+        <v>358</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>60</v>
+        <v>359</v>
       </c>
       <c r="R26" s="1" t="s">
-        <v>33</v>
+        <v>360</v>
       </c>
       <c r="S26" s="1" t="s">
         <v>34</v>
@@ -5563,13 +5710,13 @@
       </c>
       <c r="Y26" s="1"/>
       <c r="Z26" s="10" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="AA26" s="1" t="s">
         <v>19</v>
       </c>
       <c r="AB26" s="1" t="s">
-        <v>62</v>
+        <v>264</v>
       </c>
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
@@ -5607,101 +5754,164 @@
       </c>
       <c r="AQ26" s="11"/>
     </row>
-    <row r="27" spans="1:43" s="32" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27" t="s">
+    <row r="27" spans="1:44" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>366</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E27" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="28"/>
-      <c r="J27" s="28"/>
-      <c r="K27" s="28"/>
-      <c r="L27" s="28"/>
+      <c r="F27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L27" s="1">
+        <v>2323</v>
+      </c>
       <c r="M27" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="N27" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O27" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="N27" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="O27" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P27" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q27" s="28" t="s">
-        <v>60</v>
-      </c>
-      <c r="R27" s="28" t="s">
+      <c r="P27" s="48" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q27" s="48" t="s">
+        <v>359</v>
+      </c>
+      <c r="R27" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="S27" s="28" t="s">
+      <c r="S27" s="48" t="s">
         <v>34</v>
       </c>
-      <c r="T27" s="28">
-        <v>2345</v>
-      </c>
-      <c r="U27" s="29" t="s">
+      <c r="T27" s="48">
+        <v>1122</v>
+      </c>
+      <c r="U27" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="V27" s="28"/>
-      <c r="W27" s="28"/>
-      <c r="X27" s="28"/>
-      <c r="Y27" s="28"/>
-      <c r="Z27" s="28"/>
-      <c r="AA27" s="28"/>
-      <c r="AB27" s="28"/>
-      <c r="AC27" s="28"/>
-      <c r="AD27" s="28"/>
-      <c r="AE27" s="28"/>
-      <c r="AF27" s="28"/>
-      <c r="AG27" s="28"/>
-      <c r="AH27" s="28"/>
-      <c r="AI27" s="28">
+      <c r="V27" s="48" t="s">
+        <v>367</v>
+      </c>
+      <c r="W27" s="48" t="s">
+        <v>368</v>
+      </c>
+      <c r="X27" s="1">
+        <v>3452452345</v>
+      </c>
+      <c r="Y27" s="48"/>
+      <c r="Z27" s="50" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA27" s="48" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB27" s="48" t="s">
+        <v>233</v>
+      </c>
+      <c r="AC27" s="48"/>
+      <c r="AD27" s="21" t="s">
+        <v>298</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>12</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AG27" s="50" t="s">
+        <v>370</v>
+      </c>
+      <c r="AH27" s="51" t="s">
+        <v>371</v>
+      </c>
+      <c r="AI27" s="48">
         <v>2</v>
       </c>
-      <c r="AJ27" s="28"/>
-      <c r="AK27" s="28">
-        <v>1234567890</v>
-      </c>
-      <c r="AL27" s="28">
+      <c r="AJ27" s="48">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>3453453451</v>
+      </c>
+      <c r="AL27" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM27" s="28"/>
-      <c r="AN27" s="28"/>
-      <c r="AO27" s="30">
+      <c r="AM27" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AN27" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AO27" s="7">
         <v>12341</v>
       </c>
-      <c r="AP27" s="30">
-        <v>22222</v>
-      </c>
-      <c r="AQ27" s="31"/>
-    </row>
-    <row r="28" spans="1:43" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
+      <c r="AP27" s="52"/>
+      <c r="AQ27" s="53"/>
+      <c r="AR27" s="1"/>
+    </row>
+    <row r="28" spans="1:44" ht="60" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>381</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="E28" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
+      <c r="F28" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="K28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L28" s="1">
+        <v>2112</v>
+      </c>
       <c r="M28" s="1" t="s">
-        <v>108</v>
+        <v>327</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>17</v>
+        <v>374</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>18</v>
@@ -5724,59 +5934,102 @@
       <c r="U28" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
+      <c r="V28" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="W28" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="X28" s="1">
+        <v>2341567878</v>
+      </c>
       <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
+      <c r="Z28" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="AA28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB28" s="1" t="s">
+        <v>224</v>
+      </c>
       <c r="AC28" s="1"/>
-      <c r="AD28" s="1"/>
+      <c r="AD28" s="23" t="s">
+        <v>299</v>
+      </c>
       <c r="AE28" s="1"/>
       <c r="AF28" s="1"/>
-      <c r="AG28" s="1"/>
-      <c r="AH28" s="1"/>
+      <c r="AG28" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="AH28" s="10" t="s">
+        <v>239</v>
+      </c>
       <c r="AI28" s="1">
         <v>2</v>
       </c>
-      <c r="AJ28" s="1"/>
+      <c r="AJ28" s="1">
+        <v>1</v>
+      </c>
       <c r="AK28" s="1">
         <v>1234567890</v>
       </c>
       <c r="AL28" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM28" s="1"/>
-      <c r="AN28" s="1"/>
+      <c r="AM28" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AN28" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="AO28" s="7">
         <v>12341</v>
       </c>
       <c r="AP28" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ28" s="11"/>
-    </row>
-    <row r="29" spans="1:43" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
+      <c r="AQ28" s="42"/>
+      <c r="AR28" s="1"/>
+    </row>
+    <row r="29" spans="1:44" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>384</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="E29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
+      <c r="F29" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="K29" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="L29" s="1">
+        <v>2112</v>
+      </c>
       <c r="M29" s="1" t="s">
-        <v>222</v>
+        <v>327</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>17</v>
+        <v>374</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>18</v>
@@ -5799,59 +6052,96 @@
       <c r="U29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
+      <c r="V29" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="X29" s="1">
+        <v>2341567878</v>
+      </c>
       <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
+      <c r="Z29" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="AA29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="1"/>
       <c r="AF29" s="1"/>
-      <c r="AG29" s="1"/>
-      <c r="AH29" s="1"/>
+      <c r="AG29" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="AH29" s="10" t="s">
+        <v>379</v>
+      </c>
       <c r="AI29" s="1">
         <v>2</v>
       </c>
-      <c r="AJ29" s="1"/>
-      <c r="AK29" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AL29" s="1">
-        <v>122235821</v>
-      </c>
-      <c r="AM29" s="1"/>
-      <c r="AN29" s="1"/>
+      <c r="AJ29" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK29" s="1"/>
+      <c r="AL29" s="1"/>
+      <c r="AM29" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AN29" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="AO29" s="7">
         <v>12341</v>
       </c>
       <c r="AP29" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ29" s="11"/>
-    </row>
-    <row r="30" spans="1:43" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
+      <c r="AQ29" s="42"/>
+      <c r="AR29" s="1"/>
+    </row>
+    <row r="30" spans="1:44" ht="75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>386</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="E30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
+      <c r="F30" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="K30" s="10" t="s">
+        <v>373</v>
+      </c>
+      <c r="L30" s="1">
+        <v>2112</v>
+      </c>
       <c r="M30" s="1" t="s">
-        <v>229</v>
+        <v>327</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>17</v>
+        <v>374</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>18</v>
@@ -5874,71 +6164,108 @@
       <c r="U30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
+      <c r="V30" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="W30" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="X30" s="1">
+        <v>2341567878</v>
+      </c>
       <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
+      <c r="Z30" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="AA30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB30" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
-      <c r="AG30" s="1"/>
-      <c r="AH30" s="1"/>
+      <c r="AG30" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="AH30" s="10" t="s">
+        <v>389</v>
+      </c>
       <c r="AI30" s="1">
         <v>2</v>
       </c>
-      <c r="AJ30" s="1"/>
-      <c r="AK30" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AL30" s="1">
-        <v>122235821</v>
-      </c>
-      <c r="AM30" s="1"/>
-      <c r="AN30" s="1"/>
+      <c r="AJ30" s="1">
+        <v>10</v>
+      </c>
+      <c r="AK30" s="1"/>
+      <c r="AL30" s="1"/>
+      <c r="AM30" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AN30" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="AO30" s="7">
         <v>12341</v>
       </c>
       <c r="AP30" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ30" s="11"/>
-    </row>
-    <row r="31" spans="1:43" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
+      <c r="AQ30" s="42"/>
+      <c r="AR30" s="1"/>
+    </row>
+    <row r="31" spans="1:44" ht="135" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="E31" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="F31" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="K31" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="L31" s="1">
+        <v>2112</v>
+      </c>
       <c r="M31" s="1" t="s">
-        <v>237</v>
+        <v>327</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>17</v>
+        <v>374</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P31" s="1" t="s">
-        <v>59</v>
+        <v>358</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>60</v>
+        <v>359</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>33</v>
+        <v>360</v>
       </c>
       <c r="S31" s="1" t="s">
         <v>34</v>
@@ -5949,71 +6276,114 @@
       <c r="U31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
+      <c r="V31" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="W31" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="X31" s="1">
+        <v>2341567878</v>
+      </c>
       <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
+      <c r="Z31" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA31" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB31" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
-      <c r="AG31" s="1"/>
-      <c r="AH31" s="1"/>
+      <c r="AG31" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="AH31" s="10" t="s">
+        <v>396</v>
+      </c>
       <c r="AI31" s="1">
         <v>2</v>
       </c>
-      <c r="AJ31" s="1"/>
+      <c r="AJ31" s="1">
+        <v>1</v>
+      </c>
       <c r="AK31" s="1">
         <v>1234567890</v>
       </c>
       <c r="AL31" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM31" s="1"/>
-      <c r="AN31" s="1"/>
+      <c r="AM31" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AN31" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="AO31" s="7">
         <v>12341</v>
       </c>
       <c r="AP31" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ31" s="11"/>
-    </row>
-    <row r="32" spans="1:43" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4"/>
+      <c r="AQ31" s="42" t="s">
+        <v>397</v>
+      </c>
+      <c r="AR31" s="1"/>
+    </row>
+    <row r="32" spans="1:44" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>401</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="E32" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
+      <c r="F32" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="K32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="L32" s="1">
+        <v>2112</v>
+      </c>
       <c r="M32" s="1" t="s">
-        <v>245</v>
+        <v>327</v>
       </c>
       <c r="N32" s="1" t="s">
-        <v>17</v>
+        <v>356</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>18</v>
       </c>
       <c r="P32" s="1" t="s">
-        <v>59</v>
+        <v>358</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>60</v>
+        <v>359</v>
       </c>
       <c r="R32" s="1" t="s">
-        <v>33</v>
+        <v>360</v>
       </c>
       <c r="S32" s="1" t="s">
         <v>34</v>
@@ -6024,59 +6394,102 @@
       <c r="U32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
+      <c r="V32" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="X32" s="1">
+        <v>2341567878</v>
+      </c>
       <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
+      <c r="Z32" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="AA32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB32" s="1" t="s">
+        <v>118</v>
+      </c>
       <c r="AC32" s="1"/>
-      <c r="AD32" s="1"/>
-      <c r="AE32" s="1"/>
-      <c r="AF32" s="1"/>
-      <c r="AG32" s="1"/>
-      <c r="AH32" s="1"/>
+      <c r="AD32" s="21" t="s">
+        <v>313</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>12</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>2019</v>
+      </c>
+      <c r="AG32" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="AH32" s="10" t="s">
+        <v>389</v>
+      </c>
       <c r="AI32" s="1">
         <v>2</v>
       </c>
-      <c r="AJ32" s="1"/>
-      <c r="AK32" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AL32" s="1">
-        <v>122235821</v>
-      </c>
-      <c r="AM32" s="1"/>
-      <c r="AN32" s="1"/>
+      <c r="AJ32" s="1">
+        <v>10</v>
+      </c>
+      <c r="AK32" s="1"/>
+      <c r="AL32" s="1"/>
+      <c r="AM32" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AN32" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="AO32" s="7">
         <v>12341</v>
       </c>
       <c r="AP32" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ32" s="11"/>
-    </row>
-    <row r="33" spans="1:43" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4"/>
-      <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="4"/>
+      <c r="AQ32" s="42"/>
+      <c r="AR32" s="1"/>
+    </row>
+    <row r="33" spans="1:44" ht="135" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>390</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>391</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>324</v>
+      </c>
       <c r="E33" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
+      <c r="F33" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
+      <c r="K33" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="L33" s="1">
+        <v>2112</v>
+      </c>
       <c r="M33" s="1" t="s">
-        <v>250</v>
+        <v>327</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>17</v>
+        <v>374</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>18</v>
@@ -6099,320 +6512,146 @@
       <c r="U33" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
+      <c r="V33" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="W33" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="X33" s="1">
+        <v>2341567878</v>
+      </c>
       <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
+      <c r="Z33" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="AA33" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB33" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
-      <c r="AG33" s="1"/>
-      <c r="AH33" s="1"/>
+      <c r="AG33" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="AH33" s="10" t="s">
+        <v>396</v>
+      </c>
       <c r="AI33" s="1">
         <v>2</v>
       </c>
-      <c r="AJ33" s="1"/>
+      <c r="AJ33" s="1">
+        <v>1</v>
+      </c>
       <c r="AK33" s="1">
         <v>1234567890</v>
       </c>
       <c r="AL33" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM33" s="1"/>
-      <c r="AN33" s="1"/>
+      <c r="AM33" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="AN33" s="1" t="s">
+        <v>294</v>
+      </c>
       <c r="AO33" s="7">
         <v>12341</v>
       </c>
       <c r="AP33" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ33" s="11"/>
-    </row>
-    <row r="34" spans="1:43" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ33" s="42" t="s">
+        <v>397</v>
+      </c>
+      <c r="AR33" s="1"/>
+    </row>
+    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="4"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="4" t="s">
-        <v>39</v>
-      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
+      <c r="K34" s="10"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O34" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P34" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q34" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="R34" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T34" s="1">
-        <v>2345</v>
-      </c>
-      <c r="U34" s="2" t="s">
-        <v>16</v>
-      </c>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="2"/>
       <c r="V34" s="1"/>
       <c r="W34" s="1"/>
       <c r="X34" s="1"/>
       <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
+      <c r="Z34" s="10"/>
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
-      <c r="AG34" s="1"/>
-      <c r="AH34" s="1"/>
-      <c r="AI34" s="1">
-        <v>2</v>
-      </c>
+      <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
+      <c r="AI34" s="1"/>
       <c r="AJ34" s="1"/>
-      <c r="AK34" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AL34" s="1">
-        <v>122235821</v>
-      </c>
+      <c r="AK34" s="1"/>
+      <c r="AL34" s="1"/>
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
-      <c r="AO34" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AP34" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AQ34" s="11"/>
-    </row>
-    <row r="35" spans="1:43" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="4"/>
-      <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
+      <c r="AO34" s="7"/>
+      <c r="AP34" s="7"/>
+      <c r="AQ34" s="42"/>
+      <c r="AR34" s="1"/>
+    </row>
+    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
       <c r="M35" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P35" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q35" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="R35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T35" s="1">
-        <v>2345</v>
-      </c>
-      <c r="U35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-      <c r="AA35" s="1"/>
-      <c r="AB35" s="1"/>
-      <c r="AC35" s="1"/>
-      <c r="AD35" s="1"/>
-      <c r="AE35" s="1"/>
-      <c r="AF35" s="1"/>
-      <c r="AG35" s="1"/>
-      <c r="AH35" s="1"/>
-      <c r="AI35" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ35" s="1"/>
-      <c r="AK35" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AL35" s="1">
-        <v>122235821</v>
-      </c>
-      <c r="AM35" s="1"/>
-      <c r="AN35" s="1"/>
-      <c r="AO35" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AP35" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AQ35" s="11"/>
-    </row>
-    <row r="36" spans="1:43" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="4"/>
-      <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
+        <v>288</v>
+      </c>
+    </row>
+    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
       <c r="M36" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q36" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="R36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S36" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T36" s="1">
-        <v>2345</v>
-      </c>
-      <c r="U36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-      <c r="AA36" s="1"/>
-      <c r="AB36" s="1"/>
-      <c r="AC36" s="1"/>
-      <c r="AD36" s="1"/>
-      <c r="AE36" s="1"/>
-      <c r="AF36" s="1"/>
-      <c r="AG36" s="1"/>
-      <c r="AH36" s="1"/>
-      <c r="AI36" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ36" s="1"/>
-      <c r="AK36" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AL36" s="1">
-        <v>122235821</v>
-      </c>
-      <c r="AM36" s="1"/>
-      <c r="AN36" s="1"/>
-      <c r="AO36" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AP36" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AQ36" s="11"/>
-    </row>
-    <row r="37" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="M37" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="38" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="M38" s="1" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="39" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="M39" s="1" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="40" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="M40" s="1" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="41" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="M41" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="42" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="M42" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="43" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:43" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
       <c r="M45" s="1"/>
-    </row>
-    <row r="46" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="M46" s="1"/>
-    </row>
-    <row r="47" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="M47" s="1"/>
-    </row>
-    <row r="48" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="M48" s="1"/>
-    </row>
-    <row r="49" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M49" s="1"/>
-    </row>
-    <row r="50" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M50" s="1"/>
-    </row>
-    <row r="51" spans="13:13" x14ac:dyDescent="0.25">
-      <c r="M51" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6420,16 +6659,23 @@
     <hyperlink ref="U10" r:id="rId2"/>
     <hyperlink ref="Q5" r:id="rId3" display="Biswanath@54321"/>
     <hyperlink ref="U5" r:id="rId4"/>
-    <hyperlink ref="U11:U36" r:id="rId5" display="talk2mahapatra@gmail.com"/>
+    <hyperlink ref="U11:U26" r:id="rId5" display="talk2mahapatra@gmail.com"/>
     <hyperlink ref="U14" r:id="rId6"/>
     <hyperlink ref="U2" r:id="rId7"/>
     <hyperlink ref="U4" r:id="rId8"/>
     <hyperlink ref="U3" r:id="rId9"/>
+    <hyperlink ref="U27" r:id="rId10"/>
+    <hyperlink ref="U28" r:id="rId11"/>
+    <hyperlink ref="U29" r:id="rId12"/>
+    <hyperlink ref="U30" r:id="rId13"/>
+    <hyperlink ref="U31" r:id="rId14"/>
+    <hyperlink ref="U32" r:id="rId15"/>
+    <hyperlink ref="U33" r:id="rId16"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
   <tableParts count="1">
-    <tablePart r:id="rId11"/>
+    <tablePart r:id="rId18"/>
   </tableParts>
 </worksheet>
 </file>

--- a/testdata/TestData_siebel.xlsx
+++ b/testdata/TestData_siebel.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xerox\AutomationTestSuite\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14880" windowHeight="5100"/>
   </bookViews>
@@ -18,18 +13,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Sheet2!$B$1:$B$63</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">siebel!$A$1:$P$37</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1002" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="396">
   <si>
     <t>UserId</t>
   </si>
@@ -289,9 +280,6 @@
     <t>jacob</t>
   </si>
   <si>
-    <t>DAVIS</t>
-  </si>
-  <si>
     <t>def9999:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,
 def8888:FL:STANDARD:USA:REGULAR:2014:BUICK:SPECIAL,
 def7777:FL:STANDARD:USA:REGULAR:2014:BRAUN:ENTERVAN II, def6666:FL:STANDARD:USA:REGULAR:2014:BMW:M</t>
@@ -344,9 +332,6 @@
     <t>Christopher</t>
   </si>
   <si>
-    <t>Wilson</t>
-  </si>
-  <si>
     <t>Red Carpet Services</t>
   </si>
   <si>
@@ -365,23 +350,6 @@
     <t>ACEO_020</t>
   </si>
   <si>
-    <t>Brian</t>
-  </si>
-  <si>
-    <t>Lara</t>
-  </si>
-  <si>
-    <t>DR Agency</t>
-  </si>
-  <si>
-    <t>bbb5555:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,
-bbb6666:FL:STANDARD:USA:REGULAR:2014:BUICK:SPECIAL,
-bbb7777:FL:STANDARD:USA:REGULAR:2014:BRAUN:ENTERVAN II, bbb8888:FL:STANDARD:USA:REGULAR:2014:BMW:M</t>
-  </si>
-  <si>
-    <t>Gayle</t>
-  </si>
-  <si>
     <t>GOVPOST</t>
   </si>
   <si>
@@ -391,21 +359,7 @@
     <t>maria</t>
   </si>
   <si>
-    <t>bbb9999:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL</t>
-  </si>
-  <si>
-    <t>ACEO_057</t>
-  </si>
-  <si>
-    <t>hall</t>
-  </si>
-  <si>
     <t>DISCOVER</t>
-  </si>
-  <si>
-    <t>bbb3232:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,
-bbb3434:FL:STANDARD:USA:REGULAR:2014:BUICK:SPECIAL,
-bbb1515:FL:STANDARD:USA:REGULAR:2014:BRAUN:ENTERVAN II, bbb4545:FL:STANDARD:USA:REGULAR:2014:BMW:M</t>
   </si>
   <si>
     <t>FLEETPRE,
@@ -430,9 +384,6 @@
 Eco Plus Portable:26</t>
   </si>
   <si>
-    <t>SunPass Portable:1</t>
-  </si>
-  <si>
     <t>TestCaseDesc</t>
   </si>
   <si>
@@ -716,28 +667,10 @@
     <t>Create Commercial account FLEETPOST with walk-in mode</t>
   </si>
   <si>
-    <t>ACEO_025</t>
-  </si>
-  <si>
     <t>Create Private prepaid account with  walk-in mode</t>
   </si>
   <si>
-    <t>jones</t>
-  </si>
-  <si>
-    <t>smith</t>
-  </si>
-  <si>
-    <t>MAILING:10049 ST MORITZ DR::33913:MIROMAR LAKES:FL:USA</t>
-  </si>
-  <si>
     <t>VISA</t>
-  </si>
-  <si>
-    <t>ACEO_027</t>
-  </si>
-  <si>
-    <t>Create business, fleetpre account with walk-in logon mode</t>
   </si>
   <si>
     <t>talk2mahapatra@rediffmail.com</t>
@@ -789,33 +722,13 @@
 </t>
   </si>
   <si>
-    <t>ACEO_036</t>
-  </si>
-  <si>
     <t>FAX-IN</t>
   </si>
   <si>
-    <t>micheal</t>
-  </si>
-  <si>
-    <t>brown</t>
-  </si>
-  <si>
-    <t>KK Pvt LTD</t>
-  </si>
-  <si>
-    <t>Create Business account ISPPRE with fax-in mode
-giving valid zipcode(previously S6V)
-here vehicles are added as 2 but we have taken as 101</t>
-  </si>
-  <si>
     <t>ACEO_038</t>
   </si>
   <si>
     <t xml:space="preserve">william </t>
-  </si>
-  <si>
-    <t>davis</t>
   </si>
   <si>
     <t xml:space="preserve">AAA3232:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL
@@ -827,9 +740,6 @@
   <si>
     <t>Prepaid private account creation only with standard plan with
 walk-in mode</t>
-  </si>
-  <si>
-    <t>adams</t>
   </si>
   <si>
     <t xml:space="preserve">AAA3233:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL
@@ -860,9 +770,6 @@
     <t xml:space="preserve">donald </t>
   </si>
   <si>
-    <t>thomas</t>
-  </si>
-  <si>
     <t xml:space="preserve">MAILING:135 HAMILTON TER::33414:WEST PALM BEACH :FL:USA
 </t>
   </si>
@@ -880,13 +787,7 @@
 Eco Plus Portable:2</t>
   </si>
   <si>
-    <t>ACEO_058</t>
-  </si>
-  <si>
     <t>ACEO_059</t>
-  </si>
-  <si>
-    <t>ACEO_060</t>
   </si>
   <si>
     <t xml:space="preserve">john </t>
@@ -913,12 +814,6 @@
     <t>ACEO_076</t>
   </si>
   <si>
-    <t>joseph</t>
-  </si>
-  <si>
-    <t>JK Ltd</t>
-  </si>
-  <si>
     <t>Commercial RCSPPOST account creation with mail-in mode
 zipcode existing is S6W but we have taken valid one</t>
   </si>
@@ -926,36 +821,10 @@
     <t>RCSPPOST</t>
   </si>
   <si>
-    <t>bbbc11:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,
-bbbc22:FL:STANDARD:USA:REGULAR:2014:BUICK:SPECIAL,
-bbbc335:FL:STANDARD:USA:REGULAR:2014:BRAUN:ENTERVAN II, bbbc445:FL:STANDARD:USA:REGULAR:2014:BMW:M</t>
-  </si>
-  <si>
     <t>ACEO_078</t>
   </si>
   <si>
-    <t>miller</t>
-  </si>
-  <si>
-    <t>MK Pvt LTD</t>
-  </si>
-  <si>
-    <t>bbbc111:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,
-bbbc222:FL:STANDARD:USA:REGULAR:2014:BUICK:SPECIAL,
-bbbc333:FL:STANDARD:USA:REGULAR:2014:BRAUN:ENTERVAN II, bbbc444:FL:STANDARD:USA:REGULAR:2014:BMW:M</t>
-  </si>
-  <si>
     <t>RCSPPRE</t>
-  </si>
-  <si>
-    <t>cena</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commercial FLEETPOST account creation with mail-in mode
-</t>
-  </si>
-  <si>
-    <t>gracia</t>
   </si>
   <si>
     <t>wbc111:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,
@@ -963,13 +832,6 @@
 wbc333:FL:STANDARD:USA:REGULAR:2014:BRAUN:ENTERVAN II, wbc444:FL:STANDARD:USA:REGULAR:2014:BMW:M</t>
   </si>
   <si>
-    <t xml:space="preserve">Commercial ISPPOST account creation with mail-in mode
-</t>
-  </si>
-  <si>
-    <t>ACEO_094</t>
-  </si>
-  <si>
     <t>joshua</t>
   </si>
   <si>
@@ -998,10 +860,6 @@
   </si>
   <si>
     <t>Expected Result</t>
-  </si>
-  <si>
-    <t>Prepaid private account creation only with standard plan with
-phone-in mode [Walk-in mode only possible since payment mode selected is Check]</t>
   </si>
   <si>
     <t>Create Commercial Government account GOVPOST and NRV 
@@ -1020,9 +878,6 @@
     <t>IS TaxExempt</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>Not considering for Automation</t>
   </si>
   <si>
@@ -1035,9 +890,6 @@
   <si>
     <t xml:space="preserve">Business RCSPPRE account creation,Discover Card with mail-in mode
 </t>
-  </si>
-  <si>
-    <t>6011308744444440</t>
   </si>
   <si>
     <t>MAILING:9369 TRIESTE DRIVE::33913:FORT MYERS:FL:USA;
@@ -1176,41 +1028,76 @@
     <t>Account created</t>
   </si>
   <si>
-    <t>370000888888882</t>
-  </si>
-  <si>
-    <t>kamani</t>
-  </si>
-  <si>
-    <t>venkatak</t>
+    <t>Blocked -Credit card validation failed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create Commercial account  ISPPOST with walk-in mode 
+</t>
+  </si>
+  <si>
+    <t>FL CCSS</t>
+  </si>
+  <si>
+    <t>ACEO_001</t>
+  </si>
+  <si>
+    <t>Prepaid Private account creation with walk-in mode, standard plan and Bayway Commuter Annual Pass discount plan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAILING:4560 ESTERO BLVD #702: APT 427:33931:FORT MYERS BEACH :FL:USA
+</t>
+  </si>
+  <si>
+    <t>STANDARD,
+PBC</t>
+  </si>
+  <si>
+    <t>ACEO_002</t>
+  </si>
+  <si>
+    <t>Prepaid Private account creation with mail-in mode, Standard plan and Bayway Residents Annual discount plan.</t>
+  </si>
+  <si>
+    <t>jason</t>
+  </si>
+  <si>
+    <t>MAILING:4560 ESTERO BLVD #702: APT 427:33931:FORT MYERS BEACH :FL:USA</t>
+  </si>
+  <si>
+    <t>ACEO_007</t>
+  </si>
+  <si>
+    <t>prepaid Fleet account creation with walk-in mode along with Non-Revenue</t>
+  </si>
+  <si>
+    <t>josheph</t>
+  </si>
+  <si>
+    <t>wer2345:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,
+wer2222:FL:STANDARD:USA:REGULAR:2014:BUICK:SPECIAL,</t>
+  </si>
+  <si>
+    <t>SunPass Portable:90,
+SunPass Bumper Mount:20</t>
+  </si>
+  <si>
+    <t>L&amp;T Services</t>
+  </si>
+  <si>
+    <t>ACEO_030</t>
   </si>
   <si>
     <t>MAIL MONTHLY</t>
   </si>
   <si>
-    <t>Create Commercial account  ISPPOST with walk-in mode</t>
-  </si>
-  <si>
-    <t>sumitb</t>
-  </si>
-  <si>
-    <t>burnwal</t>
-  </si>
-  <si>
-    <t>FL CCSS</t>
-  </si>
-  <si>
-    <t>Creating private prepaid Account with Add non-standardized address in mailing
- address.</t>
-  </si>
-  <si>
-    <t>Regression</t>
-  </si>
-  <si>
-    <t>Smoke</t>
-  </si>
-  <si>
-    <t>Smoke/MainFlow/Regression</t>
+    <t xml:space="preserve">MAILING:243 GARDEN CT::33077:POMPANO BEACH:FL:USA
+</t>
+  </si>
+  <si>
+    <t>SunPass Portable:50,
+SunPass Bumper Mount:50,
+SunPass Mini ::50,
+Eco Plus Portable:51</t>
   </si>
   <si>
     <t>ACEO_068</t>
@@ -1220,135 +1107,222 @@
 with walk-in mode</t>
   </si>
   <si>
-    <t>stefen</t>
-  </si>
-  <si>
-    <t>fleming</t>
-  </si>
-  <si>
-    <t>MAILING:135 HAMILTON TER::33414:WEST PALM BEACH :FL:USA</t>
-  </si>
-  <si>
     <t>wer9999:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL,</t>
   </si>
   <si>
-    <t xml:space="preserve">SunPass Portable:1
+    <t>ACEO_082</t>
+  </si>
+  <si>
+    <t>Create Commercial, FLEETPOST/NRV Plan account with Fax-in logon mode</t>
+  </si>
+  <si>
+    <t>FLEETPOST,
+NRV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SunPass Portable:400
 </t>
   </si>
   <si>
+    <t>need clarity on plan
+(Blocked)</t>
+  </si>
+  <si>
+    <t>ACEO_088</t>
+  </si>
+  <si>
+    <t>ACEO_137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepaid Private account creation when Credit Card information associated to another account; Cancel the warning; enter new  credit card info.
+Private account creation with walk-in mode
+</t>
+  </si>
+  <si>
+    <t>EAMIL MONTHLY</t>
+  </si>
+  <si>
+    <t>emir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wbc111:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL
+</t>
+  </si>
+  <si>
     <t>ACEO_153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepaid Private account creation; only Pinellas Bayway Residents Annual Plan; Discount plan request for Sticker; Discount plan count less than 5.
+Private account creation with PBR along with walk-in mode
+</t>
   </si>
   <si>
     <t>STANDARD,
 PBR</t>
   </si>
   <si>
-    <t>EAMIL MONTHLY</t>
-  </si>
-  <si>
     <t>water</t>
-  </si>
-  <si>
-    <t>hill</t>
   </si>
   <si>
     <t xml:space="preserve">MAILING:2007 SHOMA DR::33414:WEST PALM BEACH:FL:USA
 </t>
   </si>
   <si>
-    <t xml:space="preserve">wbc111:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL
+    <t>ACEO_155</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepaid Private account creation; only Pinellas Bayway Residents Annual Plan; Device Request for Sticker; Discount plan count greater than 5.
+Private account creation with PBR along with walk-in mode
 </t>
   </si>
   <si>
-    <t xml:space="preserve">,
-SunPass Mini :3
+    <t>nicholas</t>
+  </si>
+  <si>
+    <t>ACEO_165</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepaid Private account creation; only Pinellas Bayway Residents Annual Plan; Device Request for Sticker; Discount plan count greater than 5.
+Private account creation with PBC along with walk-in mode
 </t>
   </si>
   <si>
-    <t>ACEO_137</t>
-  </si>
-  <si>
-    <t>Prepaid Private account creation when Credit Card information associated to another account; Cancel the warning; enter new  credit card info.
-Private account creation with walk-in mode</t>
-  </si>
-  <si>
-    <t>emir</t>
-  </si>
-  <si>
-    <t>sharaphunu</t>
-  </si>
-  <si>
-    <t>Prepaid Private account creation; only Pinellas Bayway Residents Annual Plan; Discount plan request for Sticker; Discount plan count less than 5.
-Private account creation with PBR along with walk-in mode</t>
-  </si>
-  <si>
-    <t>ACEO_155</t>
-  </si>
-  <si>
-    <t>Prepaid Private account creation; only Pinellas Bayway Residents Annual Plan; Device Request for Sticker; Discount plan count greater than 5.
-Private account creation with PBR along with walk-in mode</t>
-  </si>
-  <si>
-    <t>nicholas</t>
-  </si>
-  <si>
-    <t>carter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">,
-SunPass Mini :10
-</t>
-  </si>
-  <si>
-    <t>ACEO_165</t>
-  </si>
-  <si>
-    <t>Prepaid Private account creation; only Pinellas Bayway Residents Annual Plan; Device Request for Sticker; Discount plan count greater than 5.
-Private account creation with PBC along with walk-in mode</t>
-  </si>
-  <si>
-    <t>STANDARD,
-PBC</t>
-  </si>
-  <si>
     <t>victor</t>
-  </si>
-  <si>
-    <t>perez</t>
   </si>
   <si>
     <t xml:space="preserve">MAILING:202 KENSINGTON WAY::33414:ROYAL PALM BEACH:FL:USA
 </t>
   </si>
   <si>
-    <t xml:space="preserve">,
-SunPass Mini :1
+    <t>ACEO_046</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Payment not done after 7 days of opening the account; account status is PENDING-PAY
 </t>
   </si>
   <si>
+    <t>ACEO_047</t>
+  </si>
+  <si>
+    <t>Payment done before 14 days of opening the account; account status is PENDING-PAY.</t>
+  </si>
+  <si>
+    <t>ACEO_048</t>
+  </si>
+  <si>
+    <t>Payment not done after 14 days of opening the account; account status is PENDING-PAY</t>
+  </si>
+  <si>
+    <t>341234111111111</t>
+  </si>
+  <si>
+    <t>sumitb</t>
+  </si>
+  <si>
+    <t>burnwal</t>
+  </si>
+  <si>
+    <t>Smoke</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Smoke. Why failed</t>
+  </si>
+  <si>
+    <t>MainFlow/Regression</t>
+  </si>
+  <si>
+    <t>Smoke/MainFlow/Regression</t>
+  </si>
+  <si>
+    <t>create private prepaid account with walk-in mode
+(This will be automated with Display Checklist procedure)</t>
+  </si>
+  <si>
+    <t>ACEO_086</t>
+  </si>
+  <si>
+    <t>ACEO_093</t>
+  </si>
+  <si>
+    <t>ACEO_053</t>
+  </si>
+  <si>
+    <t>Postpaid ISP account creation in fax-in mode with ISPPOST plan.</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>Prepaid Fleet account creation in walk-in mode with BVIDEOREG plan.</t>
+  </si>
+  <si>
     <t>Account created successfully; Start date of Discount plan is June of current year; Discount plan end date is June of next year.</t>
   </si>
   <si>
-    <t>ACEO_086</t>
-  </si>
-  <si>
-    <t>ACEO_093</t>
-  </si>
-  <si>
-    <t>Prepaid Fleet account creation in walk-in mode with BVIDEOREG plan.</t>
-  </si>
-  <si>
-    <t>Postpaid ISP account creation in fax-in mode with ISPPOST plan.</t>
+    <t>ACEO-169</t>
+  </si>
+  <si>
+    <t>ACEO-173</t>
+  </si>
+  <si>
+    <t>Prepaid Private account creation with walk-in mode, standard plan and Bayway Residents Annual discount plan</t>
+  </si>
+  <si>
+    <t>Standard,
+PBR</t>
+  </si>
+  <si>
+    <t>testing@test.com</t>
+  </si>
+  <si>
+    <t>Is Anonymous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wer2345:FL:STANDARD:USA:REGULAR:2014:BLUE:CONVENTIONAL
+</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>ROBERT GONZALEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SunPass Mini :3
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SunPass Mini :1
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SunPass Mini :10
+</t>
+  </si>
+  <si>
+    <t>SunPass Portable:10,
+SunPass Bumper Mount:25,
+SunPass Mini :25,
+Eco Plus Portable:26</t>
+  </si>
+  <si>
+    <t>BVIDEOREG</t>
+  </si>
+  <si>
+    <t>polar services</t>
+  </si>
+  <si>
+    <t>ALEXANDER AUTOMATION USER</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[&lt;=9999999]###\-####;\(###\)\ ###\-####"/>
-  </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1439,42 +1413,59 @@
     </font>
     <font>
       <sz val="11"/>
-      <color indexed="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="28">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1520,6 +1511,27 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
       </patternFill>
     </fill>
     <fill>
@@ -1598,7 +1610,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1725,6 +1737,30 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -1735,12 +1771,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
@@ -1805,26 +1844,13 @@
     <xf numFmtId="49" fontId="4" fillId="7" borderId="0" xfId="2" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -1832,34 +1858,89 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="5" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="5" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="9" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="5" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="6">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink 2" xfId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2"/>
+    <cellStyle name="Normal 3" xfId="3"/>
+    <cellStyle name="Normal 4" xfId="5"/>
   </cellStyles>
   <dxfs count="30">
     <dxf>
@@ -2477,16 +2558,13 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="P1:AP7" totalsRowShown="0" headerRowDxfId="27">
-  <autoFilter ref="P1:AP7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="Q1:AQ7" totalsRowShown="0" headerRowDxfId="27">
+  <autoFilter ref="Q1:AQ7"/>
   <tableColumns count="27">
     <tableColumn id="1" name="UserId" dataDxfId="26"/>
     <tableColumn id="2" name="Password" dataDxfId="25"/>
@@ -2775,7 +2853,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2783,60 +2861,62 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AR45"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:AS37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA30" workbookViewId="0">
-      <selection activeCell="AE32" sqref="AE32"/>
+    <sheetView tabSelected="1" topLeftCell="AI11" workbookViewId="0">
+      <selection activeCell="AN21" sqref="AN21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.75" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="45.125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.75" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="16.75" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="11.25" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="13.875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.375" customWidth="1" collapsed="1"/>
-    <col min="13" max="15" width="12.75" collapsed="1"/>
-    <col min="16" max="16" width="14.625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="20.625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="30" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.75" collapsed="1"/>
-    <col min="21" max="21" width="26.625" customWidth="1" collapsed="1"/>
-    <col min="22" max="23" width="12.75" collapsed="1"/>
-    <col min="24" max="24" width="13.375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="99" customWidth="1" collapsed="1"/>
-    <col min="27" max="28" width="12.75" collapsed="1"/>
-    <col min="30" max="30" width="23.625" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="17.75" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="14.75" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="73.25" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="53.75" customWidth="1" collapsed="1"/>
-    <col min="35" max="38" width="12.75" collapsed="1"/>
-    <col min="39" max="39" width="19.75" customWidth="1" collapsed="1"/>
-    <col min="40" max="40" width="12.75" collapsed="1"/>
-    <col min="41" max="41" width="12.75" style="8" collapsed="1"/>
-    <col min="42" max="42" width="18.75" style="8" customWidth="1" collapsed="1"/>
-    <col min="43" max="43" width="13.375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="45.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.7109375" collapsed="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="14.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="14" max="16" width="12.7109375" collapsed="1"/>
+    <col min="17" max="17" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="17" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="30" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="12.7109375" collapsed="1"/>
+    <col min="22" max="22" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="23" max="26" width="12.7109375" collapsed="1"/>
+    <col min="27" max="27" width="99" customWidth="1" collapsed="1"/>
+    <col min="28" max="30" width="12.7109375" collapsed="1"/>
+    <col min="31" max="31" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="73.28515625" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="53.7109375" customWidth="1" collapsed="1"/>
+    <col min="36" max="39" width="12.7109375" collapsed="1"/>
+    <col min="40" max="40" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="41" max="41" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="42" max="42" width="12.7109375" style="8" collapsed="1"/>
+    <col min="43" max="43" width="18.7109375" style="8" customWidth="1" collapsed="1"/>
+    <col min="44" max="44" width="13.42578125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>65</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>322</v>
+        <v>280</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>36</v>
@@ -2845,258 +2925,260 @@
         <v>37</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="H1" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H1" s="61" t="s">
+        <v>385</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>305</v>
-      </c>
       <c r="J1" s="9" t="s">
-        <v>306</v>
+        <v>265</v>
       </c>
       <c r="K1" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="L1" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="3" t="s">
-        <v>326</v>
-      </c>
       <c r="N1" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="O1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="O1" s="3" t="s">
+      <c r="P1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="Y1" s="1" t="s">
-        <v>328</v>
-      </c>
       <c r="Z1" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AC1" s="1" t="s">
-        <v>329</v>
-      </c>
       <c r="AD1" s="1" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="AE1" s="1" t="s">
-        <v>296</v>
+        <v>256</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>297</v>
+        <v>257</v>
       </c>
       <c r="AG1" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="AH1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="AO1" s="6" t="s">
+      <c r="AP1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AQ1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="AQ1" s="40" t="s">
-        <v>301</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="2" spans="1:44" ht="60" x14ac:dyDescent="0.25">
+      <c r="AR1" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="2" spans="1:45" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>334</v>
+        <v>314</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>315</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>323</v>
+      <c r="D2" s="4" t="s">
+        <v>370</v>
       </c>
       <c r="E2" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="24">
-        <v>46337</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1000</v>
-      </c>
+      <c r="J2" s="4"/>
       <c r="K2" s="1"/>
-      <c r="L2" s="4">
-        <v>1212</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>327</v>
+      <c r="L2" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="4">
+        <v>1234</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>355</v>
+        <v>283</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>18</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>354</v>
+        <v>59</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="S2" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T2" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T2" s="1">
+      <c r="U2" s="1">
         <v>2345</v>
       </c>
-      <c r="U2" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="V2" s="1" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="X2" s="1">
+        <v>297</v>
+      </c>
+      <c r="X2" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y2" s="1">
         <v>8907451234</v>
       </c>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="AA2" s="1" t="s">
+      <c r="Z2" s="1"/>
+      <c r="AA2" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="AC2" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="AD2" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="AE2" s="1">
+        <v>302</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE2" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF2" s="1">
         <v>12</v>
       </c>
-      <c r="AF2" s="1">
-        <v>2019</v>
-      </c>
-      <c r="AG2" s="10" t="s">
+      <c r="AG2" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AH2" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AH2" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI2" s="1">
+      <c r="AI2" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ2" s="1">
         <v>2</v>
       </c>
-      <c r="AJ2" s="1">
+      <c r="AK2" s="1">
         <v>100</v>
       </c>
-      <c r="AK2" s="1">
+      <c r="AL2" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AL2" s="1">
+      <c r="AM2" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM2" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="AN2" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="AO2" s="1">
+        <v>305</v>
+      </c>
+      <c r="AO2" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AP2" s="1">
         <v>12341</v>
       </c>
-      <c r="AP2" s="7"/>
-      <c r="AQ2" s="40"/>
-      <c r="AR2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:44" ht="60" x14ac:dyDescent="0.25">
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="30"/>
+      <c r="AS2" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="3" spans="1:45" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>335</v>
+        <v>318</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>319</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>324</v>
+        <v>377</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>39</v>
@@ -3104,127 +3186,124 @@
       <c r="F3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="24">
-        <v>46337</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="J3" s="4"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="4">
+        <v>3456</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="L3" s="36">
-        <v>5673</v>
-      </c>
-      <c r="M3" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="O3" s="36" t="s">
+      <c r="O3" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="P3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="Q3" s="1" t="s">
-        <v>354</v>
+        <v>59</v>
       </c>
       <c r="R3" s="1" t="s">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T3" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="1">
+      <c r="U3" s="1">
         <v>2345</v>
       </c>
-      <c r="U3" s="1" t="s">
-        <v>341</v>
-      </c>
       <c r="V3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>1232453444</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>3452341234</v>
+      </c>
+      <c r="AA3" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="AB3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC3" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="AD3" s="1"/>
+      <c r="AE3" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>12</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AH3" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI3" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK3" s="1">
         <v>100</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="X3" s="1">
-        <v>1232453444</v>
-      </c>
-      <c r="Y3" s="1">
-        <v>3452341234</v>
-      </c>
-      <c r="Z3" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="AA3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB3" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="AC3" s="1"/>
-      <c r="AD3" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="AE3" s="1">
-        <v>12</v>
-      </c>
-      <c r="AF3" s="1">
-        <v>2024</v>
-      </c>
-      <c r="AG3" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="AH3" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI3" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ3" s="1">
-        <v>100</v>
-      </c>
-      <c r="AK3" s="1">
+      <c r="AL3" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AL3" s="1">
+      <c r="AM3" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM3" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="AN3" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="AO3" s="1">
+        <v>305</v>
+      </c>
+      <c r="AO3" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AP3" s="1">
         <v>12341</v>
       </c>
-      <c r="AP3" s="7"/>
-      <c r="AQ3" s="40"/>
-      <c r="AR3" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="4" spans="1:44" ht="60" x14ac:dyDescent="0.25">
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="30"/>
+      <c r="AS3" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:45" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>336</v>
+        <v>289</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>323</v>
+        <v>377</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>39</v>
@@ -3232,1764 +3311,1784 @@
       <c r="F4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="24">
-        <v>46337</v>
-      </c>
-      <c r="J4" s="1">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="72">
+        <v>47138</v>
+      </c>
+      <c r="K4" s="1">
         <v>1000</v>
       </c>
-      <c r="K4" s="19" t="s">
-        <v>230</v>
-      </c>
-      <c r="L4" s="4">
-        <v>2130</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>327</v>
+      <c r="L4" s="51"/>
+      <c r="M4" s="4">
+        <v>1212</v>
       </c>
       <c r="N4" s="4" t="s">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="O4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>355</v>
+        <v>283</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>354</v>
+        <v>59</v>
       </c>
       <c r="R4" s="1" t="s">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="S4" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T4" s="1">
+      <c r="U4" s="1">
         <v>2345</v>
       </c>
-      <c r="U4" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="V4" s="19" t="s">
+      <c r="V4" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="W4" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="W4" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="X4" s="38">
+      <c r="X4" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y4" s="1">
         <v>3421562345</v>
       </c>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="AA4" s="1" t="s">
+      <c r="Z4" s="1"/>
+      <c r="AA4" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="AB4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AB4" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC4" s="1"/>
-      <c r="AD4" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="AE4" s="1">
+      <c r="AC4" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD4" s="1"/>
+      <c r="AE4" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF4" s="1">
         <v>12</v>
       </c>
-      <c r="AF4" s="1">
+      <c r="AG4" s="1">
         <v>2024</v>
       </c>
-      <c r="AG4" s="10" t="s">
+      <c r="AH4" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AH4" s="10" t="s">
-        <v>345</v>
-      </c>
-      <c r="AI4" s="1">
+      <c r="AI4" s="10" t="s">
+        <v>303</v>
+      </c>
+      <c r="AJ4" s="1">
         <v>2</v>
       </c>
-      <c r="AJ4" s="1">
+      <c r="AK4" s="1">
         <v>101</v>
       </c>
-      <c r="AK4" s="1">
+      <c r="AL4" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AL4" s="1">
+      <c r="AM4" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM4" s="39" t="s">
-        <v>91</v>
-      </c>
-      <c r="AN4" s="39" t="s">
-        <v>349</v>
-      </c>
-      <c r="AO4" s="1">
+      <c r="AN4" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="AO4" s="29" t="s">
+        <v>307</v>
+      </c>
+      <c r="AP4" s="1">
         <v>12341</v>
       </c>
-      <c r="AP4" s="7"/>
-      <c r="AQ4" s="40"/>
-      <c r="AR4" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="5" spans="1:44" ht="60" x14ac:dyDescent="0.25">
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="30"/>
+      <c r="AS4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="5" spans="1:45" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>93</v>
+        <v>322</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>323</v>
+        <v>377</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>367</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1122</v>
-      </c>
-      <c r="M5" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="O5" s="1" t="s">
+      <c r="J5" s="4"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M5" s="4">
+        <v>2121</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="P5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="P5" s="1" t="s">
+      <c r="Q5" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q5" s="1" t="s">
+      <c r="R5" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="R5" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="S5" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T5" s="1">
+      <c r="U5" s="1">
         <v>2345</v>
       </c>
-      <c r="U5" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V5" s="1" t="s">
+      <c r="W5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="W5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="X5" s="1">
+      <c r="X5" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y5" s="1">
         <v>1231231231</v>
       </c>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="AA5" s="1" t="s">
+      <c r="Z5" s="1"/>
+      <c r="AA5" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AB5" s="1" t="s">
+      <c r="AC5" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AC5" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="AD5" s="1"/>
+      <c r="AD5" s="1" t="s">
+        <v>288</v>
+      </c>
       <c r="AE5" s="1"/>
       <c r="AF5" s="1"/>
-      <c r="AG5" s="10" t="s">
+      <c r="AG5" s="1"/>
+      <c r="AH5" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="AH5" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="AI5" s="1">
+      <c r="AI5" s="10" t="s">
+        <v>304</v>
+      </c>
+      <c r="AJ5" s="1">
         <v>2</v>
       </c>
-      <c r="AJ5" s="1">
+      <c r="AK5" s="1">
         <v>233</v>
       </c>
-      <c r="AK5" s="1">
+      <c r="AL5" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AL5" s="1">
+      <c r="AM5" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM5" s="1" t="s">
+      <c r="AN5" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AN5" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="AO5" s="7">
+      <c r="AO5" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="AP5" s="7">
         <v>12341</v>
       </c>
-      <c r="AP5" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AQ5" s="41">
-        <v>326120218</v>
-      </c>
-      <c r="AR5" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="6" spans="1:44" ht="60" x14ac:dyDescent="0.25">
+      <c r="AQ5" s="64">
+        <v>326129905</v>
+      </c>
+      <c r="AR5" s="26">
+        <v>326127602</v>
+      </c>
+      <c r="AS5" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:45" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>94</v>
+        <v>290</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>126</v>
+        <v>293</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>364</v>
+        <v>377</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="24">
-        <v>46337</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="H6" s="4"/>
+      <c r="I6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="72">
+        <v>47138</v>
+      </c>
+      <c r="K6" s="1">
         <v>1000</v>
       </c>
-      <c r="K6" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="L6" s="1">
-        <v>7860</v>
-      </c>
-      <c r="M6" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="O6" s="1" t="s">
+      <c r="L6" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M6" s="27">
+        <v>5673</v>
+      </c>
+      <c r="N6" s="27" t="s">
+        <v>285</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="P6" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="P6" s="1" t="s">
+      <c r="Q6" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q6" s="1" t="s">
+      <c r="R6" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="R6" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="S6" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T6" s="1">
+      <c r="U6" s="1">
         <v>2345</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="V6" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V6" s="1" t="s">
+      <c r="W6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="W6" s="1" t="s">
+      <c r="X6" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="X6" s="1">
+      <c r="Y6" s="1">
         <v>3452452345</v>
       </c>
-      <c r="Y6" s="1">
+      <c r="Z6" s="1">
         <v>3452341234</v>
       </c>
-      <c r="Z6" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="AA6" s="1" t="s">
+      <c r="AA6" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AB6" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="AE6" s="1">
+      <c r="AC6" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD6" s="1"/>
+      <c r="AE6" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF6" s="1">
         <v>12</v>
       </c>
-      <c r="AF6" s="1">
+      <c r="AG6" s="1">
         <v>2024</v>
       </c>
-      <c r="AG6" s="10" t="s">
+      <c r="AH6" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="AH6" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="AI6" s="1">
+      <c r="AI6" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="AJ6" s="1">
         <v>2</v>
       </c>
-      <c r="AJ6" s="1">
+      <c r="AK6" s="1">
         <v>200</v>
       </c>
-      <c r="AK6" s="1">
+      <c r="AL6" s="1">
         <v>3453453451</v>
       </c>
-      <c r="AL6" s="1">
+      <c r="AM6" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM6" s="1" t="s">
+      <c r="AN6" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="AN6" s="1" t="s">
+      <c r="AO6" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AO6" s="7">
+      <c r="AP6" s="7">
         <v>12341</v>
       </c>
-      <c r="AP6" s="7">
+      <c r="AQ6" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ6" s="42"/>
-    </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AR6" s="31"/>
+    </row>
+    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="25" t="s">
-        <v>309</v>
+        <v>291</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>294</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>377</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>282</v>
+      </c>
       <c r="E7" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="72">
+        <v>47138</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L7" s="29" t="s">
+        <v>212</v>
+      </c>
+      <c r="M7" s="4">
+        <v>2130</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="R7" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="S7" s="1"/>
+      <c r="S7" s="1" t="s">
+        <v>313</v>
+      </c>
       <c r="T7" s="1"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="2"/>
       <c r="W7" s="1"/>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="1"/>
+      <c r="Z7" s="1"/>
+      <c r="AA7" s="10"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
       <c r="AD7" s="1"/>
       <c r="AE7" s="1"/>
       <c r="AF7" s="1"/>
-      <c r="AG7" s="10"/>
+      <c r="AG7" s="1"/>
       <c r="AH7" s="10"/>
-      <c r="AI7" s="1"/>
+      <c r="AI7" s="10"/>
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
       <c r="AN7" s="1"/>
-      <c r="AO7" s="7"/>
+      <c r="AO7" s="1"/>
       <c r="AP7" s="7"/>
-      <c r="AQ7" s="11"/>
-    </row>
-    <row r="8" spans="1:44" ht="60" x14ac:dyDescent="0.25">
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="11"/>
+    </row>
+    <row r="8" spans="1:45" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D8" s="1"/>
+        <v>377</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>370</v>
+      </c>
       <c r="E8" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="L8" s="1">
-        <v>7896</v>
-      </c>
-      <c r="M8" s="1"/>
-      <c r="N8" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="O8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="72">
+        <v>47138</v>
+      </c>
+      <c r="K8" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M8" s="1">
+        <v>1122</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="P8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P8" s="1" t="s">
+      <c r="Q8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q8" s="1" t="s">
+      <c r="R8" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="R8" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="S8" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T8" s="1">
+      <c r="U8" s="1">
         <v>2345</v>
       </c>
-      <c r="U8" s="2" t="s">
+      <c r="V8" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V8" s="1" t="s">
+      <c r="W8" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="W8" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="X8" s="1">
+      <c r="X8" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y8" s="1">
         <v>3452452345</v>
       </c>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="AA8" s="1" t="s">
+      <c r="Z8" s="1"/>
+      <c r="AA8" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB8" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AB8" s="1" t="s">
+      <c r="AC8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="1"/>
       <c r="AF8" s="1"/>
-      <c r="AG8" s="10" t="s">
+      <c r="AG8" s="1"/>
+      <c r="AH8" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="AH8" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI8" s="1">
+      <c r="AI8" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ8" s="1">
         <v>2</v>
       </c>
-      <c r="AJ8" s="1">
+      <c r="AK8" s="1">
         <v>200</v>
       </c>
-      <c r="AK8" s="1">
+      <c r="AL8" s="1">
         <v>3453453451</v>
       </c>
-      <c r="AL8" s="1">
+      <c r="AM8" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM8" s="1" t="s">
+      <c r="AN8" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="AN8" s="1" t="s">
+      <c r="AO8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AO8" s="7">
+      <c r="AP8" s="7">
         <v>12341</v>
       </c>
-      <c r="AP8" s="7">
+      <c r="AQ8" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ8" s="27">
-        <v>326120242</v>
-      </c>
-    </row>
-    <row r="9" spans="1:44" ht="60" x14ac:dyDescent="0.25">
+      <c r="AR8" s="43">
+        <v>326129541</v>
+      </c>
+    </row>
+    <row r="9" spans="1:45" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>357</v>
+        <v>93</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>114</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9" s="4"/>
+        <v>377</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>371</v>
+      </c>
       <c r="E9" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L9" s="1">
+      <c r="G9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="72">
+        <v>47138</v>
+      </c>
+      <c r="K9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="M9" s="1">
         <v>7860</v>
       </c>
-      <c r="M9" s="1"/>
-      <c r="N9" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="O9" s="1" t="s">
+      <c r="N9" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="P9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P9" s="1" t="s">
+      <c r="Q9" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q9" s="1" t="s">
+      <c r="R9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="R9" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="S9" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T9" s="1">
+      <c r="U9" s="1">
         <v>2345</v>
       </c>
-      <c r="U9" s="2" t="s">
+      <c r="V9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V9" s="1" t="s">
+      <c r="W9" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="W9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="X9" s="1">
+      <c r="X9" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y9" s="1">
         <v>3452452345</v>
       </c>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="AA9" s="1" t="s">
+      <c r="Z9" s="1"/>
+      <c r="AA9" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AB9" s="1" t="s">
+      <c r="AC9" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="1"/>
       <c r="AF9" s="1"/>
-      <c r="AG9" s="10" t="s">
+      <c r="AG9" s="1"/>
+      <c r="AH9" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI9" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>200</v>
+      </c>
+      <c r="AL9" s="1">
+        <v>3453453451</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AN9" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="AH9" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI9" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ9" s="1">
-        <v>200</v>
-      </c>
-      <c r="AK9" s="1">
-        <v>3453453451</v>
-      </c>
-      <c r="AL9" s="1">
-        <v>122235821</v>
-      </c>
-      <c r="AM9" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN9" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AO9" s="7">
+      <c r="AO9" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="AP9" s="7">
         <v>12341</v>
       </c>
-      <c r="AP9" s="7">
+      <c r="AQ9" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ9" s="28">
-        <v>326120250</v>
-      </c>
-    </row>
-    <row r="10" spans="1:44" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR9" s="44">
+        <v>326129559</v>
+      </c>
+    </row>
+    <row r="10" spans="1:45" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>218</v>
+        <v>98</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>263</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="4"/>
+        <v>377</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>367</v>
+      </c>
       <c r="E10" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="4" t="s">
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="L10" s="1">
-        <v>2130</v>
-      </c>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O10" s="1" t="s">
+      <c r="J10" s="4"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="M10" s="1">
+        <v>2098</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="P10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P10" s="1" t="s">
+      <c r="Q10" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q10" s="1" t="s">
+      <c r="R10" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="R10" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="S10" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T10" s="1">
+      <c r="U10" s="1">
         <v>2345</v>
       </c>
-      <c r="U10" s="2" t="s">
+      <c r="V10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V10" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="W10" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="X10" s="1">
+        <v>87</v>
+      </c>
+      <c r="X10" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y10" s="1">
         <v>3421562345</v>
       </c>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="10" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA10" s="1" t="s">
+      <c r="Z10" s="1"/>
+      <c r="AA10" s="10" t="s">
+        <v>273</v>
+      </c>
+      <c r="AB10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AB10" s="1" t="s">
+      <c r="AC10" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="1"/>
       <c r="AF10" s="1"/>
-      <c r="AG10" s="10" t="s">
+      <c r="AG10" s="1"/>
+      <c r="AH10" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI10" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>200</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AN10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AH10" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="AI10" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ10" s="1">
-        <v>200</v>
-      </c>
-      <c r="AK10" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AL10" s="1">
-        <v>122235821</v>
-      </c>
-      <c r="AM10" s="1" t="s">
+      <c r="AO10" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="AN10" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="AO10" s="7">
+      <c r="AP10" s="7">
         <v>12341</v>
       </c>
-      <c r="AP10" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AQ10" s="29">
-        <v>326120276</v>
-      </c>
-    </row>
-    <row r="11" spans="1:44" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ10" s="65">
+        <v>326129913</v>
+      </c>
+      <c r="AR10" s="45">
+        <v>326129567</v>
+      </c>
+    </row>
+    <row r="11" spans="1:45" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>303</v>
+        <v>205</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D11" s="4"/>
+        <v>377</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="E11" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="4" t="s">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="10" t="s">
+      <c r="J11" s="4"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="L11" s="1">
-        <v>2098</v>
-      </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O11" s="1" t="s">
+      <c r="M11" s="1">
+        <v>1234</v>
+      </c>
+      <c r="N11" s="1"/>
+      <c r="O11" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="P11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P11" s="1" t="s">
+      <c r="Q11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q11" s="1" t="s">
+      <c r="R11" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="R11" s="1" t="s">
-        <v>360</v>
-      </c>
       <c r="S11" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T11" s="1">
+      <c r="U11" s="1">
         <v>2345</v>
       </c>
-      <c r="U11" s="2" t="s">
+      <c r="V11" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V11" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="W11" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="X11" s="1">
+        <v>99</v>
+      </c>
+      <c r="X11" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y11" s="1">
         <v>2341567878</v>
       </c>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="10" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA11" s="1" t="s">
+      <c r="Z11" s="1"/>
+      <c r="AA11" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="AB11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AB11" s="1" t="s">
+      <c r="AC11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="1"/>
       <c r="AF11" s="1"/>
-      <c r="AG11" s="10" t="s">
-        <v>103</v>
-      </c>
+      <c r="AG11" s="1"/>
       <c r="AH11" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI11" s="1">
+        <v>101</v>
+      </c>
+      <c r="AI11" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ11" s="1">
         <v>2</v>
       </c>
-      <c r="AJ11" s="1">
+      <c r="AK11" s="1">
         <v>101</v>
       </c>
-      <c r="AK11" s="1">
+      <c r="AL11" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AL11" s="1">
+      <c r="AM11" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM11" s="1" t="s">
+      <c r="AN11" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO11" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="AN11" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="AO11" s="7">
+      <c r="AP11" s="7">
         <v>12341</v>
       </c>
-      <c r="AP11" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AQ11" s="30">
-        <v>326120292</v>
-      </c>
-    </row>
-    <row r="12" spans="1:44" ht="62.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ11" s="66">
+        <v>326129921</v>
+      </c>
+      <c r="AR11" s="46">
+        <v>326129575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:45" ht="72" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>217</v>
+        <v>328</v>
+      </c>
+      <c r="B12" s="25" t="s">
+        <v>372</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D12" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>368</v>
+      </c>
       <c r="E12" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="L12" s="1">
-        <v>1234</v>
-      </c>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="O12" s="1" t="s">
+      <c r="G12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="4"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1122</v>
+      </c>
+      <c r="N12" s="1"/>
+      <c r="O12" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="P12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="Q12" s="1" t="s">
-        <v>60</v>
+        <v>365</v>
       </c>
       <c r="R12" s="1" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="S12" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T12" s="1">
+      <c r="U12" s="1">
         <v>2345</v>
       </c>
-      <c r="U12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V12" s="1" t="s">
-        <v>107</v>
+      <c r="V12" s="2" t="s">
+        <v>209</v>
       </c>
       <c r="W12" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="X12" s="1">
+        <v>210</v>
+      </c>
+      <c r="X12" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y12" s="1">
         <v>2341567878</v>
       </c>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="10" t="s">
-        <v>317</v>
-      </c>
-      <c r="AA12" s="1" t="s">
+      <c r="Z12" s="1"/>
+      <c r="AA12" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="AB12" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AB12" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC12" s="1"/>
+      <c r="AC12" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-      <c r="AG12" s="10" t="s">
-        <v>110</v>
+      <c r="AE12" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>12</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>2019</v>
       </c>
       <c r="AH12" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI12" s="1">
+        <v>222</v>
+      </c>
+      <c r="AI12" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ12" s="1">
         <v>2</v>
       </c>
-      <c r="AJ12" s="1">
+      <c r="AK12" s="1">
         <v>101</v>
       </c>
-      <c r="AK12" s="1">
+      <c r="AL12" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AL12" s="1">
+      <c r="AM12" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM12" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="AN12" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO12" s="7">
+        <v>213</v>
+      </c>
+      <c r="AO12" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AP12" s="7">
         <v>12341</v>
       </c>
-      <c r="AP12" s="7">
+      <c r="AQ12" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ12" s="31">
-        <v>326120309</v>
-      </c>
-    </row>
-    <row r="13" spans="1:44" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR12" s="42">
+        <v>326120325</v>
+      </c>
+    </row>
+    <row r="13" spans="1:45" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="4"/>
+        <v>377</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>370</v>
+      </c>
       <c r="E13" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1" t="s">
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1" t="s">
+      <c r="J13" s="4"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L13" s="1">
-        <v>9879</v>
-      </c>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1" t="s">
-        <v>17</v>
-      </c>
+      <c r="M13" s="1">
+        <v>2331</v>
+      </c>
+      <c r="N13" s="1"/>
       <c r="O13" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="P13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="Q13" s="1" t="s">
-        <v>60</v>
+        <v>365</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="S13" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T13" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T13" s="1">
+      <c r="U13" s="1">
         <v>2345</v>
       </c>
-      <c r="U13" s="2" t="s">
+      <c r="V13" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V13" s="1" t="s">
+      <c r="W13" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="X13" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>2341567878</v>
+      </c>
+      <c r="Z13" s="1"/>
+      <c r="AA13" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC13" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD13" s="28"/>
+      <c r="AE13" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>12</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AH13" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI13" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="W13" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="X13" s="1">
-        <v>2341567878</v>
-      </c>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA13" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB13" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-      <c r="AG13" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="AH13" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="AI13" s="1">
+      <c r="AJ13" s="1">
         <v>2</v>
       </c>
-      <c r="AJ13" s="1">
-        <v>1</v>
-      </c>
       <c r="AK13" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL13" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AL13" s="1">
+      <c r="AM13" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
-      <c r="AO13" s="7">
+      <c r="AO13" s="1"/>
+      <c r="AP13" s="7">
         <v>12341</v>
       </c>
-      <c r="AP13" s="7">
+      <c r="AQ13" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ13" s="32">
-        <v>326120317</v>
-      </c>
-    </row>
-    <row r="14" spans="1:44" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR13" s="42">
+        <v>326120333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:45" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>226</v>
+      <c r="B14" s="20" t="s">
+        <v>270</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="4"/>
+        <v>377</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>368</v>
+      </c>
       <c r="E14" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F14" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="L14" s="1">
-        <v>5566</v>
-      </c>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1" t="s">
-        <v>325</v>
-      </c>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="4"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="1">
+        <v>8778</v>
+      </c>
+      <c r="N14" s="1"/>
       <c r="O14" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="P14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="Q14" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="S14" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T14" s="1">
-        <v>2345</v>
-      </c>
-      <c r="U14" s="2" t="s">
+      <c r="U14" s="1">
+        <v>8891</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>2341567878</v>
+      </c>
+      <c r="Z14" s="1"/>
+      <c r="AA14" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD14" s="1"/>
+      <c r="AE14" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>12</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AH14" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="V14" s="1" t="s">
+      <c r="AI14" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="AJ14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK14" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="W14" s="1" t="s">
-        <v>229</v>
-      </c>
-      <c r="X14" s="1">
-        <v>2341567878</v>
-      </c>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="AA14" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB14" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="22" t="s">
-        <v>298</v>
-      </c>
-      <c r="AE14" s="1">
-        <v>12</v>
-      </c>
-      <c r="AF14" s="1">
-        <v>2019</v>
-      </c>
-      <c r="AG14" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="AH14" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="AI14" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ14" s="1">
-        <v>101</v>
-      </c>
-      <c r="AK14" s="1">
+      <c r="AL14" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AL14" s="1">
+      <c r="AM14" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM14" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="AN14" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO14" s="7">
+      <c r="AN14" s="1"/>
+      <c r="AO14" s="1"/>
+      <c r="AP14" s="7">
         <v>12341</v>
       </c>
-      <c r="AP14" s="7">
+      <c r="AQ14" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ14" s="33">
-        <v>326120325</v>
-      </c>
-    </row>
-    <row r="15" spans="1:44" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>220</v>
+      <c r="AR14" s="11"/>
+    </row>
+    <row r="15" spans="1:45" ht="68.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>268</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="4"/>
+      <c r="D15" s="4" t="s">
+        <v>281</v>
+      </c>
       <c r="E15" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F15" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1" t="s">
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L15" s="1">
-        <v>2331</v>
-      </c>
+      <c r="J15" s="4"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P15" s="1" t="s">
-        <v>358</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
       <c r="Q15" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="S15" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T15" s="1">
+      <c r="U15" s="1">
         <v>2345</v>
       </c>
-      <c r="U15" s="2" t="s">
+      <c r="V15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V15" s="1" t="s">
-        <v>236</v>
-      </c>
       <c r="W15" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="X15" s="1">
+        <v>107</v>
+      </c>
+      <c r="X15" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y15" s="1">
         <v>2341567878</v>
       </c>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AA15" s="1" t="s">
+      <c r="Z15" s="1"/>
+      <c r="AA15" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AB15" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC15" s="37"/>
-      <c r="AD15" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="AE15" s="1">
-        <v>12</v>
-      </c>
-      <c r="AF15" s="1">
-        <v>2024</v>
-      </c>
-      <c r="AG15" s="10" t="s">
-        <v>241</v>
-      </c>
+      <c r="AC15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD15" s="1"/>
+      <c r="AE15" s="1"/>
+      <c r="AF15" s="1"/>
+      <c r="AG15" s="1"/>
       <c r="AH15" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="AI15" s="1">
-        <v>2</v>
+        <v>230</v>
+      </c>
+      <c r="AI15" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="AJ15" s="1">
         <v>2</v>
       </c>
       <c r="AK15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AL15" s="1">
+      <c r="AM15" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
-      <c r="AO15" s="7">
+      <c r="AO15" s="1"/>
+      <c r="AP15" s="7">
         <v>12341</v>
       </c>
-      <c r="AP15" s="7">
+      <c r="AQ15" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ15" s="34">
-        <v>326120333</v>
-      </c>
-    </row>
-    <row r="16" spans="1:44" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>247</v>
+      <c r="AR15" s="42">
+        <v>326126042</v>
+      </c>
+    </row>
+    <row r="16" spans="1:45" ht="59.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>358</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>359</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="4"/>
+      <c r="D16" s="4" t="s">
+        <v>368</v>
+      </c>
       <c r="E16" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F16" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="L16" s="1">
-        <v>2233</v>
-      </c>
+      <c r="F16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="4"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P16" s="1" t="s">
-        <v>358</v>
-      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
       <c r="Q16" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="S16" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T16" s="1">
-        <v>2014</v>
-      </c>
-      <c r="U16" s="2" t="s">
+      <c r="U16" s="1">
+        <v>2345</v>
+      </c>
+      <c r="V16" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V16" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="W16" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="X16" s="1">
+        <v>233</v>
+      </c>
+      <c r="X16" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y16" s="1">
         <v>2341567878</v>
       </c>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="AA16" s="1" t="s">
+      <c r="Z16" s="1"/>
+      <c r="AA16" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="AB16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AB16" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AC16" s="1"/>
+      <c r="AC16" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="AD16" s="1"/>
       <c r="AE16" s="1"/>
       <c r="AF16" s="1"/>
-      <c r="AG16" s="10" t="s">
-        <v>119</v>
-      </c>
+      <c r="AG16" s="1"/>
       <c r="AH16" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI16" s="1">
+        <v>234</v>
+      </c>
+      <c r="AI16" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="AJ16" s="1">
         <v>2</v>
       </c>
-      <c r="AJ16" s="1">
-        <v>101</v>
-      </c>
       <c r="AK16" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL16" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AL16" s="1">
+      <c r="AM16" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM16" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="AN16" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="AO16" s="7">
+      <c r="AN16" s="1"/>
+      <c r="AO16" s="1"/>
+      <c r="AP16" s="7">
         <v>12341</v>
       </c>
-      <c r="AP16" s="7">
+      <c r="AQ16" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ16" s="35">
-        <v>326120383</v>
-      </c>
-    </row>
-    <row r="17" spans="1:44" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>311</v>
+      <c r="AR16" s="47">
+        <v>326129632</v>
+      </c>
+    </row>
+    <row r="17" spans="1:45" ht="60" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>360</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>361</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="4"/>
+      <c r="D17" s="4" t="s">
+        <v>368</v>
+      </c>
       <c r="E17" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="F17" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L17" s="1">
-        <v>8778</v>
-      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-      <c r="N17" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P17" s="1" t="s">
-        <v>358</v>
-      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
       <c r="Q17" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="S17" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T17" s="1">
-        <v>8891</v>
-      </c>
-      <c r="U17" s="2" t="s">
+      <c r="U17" s="1">
+        <v>2345</v>
+      </c>
+      <c r="V17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V17" s="1" t="s">
-        <v>249</v>
-      </c>
       <c r="W17" s="1" t="s">
-        <v>250</v>
-      </c>
-      <c r="X17" s="1">
+        <v>236</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y17" s="1">
         <v>2341567878</v>
       </c>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="AA17" s="1" t="s">
+      <c r="Z17" s="1"/>
+      <c r="AA17" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="AB17" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AB17" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC17" s="1"/>
+      <c r="AC17" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="AD17" s="1"/>
       <c r="AE17" s="1"/>
       <c r="AF17" s="1"/>
-      <c r="AG17" s="10" t="s">
-        <v>251</v>
-      </c>
+      <c r="AG17" s="1"/>
       <c r="AH17" s="10" t="s">
         <v>239</v>
       </c>
-      <c r="AI17" s="1">
+      <c r="AI17" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="AJ17" s="1">
         <v>2</v>
       </c>
-      <c r="AJ17" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="AK17" s="1">
+        <v>6</v>
+      </c>
+      <c r="AL17" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AL17" s="1">
+      <c r="AM17" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
-      <c r="AO17" s="7">
+      <c r="AO17" s="1"/>
+      <c r="AP17" s="7">
         <v>12341</v>
       </c>
-      <c r="AP17" s="7">
+      <c r="AQ17" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ17" s="11"/>
-    </row>
-    <row r="18" spans="1:44" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>253</v>
+      <c r="AR17" s="48">
+        <v>326129640</v>
+      </c>
+    </row>
+    <row r="18" spans="1:45" ht="64.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="B18" s="24" t="s">
+        <v>363</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D18" s="4" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="F18" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1" t="s">
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L18" s="1">
-        <v>9876</v>
-      </c>
-      <c r="M18" s="1"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M18" s="1">
+        <v>2112</v>
+      </c>
       <c r="N18" s="1" t="s">
-        <v>325</v>
+        <v>88</v>
       </c>
       <c r="O18" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="P18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="Q18" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="S18" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T18" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T18" s="1">
+      <c r="U18" s="1">
         <v>2345</v>
       </c>
-      <c r="U18" s="2" t="s">
+      <c r="V18" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V18" s="1" t="s">
-        <v>114</v>
-      </c>
       <c r="W18" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="X18" s="1">
+        <v>242</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y18" s="1">
         <v>2341567878</v>
       </c>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA18" s="1" t="s">
+      <c r="Z18" s="1"/>
+      <c r="AA18" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="AB18" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AB18" s="1" t="s">
+      <c r="AC18" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="1"/>
       <c r="AF18" s="1"/>
-      <c r="AG18" s="10" t="s">
-        <v>255</v>
-      </c>
+      <c r="AG18" s="1"/>
       <c r="AH18" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="AI18" s="1">
+        <v>244</v>
+      </c>
+      <c r="AI18" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="AJ18" s="1">
         <v>2</v>
       </c>
-      <c r="AJ18" s="1">
+      <c r="AK18" s="1">
         <v>1</v>
       </c>
-      <c r="AK18" s="1">
+      <c r="AL18" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AL18" s="1">
+      <c r="AM18" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
-      <c r="AO18" s="7">
+      <c r="AO18" s="1"/>
+      <c r="AP18" s="7">
         <v>12341</v>
       </c>
-      <c r="AP18" s="7">
+      <c r="AQ18" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ18" s="43">
-        <v>326126042</v>
-      </c>
-    </row>
-    <row r="19" spans="1:44" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>253</v>
+      <c r="AR18" s="49">
+        <v>326129658</v>
+      </c>
+    </row>
+    <row r="19" spans="1:45" ht="64.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>382</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="4"/>
+      <c r="D19" s="4" t="s">
+        <v>368</v>
+      </c>
       <c r="E19" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="F19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1" t="s">
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="L19" s="1">
-        <v>1212</v>
-      </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1" t="s">
-        <v>325</v>
-      </c>
+      <c r="J19" s="4"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="19" t="s">
+        <v>383</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1122</v>
+      </c>
+      <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="P19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="Q19" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="S19" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T19" s="1">
-        <v>2345</v>
-      </c>
-      <c r="U19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V19" s="1" t="s">
-        <v>258</v>
+      <c r="U19" s="1">
+        <v>2343</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>384</v>
       </c>
       <c r="W19" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="X19" s="1">
-        <v>2341567878</v>
+        <v>233</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="Y19" s="1"/>
-      <c r="Z19" s="10" t="s">
-        <v>257</v>
-      </c>
-      <c r="AA19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB19" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="Z19" s="1"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="1"/>
       <c r="AF19" s="1"/>
-      <c r="AG19" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="AH19" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="AI19" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ19" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK19" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AL19" s="1">
-        <v>122235821</v>
-      </c>
+      <c r="AG19" s="1"/>
+      <c r="AH19" s="10"/>
+      <c r="AI19" s="10"/>
+      <c r="AJ19" s="1"/>
+      <c r="AK19" s="1"/>
+      <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
-      <c r="AO19" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AP19" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AQ19" s="44">
-        <v>326126050</v>
-      </c>
-    </row>
-    <row r="20" spans="1:44" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AO19" s="1"/>
+      <c r="AP19" s="7"/>
+      <c r="AQ19" s="7"/>
+      <c r="AR19" s="49"/>
+    </row>
+    <row r="20" spans="1:45" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>267</v>
+        <v>106</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>302</v>
+        <v>229</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="4"/>
+        <v>377</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>367</v>
+      </c>
       <c r="E20" s="4" t="s">
         <v>39</v>
       </c>
@@ -4997,107 +5096,110 @@
         <v>40</v>
       </c>
       <c r="G20" s="1"/>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I20" s="1"/>
       <c r="J20" s="1"/>
-      <c r="K20" s="10" t="s">
+      <c r="K20" s="1"/>
+      <c r="L20" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L20" s="1">
-        <v>2341</v>
-      </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1" t="s">
-        <v>356</v>
-      </c>
+      <c r="M20" s="1">
+        <v>9876</v>
+      </c>
+      <c r="N20" s="1"/>
       <c r="O20" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="P20" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="Q20" s="1" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="S20" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T20" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T20" s="1">
+      <c r="U20" s="1">
         <v>2345</v>
       </c>
-      <c r="U20" s="2" t="s">
+      <c r="V20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V20" s="1" t="s">
-        <v>261</v>
-      </c>
       <c r="W20" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="X20" s="1">
+        <v>218</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="Y20" s="1">
         <v>2341567878</v>
       </c>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="10" t="s">
-        <v>263</v>
-      </c>
+      <c r="Z20" s="1"/>
       <c r="AA20" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AB20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AB20" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="AC20" s="1"/>
+      <c r="AC20" s="1" t="s">
+        <v>238</v>
+      </c>
       <c r="AD20" s="1"/>
       <c r="AE20" s="1"/>
       <c r="AF20" s="1"/>
-      <c r="AG20" s="10" t="s">
-        <v>265</v>
-      </c>
+      <c r="AG20" s="1"/>
       <c r="AH20" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="AI20" s="1">
+        <v>246</v>
+      </c>
+      <c r="AI20" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="AJ20" s="1">
         <v>2</v>
       </c>
-      <c r="AJ20" s="1">
-        <v>6</v>
-      </c>
       <c r="AK20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL20" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AL20" s="1">
+      <c r="AM20" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM20" s="1"/>
-      <c r="AN20" s="1"/>
-      <c r="AO20" s="7">
+      <c r="AN20" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="AO20" s="1"/>
+      <c r="AP20" s="7">
         <v>12341</v>
       </c>
-      <c r="AP20" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AQ20" s="45">
-        <v>326126068</v>
-      </c>
-    </row>
-    <row r="21" spans="1:44" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ20" s="67">
+        <v>326129947</v>
+      </c>
+      <c r="AR20" s="50">
+        <v>326129666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:45" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>61</v>
+        <v>377</v>
       </c>
       <c r="D21" s="4" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E21" s="4" t="s">
         <v>39</v>
@@ -5106,214 +5208,213 @@
         <v>40</v>
       </c>
       <c r="G21" s="1"/>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I21" s="1"/>
       <c r="J21" s="1"/>
-      <c r="K21" s="10" t="s">
+      <c r="K21" s="1"/>
+      <c r="L21" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L21" s="1">
+      <c r="M21" s="1">
         <v>9879</v>
       </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1" t="s">
-        <v>325</v>
-      </c>
+      <c r="N21" s="1"/>
       <c r="O21" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="P21" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="Q21" s="1" t="s">
-        <v>359</v>
+        <v>59</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="S21" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T21" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T21" s="1">
+      <c r="U21" s="1">
         <v>2345</v>
       </c>
-      <c r="U21" s="2" t="s">
+      <c r="V21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V21" s="1" t="s">
-        <v>270</v>
-      </c>
       <c r="W21" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="X21" s="1">
+        <v>87</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y21" s="1">
         <v>2341567878</v>
       </c>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="AA21" s="1" t="s">
+      <c r="Z21" s="1"/>
+      <c r="AA21" s="20" t="s">
+        <v>278</v>
+      </c>
+      <c r="AB21" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AB21" s="1" t="s">
+      <c r="AC21" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="1"/>
       <c r="AF21" s="1"/>
-      <c r="AG21" s="10" t="s">
-        <v>272</v>
-      </c>
+      <c r="AG21" s="1"/>
       <c r="AH21" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="AI21" s="1">
+        <v>252</v>
+      </c>
+      <c r="AI21" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="AJ21" s="1">
         <v>2</v>
       </c>
-      <c r="AJ21" s="1">
-        <v>1</v>
-      </c>
       <c r="AK21" s="1">
+        <v>101</v>
+      </c>
+      <c r="AL21" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AL21" s="1">
+      <c r="AM21" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM21" s="1"/>
-      <c r="AN21" s="1"/>
-      <c r="AO21" s="7">
+      <c r="AN21" s="73" t="s">
+        <v>395</v>
+      </c>
+      <c r="AO21" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AP21" s="7">
         <v>12341</v>
       </c>
-      <c r="AP21" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AQ21" s="46">
-        <v>326126076</v>
-      </c>
-    </row>
-    <row r="22" spans="1:44" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ21" s="68">
+        <v>326129955</v>
+      </c>
+      <c r="AR21" s="11"/>
+    </row>
+    <row r="22" spans="1:45" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>361</v>
+        <v>332</v>
+      </c>
+      <c r="B22" s="25" t="s">
+        <v>333</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="4"/>
+        <v>377</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>370</v>
+      </c>
       <c r="E22" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G22" s="1"/>
+      <c r="G22" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="H22" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I22" s="1"/>
       <c r="J22" s="1"/>
-      <c r="K22" s="10" t="s">
+      <c r="K22" s="1"/>
+      <c r="L22" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="L22" s="1">
-        <v>2013</v>
-      </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="O22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P22" s="1" t="s">
-        <v>358</v>
-      </c>
+      <c r="M22" s="1">
+        <v>2323</v>
+      </c>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
       <c r="Q22" s="1" t="s">
-        <v>359</v>
+        <v>59</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="S22" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T22" s="1">
+      <c r="U22" s="1">
         <v>2345</v>
       </c>
-      <c r="U22" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="X22" s="1">
-        <v>2341567878</v>
-      </c>
+      <c r="V22" s="2"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
       <c r="Y22" s="1"/>
-      <c r="Z22" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="AA22" s="1" t="s">
+      <c r="Z22" s="1"/>
+      <c r="AA22" s="10" t="s">
+        <v>316</v>
+      </c>
+      <c r="AB22" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AB22" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="AC22" s="1"/>
+      <c r="AC22" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="AD22" s="1"/>
-      <c r="AE22" s="1"/>
+      <c r="AE22" s="21"/>
       <c r="AF22" s="1"/>
-      <c r="AG22" s="10" t="s">
-        <v>274</v>
-      </c>
+      <c r="AG22" s="1"/>
       <c r="AH22" s="10" t="s">
-        <v>273</v>
-      </c>
-      <c r="AI22" s="1">
-        <v>2</v>
+        <v>386</v>
+      </c>
+      <c r="AI22" s="10" t="s">
+        <v>221</v>
       </c>
       <c r="AJ22" s="1">
         <v>2</v>
       </c>
       <c r="AK22" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL22" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AL22" s="1">
+      <c r="AM22" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM22" s="1"/>
-      <c r="AN22" s="1"/>
-      <c r="AO22" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AP22" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AQ22" s="47">
-        <v>326126109</v>
-      </c>
-    </row>
-    <row r="23" spans="1:44" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN22" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="AO22" s="1"/>
+      <c r="AP22" s="1"/>
+      <c r="AQ22" s="69">
+        <v>326129963</v>
+      </c>
+      <c r="AR22" s="33"/>
+      <c r="AS22" s="10" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="23" spans="1:45" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>275</v>
+        <v>247</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>61</v>
+        <v>377</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="E23" s="4" t="s">
         <v>39</v>
@@ -5322,109 +5423,119 @@
         <v>42</v>
       </c>
       <c r="G23" s="1"/>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="1"/>
+      <c r="I23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="L23" s="1">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="M23" s="1">
         <v>6540</v>
       </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1" t="s">
-        <v>325</v>
-      </c>
+      <c r="N23" s="1"/>
       <c r="O23" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="P23" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="Q23" s="1" t="s">
-        <v>359</v>
+        <v>59</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="S23" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T23" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T23" s="1">
+      <c r="U23" s="1">
         <v>2345</v>
       </c>
-      <c r="U23" s="2" t="s">
+      <c r="V23" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V23" s="1" t="s">
-        <v>276</v>
-      </c>
       <c r="W23" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="X23" s="1">
-        <v>2341567878</v>
-      </c>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="AA23" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>8907451234</v>
+      </c>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="10" t="s">
+        <v>321</v>
+      </c>
+      <c r="AB23" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AB23" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="AC23" s="1"/>
-      <c r="AD23" s="1"/>
-      <c r="AE23" s="1"/>
-      <c r="AF23" s="1"/>
-      <c r="AG23" s="10" t="s">
-        <v>280</v>
+      <c r="AC23" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD23" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="AE23" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>12</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>2024</v>
       </c>
       <c r="AH23" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI23" s="1">
+        <v>72</v>
+      </c>
+      <c r="AI23" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="AJ23" s="1">
         <v>2</v>
       </c>
-      <c r="AJ23" s="1">
-        <v>101</v>
-      </c>
       <c r="AK23" s="1">
+        <v>100</v>
+      </c>
+      <c r="AL23" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AL23" s="1">
+      <c r="AM23" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM23" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="AN23" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="AO23" s="7">
+        <v>305</v>
+      </c>
+      <c r="AO23" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="AP23" s="1">
         <v>12341</v>
       </c>
-      <c r="AP23" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AQ23" s="11"/>
-    </row>
-    <row r="24" spans="1:44" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ23" s="7"/>
+      <c r="AR23" s="33"/>
+      <c r="AS23" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:45" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>281</v>
+        <v>250</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>312</v>
+        <v>271</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>61</v>
+        <v>377</v>
       </c>
       <c r="D24" s="4" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="E24" s="4" t="s">
         <v>39</v>
@@ -5433,339 +5544,367 @@
         <v>42</v>
       </c>
       <c r="G24" s="1"/>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="1"/>
+      <c r="I24" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="I24" s="1"/>
       <c r="J24" s="1"/>
-      <c r="K24" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="L24" s="1">
+      <c r="K24" s="1"/>
+      <c r="L24" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="M24" s="1">
         <v>5673</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="N24" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="O24" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R24" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S24" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U24" s="1">
+        <v>2345</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W24" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>8907451234</v>
+      </c>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB24" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC24" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="AD24" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AE24" s="21" t="s">
+        <v>364</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>12</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>2019</v>
+      </c>
+      <c r="AH24" s="10" t="s">
         <v>325</v>
       </c>
-      <c r="O24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P24" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q24" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="R24" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="S24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T24" s="1">
-        <v>2345</v>
-      </c>
-      <c r="U24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V24" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="W24" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="X24" s="1">
-        <v>2341567878</v>
-      </c>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="AA24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB24" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="AC24" s="1"/>
-      <c r="AD24" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="AE24" s="1">
-        <v>12</v>
-      </c>
-      <c r="AF24" s="1">
-        <v>2019</v>
-      </c>
-      <c r="AG24" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="AH24" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI24" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ24" s="1">
-        <v>101</v>
-      </c>
+      <c r="AI24" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="AJ24" s="1"/>
       <c r="AK24" s="1">
+        <v>15</v>
+      </c>
+      <c r="AL24" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AL24" s="1">
+      <c r="AM24" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM24" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="AN24" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO24" s="7">
+        <v>305</v>
+      </c>
+      <c r="AO24" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="AP24" s="1">
         <v>12341</v>
       </c>
-      <c r="AP24" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AQ24" s="11"/>
-    </row>
-    <row r="25" spans="1:44" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AQ24" s="7"/>
+      <c r="AR24" s="33"/>
+      <c r="AS24" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="25" spans="1:45" ht="81.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>287</v>
+        <v>95</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" s="4"/>
+        <v>377</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>367</v>
+      </c>
       <c r="E25" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1" t="s">
+      <c r="G25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H25" s="1"/>
+      <c r="I25" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I25" s="1"/>
       <c r="J25" s="1"/>
-      <c r="K25" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="L25" s="1">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="M25" s="1">
         <v>2130</v>
       </c>
-      <c r="M25" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="O25" s="1" t="s">
+      <c r="N25" s="1"/>
+      <c r="O25" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="P25" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="Q25" s="1" t="s">
-        <v>359</v>
+        <v>59</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="S25" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T25" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T25" s="1">
-        <v>2345</v>
-      </c>
-      <c r="U25" s="2" t="s">
+      <c r="U25" s="1">
+        <v>2012</v>
+      </c>
+      <c r="V25" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V25" s="1" t="s">
-        <v>88</v>
-      </c>
       <c r="W25" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>3452452345</v>
+      </c>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="AB25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC25" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD25" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="X25" s="1">
-        <v>2341567878</v>
-      </c>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="AA25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC25" s="1"/>
-      <c r="AD25" s="1"/>
-      <c r="AE25" s="1"/>
-      <c r="AF25" s="1"/>
-      <c r="AG25" s="10" t="s">
-        <v>289</v>
+      <c r="AE25" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>12</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>2024</v>
       </c>
       <c r="AH25" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI25" s="1">
+        <v>76</v>
+      </c>
+      <c r="AI25" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="AJ25" s="1">
         <v>2</v>
       </c>
-      <c r="AJ25" s="1">
-        <v>101</v>
-      </c>
       <c r="AK25" s="1">
-        <v>1234567890</v>
+        <v>200</v>
       </c>
       <c r="AL25" s="1">
+        <v>3453453451</v>
+      </c>
+      <c r="AM25" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM25" s="1" t="s">
-        <v>91</v>
-      </c>
       <c r="AN25" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="AO25" s="7">
+        <v>77</v>
+      </c>
+      <c r="AO25" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AP25" s="7">
         <v>12341</v>
       </c>
-      <c r="AP25" s="7">
+      <c r="AQ25" s="7">
         <v>22222</v>
       </c>
-      <c r="AQ25" s="11"/>
-    </row>
-    <row r="26" spans="1:44" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AR25" s="34"/>
+      <c r="AS25" s="1"/>
+    </row>
+    <row r="26" spans="1:45" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>290</v>
+        <v>335</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>336</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="4"/>
+        <v>377</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="E26" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F26" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1" t="s">
+      <c r="F26" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="I26" s="1"/>
       <c r="J26" s="1"/>
-      <c r="K26" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="L26" s="1">
-        <v>2112</v>
-      </c>
-      <c r="M26" s="1" t="s">
-        <v>89</v>
+      <c r="K26" s="1"/>
+      <c r="L26" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="M26" s="1">
+        <v>2323</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>356</v>
+        <v>285</v>
       </c>
       <c r="O26" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="P26" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P26" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q26" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="R26" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="S26" s="1" t="s">
+      <c r="Q26" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="R26" s="35" t="s">
+        <v>60</v>
+      </c>
+      <c r="S26" s="35" t="s">
+        <v>313</v>
+      </c>
+      <c r="T26" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="T26" s="1">
-        <v>2345</v>
-      </c>
-      <c r="U26" s="2" t="s">
+      <c r="U26" s="35">
+        <v>1122</v>
+      </c>
+      <c r="V26" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="V26" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="W26" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="X26" s="1">
-        <v>2341567878</v>
-      </c>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="AA26" s="1" t="s">
+      <c r="W26" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>3452452345</v>
+      </c>
+      <c r="Z26" s="35">
+        <v>2213331144</v>
+      </c>
+      <c r="AA26" s="20" t="s">
+        <v>272</v>
+      </c>
+      <c r="AB26" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="AB26" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="AC26" s="1"/>
-      <c r="AD26" s="1"/>
-      <c r="AE26" s="1"/>
-      <c r="AF26" s="1"/>
-      <c r="AG26" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="AH26" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="AI26" s="1">
+      <c r="AC26" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD26" s="35"/>
+      <c r="AE26" s="21" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF26" s="35">
+        <v>12</v>
+      </c>
+      <c r="AG26" s="35">
+        <v>2024</v>
+      </c>
+      <c r="AH26" s="37" t="s">
+        <v>334</v>
+      </c>
+      <c r="AI26" s="38" t="s">
+        <v>338</v>
+      </c>
+      <c r="AJ26" s="35">
         <v>2</v>
       </c>
-      <c r="AJ26" s="1">
-        <v>101</v>
-      </c>
-      <c r="AK26" s="1">
-        <v>1234567890</v>
-      </c>
+      <c r="AK26" s="35"/>
       <c r="AL26" s="1">
+        <v>3453453451</v>
+      </c>
+      <c r="AM26" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM26" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="AN26" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AO26" s="7">
+        <v>77</v>
+      </c>
+      <c r="AO26" s="37" t="s">
+        <v>394</v>
+      </c>
+      <c r="AP26" s="7">
         <v>12341</v>
       </c>
-      <c r="AP26" s="7">
+      <c r="AQ26" s="39">
         <v>22222</v>
       </c>
-      <c r="AQ26" s="11"/>
-    </row>
-    <row r="27" spans="1:44" ht="45" x14ac:dyDescent="0.25">
+      <c r="AR26" s="40"/>
+      <c r="AS26" s="10" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="27" spans="1:45" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>365</v>
-      </c>
-      <c r="B27" s="26" t="s">
-        <v>366</v>
+        <v>96</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>269</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>61</v>
+        <v>377</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>323</v>
+        <v>281</v>
       </c>
       <c r="E27" s="4" t="s">
         <v>39</v>
@@ -5773,909 +5912,1114 @@
       <c r="F27" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M27" s="1">
+        <v>7896</v>
+      </c>
+      <c r="N27" s="1"/>
+      <c r="O27" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="R27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="S27" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U27" s="1">
+        <v>1122</v>
+      </c>
+      <c r="V27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>3452452345</v>
+      </c>
+      <c r="Z27" s="1"/>
+      <c r="AA27" s="10" t="s">
+        <v>275</v>
+      </c>
+      <c r="AB27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC27" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD27" s="1"/>
+      <c r="AE27" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF27" s="1">
+        <v>12</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AH27" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="AI27" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>101</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>3453453451</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AN27" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="AO27" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AP27" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AQ27" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AR27" s="41"/>
+      <c r="AS27" s="1"/>
+    </row>
+    <row r="28" spans="1:45" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="54" t="s">
+        <v>373</v>
+      </c>
+      <c r="B28" s="57" t="s">
+        <v>378</v>
+      </c>
+      <c r="C28" s="54" t="s">
+        <v>377</v>
+      </c>
+      <c r="D28" s="52" t="s">
+        <v>282</v>
+      </c>
+      <c r="E28" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="52" t="s">
+        <v>40</v>
+      </c>
+      <c r="G28" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="H27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L27" s="1">
-        <v>2323</v>
-      </c>
-      <c r="M27" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="N27" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="O27" s="1" t="s">
+      <c r="H28" s="52"/>
+      <c r="I28" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="56" t="s">
+        <v>393</v>
+      </c>
+      <c r="M28" s="52">
+        <v>2112</v>
+      </c>
+      <c r="N28" s="52" t="s">
+        <v>285</v>
+      </c>
+      <c r="O28" s="52" t="s">
+        <v>343</v>
+      </c>
+      <c r="P28" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="P27" s="48" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q27" s="48" t="s">
-        <v>359</v>
-      </c>
-      <c r="R27" s="48" t="s">
-        <v>33</v>
-      </c>
-      <c r="S27" s="48" t="s">
+      <c r="Q28" s="63" t="s">
+        <v>59</v>
+      </c>
+      <c r="R28" s="63" t="s">
+        <v>60</v>
+      </c>
+      <c r="S28" s="52" t="s">
+        <v>313</v>
+      </c>
+      <c r="T28" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="T27" s="48">
-        <v>1122</v>
-      </c>
-      <c r="U27" s="49" t="s">
+      <c r="U28" s="52">
+        <v>2345</v>
+      </c>
+      <c r="V28" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="V27" s="48" t="s">
-        <v>367</v>
-      </c>
-      <c r="W27" s="48" t="s">
+      <c r="W28" s="52" t="s">
+        <v>356</v>
+      </c>
+      <c r="X28" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y28" s="52">
+        <v>2341567878</v>
+      </c>
+      <c r="Z28" s="52"/>
+      <c r="AA28" s="56" t="s">
+        <v>357</v>
+      </c>
+      <c r="AB28" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC28" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD28" s="52"/>
+      <c r="AE28" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>12</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AH28" s="56" t="s">
+        <v>345</v>
+      </c>
+      <c r="AI28" s="62" t="s">
+        <v>390</v>
+      </c>
+      <c r="AJ28" s="52">
+        <v>2</v>
+      </c>
+      <c r="AK28" s="52">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="52">
+        <v>1234567890</v>
+      </c>
+      <c r="AM28" s="52">
+        <v>122235821</v>
+      </c>
+      <c r="AN28" s="52" t="s">
+        <v>254</v>
+      </c>
+      <c r="AO28" s="52" t="s">
+        <v>255</v>
+      </c>
+      <c r="AP28" s="55">
+        <v>12341</v>
+      </c>
+      <c r="AQ28" s="55">
+        <v>22222</v>
+      </c>
+      <c r="AR28" s="58" t="s">
+        <v>379</v>
+      </c>
+      <c r="AS28" s="1"/>
+    </row>
+    <row r="29" spans="1:45" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>377</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>368</v>
-      </c>
-      <c r="X27" s="1">
-        <v>3452452345</v>
-      </c>
-      <c r="Y27" s="48"/>
-      <c r="Z27" s="50" t="s">
-        <v>369</v>
-      </c>
-      <c r="AA27" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB27" s="48" t="s">
-        <v>233</v>
-      </c>
-      <c r="AC27" s="48"/>
-      <c r="AD27" s="21" t="s">
-        <v>298</v>
-      </c>
-      <c r="AE27" s="1">
-        <v>12</v>
-      </c>
-      <c r="AF27" s="1">
-        <v>2024</v>
-      </c>
-      <c r="AG27" s="50" t="s">
-        <v>370</v>
-      </c>
-      <c r="AH27" s="51" t="s">
-        <v>371</v>
-      </c>
-      <c r="AI27" s="48">
-        <v>2</v>
-      </c>
-      <c r="AJ27" s="48">
-        <v>1</v>
-      </c>
-      <c r="AK27" s="1">
-        <v>3453453451</v>
-      </c>
-      <c r="AL27" s="1">
-        <v>122235821</v>
-      </c>
-      <c r="AM27" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="AO27" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AP27" s="52"/>
-      <c r="AQ27" s="53"/>
-      <c r="AR27" s="1"/>
-    </row>
-    <row r="28" spans="1:44" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>380</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>381</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="G28" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L28" s="1">
-        <v>2112</v>
-      </c>
-      <c r="M28" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="N28" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="O28" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="P28" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q28" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="R28" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T28" s="1">
-        <v>2345</v>
-      </c>
-      <c r="U28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V28" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="W28" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="X28" s="1">
-        <v>2341567878</v>
-      </c>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="20" t="s">
-        <v>319</v>
-      </c>
-      <c r="AA28" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB28" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="AC28" s="1"/>
-      <c r="AD28" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="AE28" s="1"/>
-      <c r="AF28" s="1"/>
-      <c r="AG28" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="AH28" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="AI28" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ28" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK28" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AL28" s="1">
-        <v>122235821</v>
-      </c>
-      <c r="AM28" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AN28" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AO28" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AP28" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AQ28" s="42"/>
-      <c r="AR28" s="1"/>
-    </row>
-    <row r="29" spans="1:44" ht="75" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>372</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>384</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>324</v>
       </c>
       <c r="E29" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="4" t="s">
         <v>40</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I29" s="1"/>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="J29" s="1"/>
-      <c r="K29" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="L29" s="1">
-        <v>2112</v>
-      </c>
-      <c r="M29" s="1" t="s">
-        <v>327</v>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="M29" s="1">
+        <v>7896</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="O29" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="P29" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P29" s="1" t="s">
+      <c r="Q29" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q29" s="1" t="s">
+      <c r="R29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="R29" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="S29" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T29" s="1">
+      <c r="U29" s="1">
         <v>2345</v>
       </c>
-      <c r="U29" s="2" t="s">
+      <c r="V29" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V29" s="1" t="s">
-        <v>375</v>
-      </c>
       <c r="W29" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="X29" s="1">
+        <v>344</v>
+      </c>
+      <c r="X29" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y29" s="1">
         <v>2341567878</v>
       </c>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="10" t="s">
+      <c r="Z29" s="1"/>
+      <c r="AA29" s="20" t="s">
+        <v>277</v>
+      </c>
+      <c r="AB29" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC29" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AD29" s="1"/>
+      <c r="AE29" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>12</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>2024</v>
+      </c>
+      <c r="AH29" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="AI29" s="10" t="s">
+        <v>221</v>
+      </c>
+      <c r="AJ29" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AN29" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AO29" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AP29" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AQ29" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AR29" s="31"/>
+      <c r="AS29" s="1"/>
+    </row>
+    <row r="30" spans="1:45" ht="56.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>312</v>
+      </c>
+      <c r="C30" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="AA29" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB29" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC29" s="1"/>
-      <c r="AD29" s="1"/>
-      <c r="AE29" s="1"/>
-      <c r="AF29" s="1"/>
-      <c r="AG29" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="AH29" s="10" t="s">
-        <v>379</v>
-      </c>
-      <c r="AI29" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ29" s="1">
-        <v>3</v>
-      </c>
-      <c r="AK29" s="1"/>
-      <c r="AL29" s="1"/>
-      <c r="AM29" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AN29" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AO29" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AP29" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AQ29" s="42"/>
-      <c r="AR29" s="1"/>
-    </row>
-    <row r="30" spans="1:44" ht="75" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>385</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>386</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>324</v>
+      <c r="D30" s="4" t="s">
+        <v>281</v>
       </c>
       <c r="E30" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="I30" s="1"/>
+      <c r="F30" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="J30" s="1"/>
-      <c r="K30" s="10" t="s">
-        <v>373</v>
-      </c>
-      <c r="L30" s="1">
-        <v>2112</v>
-      </c>
-      <c r="M30" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="N30" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="O30" s="1" t="s">
+      <c r="K30" s="1"/>
+      <c r="L30" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M30" s="1">
+        <v>7860</v>
+      </c>
+      <c r="N30" s="1"/>
+      <c r="O30" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="P30" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P30" s="1" t="s">
+      <c r="Q30" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="Q30" s="1" t="s">
+      <c r="R30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="R30" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="S30" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T30" s="1">
+      <c r="U30" s="1">
         <v>2345</v>
       </c>
-      <c r="U30" s="2" t="s">
+      <c r="V30" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V30" s="1" t="s">
-        <v>387</v>
-      </c>
       <c r="W30" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="X30" s="1">
+        <v>349</v>
+      </c>
+      <c r="X30" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y30" s="1">
         <v>2341567878</v>
       </c>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="AA30" s="1" t="s">
+      <c r="Z30" s="1"/>
+      <c r="AA30" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="AB30" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AB30" s="1" t="s">
+      <c r="AC30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="1"/>
       <c r="AF30" s="1"/>
-      <c r="AG30" s="10" t="s">
-        <v>378</v>
-      </c>
+      <c r="AG30" s="1"/>
       <c r="AH30" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="AI30" s="10" t="s">
         <v>389</v>
       </c>
-      <c r="AI30" s="1">
+      <c r="AJ30" s="1">
         <v>2</v>
       </c>
-      <c r="AJ30" s="1">
-        <v>10</v>
-      </c>
-      <c r="AK30" s="1"/>
+      <c r="AK30" s="1">
+        <v>3</v>
+      </c>
       <c r="AL30" s="1"/>
-      <c r="AM30" s="1" t="s">
-        <v>293</v>
-      </c>
+      <c r="AM30" s="1"/>
       <c r="AN30" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AO30" s="7">
+        <v>254</v>
+      </c>
+      <c r="AO30" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AP30" s="7">
         <v>12341</v>
       </c>
-      <c r="AP30" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AQ30" s="42"/>
-      <c r="AR30" s="1"/>
-    </row>
-    <row r="31" spans="1:44" ht="135" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>61</v>
+      <c r="AQ30" s="70">
+        <v>326129989</v>
+      </c>
+      <c r="AR30" s="31"/>
+      <c r="AS30" s="1"/>
+    </row>
+    <row r="31" spans="1:45" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="E31" s="4" t="s">
+        <v>282</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>39</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>40</v>
+        <v>224</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H31" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="J31" s="1"/>
-      <c r="K31" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="L31" s="1">
+      <c r="K31" s="1"/>
+      <c r="L31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="M31" s="1">
         <v>2112</v>
       </c>
-      <c r="M31" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="N31" s="1" t="s">
-        <v>374</v>
+        <v>285</v>
       </c>
       <c r="O31" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="P31" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>358</v>
-      </c>
       <c r="Q31" s="1" t="s">
-        <v>359</v>
+        <v>59</v>
       </c>
       <c r="R31" s="1" t="s">
-        <v>360</v>
+        <v>60</v>
       </c>
       <c r="S31" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="T31" s="1">
+      <c r="U31" s="1">
         <v>2345</v>
       </c>
-      <c r="U31" s="2" t="s">
+      <c r="V31" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="V31" s="1" t="s">
-        <v>393</v>
-      </c>
       <c r="W31" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="X31" s="1">
+        <v>356</v>
+      </c>
+      <c r="X31" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y31" s="1">
         <v>2341567878</v>
       </c>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA31" s="1" t="s">
+      <c r="Z31" s="1"/>
+      <c r="AA31" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="AB31" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AB31" s="1" t="s">
+      <c r="AC31" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="1"/>
       <c r="AF31" s="1"/>
-      <c r="AG31" s="10" t="s">
-        <v>378</v>
-      </c>
+      <c r="AG31" s="1"/>
       <c r="AH31" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="AI31" s="1">
+        <v>345</v>
+      </c>
+      <c r="AI31" s="10" t="s">
+        <v>390</v>
+      </c>
+      <c r="AJ31" s="1">
         <v>2</v>
       </c>
-      <c r="AJ31" s="1">
+      <c r="AK31" s="1">
         <v>1</v>
       </c>
-      <c r="AK31" s="1">
+      <c r="AL31" s="1">
         <v>1234567890</v>
       </c>
-      <c r="AL31" s="1">
+      <c r="AM31" s="1">
         <v>122235821</v>
       </c>
-      <c r="AM31" s="1" t="s">
-        <v>293</v>
-      </c>
       <c r="AN31" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AO31" s="7">
+        <v>254</v>
+      </c>
+      <c r="AO31" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AP31" s="7">
         <v>12341</v>
       </c>
-      <c r="AP31" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AQ31" s="42" t="s">
-        <v>397</v>
-      </c>
-      <c r="AR31" s="1"/>
-    </row>
-    <row r="32" spans="1:44" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>401</v>
+      <c r="AQ31" s="71">
+        <v>326129997</v>
+      </c>
+      <c r="AR31" s="31"/>
+      <c r="AS31" s="1"/>
+    </row>
+    <row r="32" spans="1:45" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>341</v>
+      </c>
+      <c r="B32" s="25" t="s">
+        <v>342</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>308</v>
+        <v>61</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>243</v>
+        <v>40</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H32" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J32" s="1"/>
-      <c r="K32" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="L32" s="1">
+      <c r="K32" s="1"/>
+      <c r="L32" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M32" s="1">
         <v>2112</v>
       </c>
-      <c r="M32" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="N32" s="1" t="s">
-        <v>356</v>
+        <v>285</v>
       </c>
       <c r="O32" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="P32" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q32" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="R32" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="S32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T32" s="1">
-        <v>2345</v>
-      </c>
-      <c r="U32" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V32" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="W32" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="X32" s="1">
-        <v>2341567878</v>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="Y32" s="1"/>
-      <c r="Z32" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="AA32" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB32" s="1" t="s">
-        <v>118</v>
-      </c>
+      <c r="Z32" s="1"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
-      <c r="AD32" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="AE32" s="1">
-        <v>12</v>
-      </c>
-      <c r="AF32" s="1">
-        <v>2019</v>
-      </c>
-      <c r="AG32" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="AH32" s="10" t="s">
-        <v>389</v>
-      </c>
-      <c r="AI32" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ32" s="1">
-        <v>10</v>
-      </c>
+      <c r="AD32" s="1"/>
+      <c r="AE32" s="1"/>
+      <c r="AF32" s="1"/>
+      <c r="AG32" s="1"/>
+      <c r="AH32" s="10"/>
+      <c r="AI32" s="10"/>
+      <c r="AJ32" s="1"/>
       <c r="AK32" s="1"/>
       <c r="AL32" s="1"/>
-      <c r="AM32" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AN32" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AO32" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AP32" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AQ32" s="42"/>
-      <c r="AR32" s="1"/>
-    </row>
-    <row r="33" spans="1:44" ht="135" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>391</v>
+      <c r="AM32" s="1"/>
+      <c r="AN32" s="1"/>
+      <c r="AO32" s="1"/>
+      <c r="AP32" s="7"/>
+      <c r="AQ32" s="7"/>
+      <c r="AR32" s="31"/>
+      <c r="AS32" s="1"/>
+    </row>
+    <row r="33" spans="1:45" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>346</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>347</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>61</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>324</v>
+        <v>368</v>
       </c>
       <c r="E33" s="4" t="s">
         <v>39</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>243</v>
+        <v>40</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="1"/>
+      <c r="I33" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="I33" s="1"/>
       <c r="J33" s="1"/>
-      <c r="K33" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="L33" s="1">
+      <c r="K33" s="1"/>
+      <c r="L33" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="M33" s="1">
         <v>2112</v>
       </c>
-      <c r="M33" s="1" t="s">
-        <v>327</v>
-      </c>
       <c r="N33" s="1" t="s">
-        <v>374</v>
+        <v>285</v>
       </c>
       <c r="O33" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="P33" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="P33" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q33" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="R33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S33" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T33" s="1">
-        <v>2345</v>
-      </c>
-      <c r="U33" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="V33" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="W33" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="X33" s="1">
-        <v>2341567878</v>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="Y33" s="1"/>
-      <c r="Z33" s="10" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA33" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC33" s="1"/>
+      <c r="Z33" s="1"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="1"/>
+      <c r="AC33" s="1" t="s">
+        <v>215</v>
+      </c>
       <c r="AD33" s="1"/>
       <c r="AE33" s="1"/>
       <c r="AF33" s="1"/>
-      <c r="AG33" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="AH33" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="AI33" s="1">
-        <v>2</v>
-      </c>
-      <c r="AJ33" s="1">
-        <v>1</v>
-      </c>
-      <c r="AK33" s="1">
-        <v>1234567890</v>
-      </c>
-      <c r="AL33" s="1">
-        <v>122235821</v>
-      </c>
-      <c r="AM33" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="AN33" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="AO33" s="7">
-        <v>12341</v>
-      </c>
-      <c r="AP33" s="7">
-        <v>22222</v>
-      </c>
-      <c r="AQ33" s="42" t="s">
-        <v>397</v>
-      </c>
-      <c r="AR33" s="1"/>
-    </row>
-    <row r="34" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="A34" s="4"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="4"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="AG33" s="1"/>
+      <c r="AH33" s="10"/>
+      <c r="AI33" s="10"/>
+      <c r="AJ33" s="1"/>
+      <c r="AK33" s="1"/>
+      <c r="AL33" s="1"/>
+      <c r="AM33" s="1"/>
+      <c r="AN33" s="1"/>
+      <c r="AO33" s="1"/>
+      <c r="AP33" s="7"/>
+      <c r="AQ33" s="7"/>
+      <c r="AR33" s="31"/>
+      <c r="AS33" s="1"/>
+    </row>
+    <row r="34" spans="1:45" ht="56.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="B34" s="25" t="s">
+        <v>352</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
+      <c r="I34" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="J34" s="1"/>
-      <c r="K34" s="10"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="2"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="10"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="M34" s="1">
+        <v>2112</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U34" s="1">
+        <v>2345</v>
+      </c>
+      <c r="V34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="X34" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>2341567878</v>
+      </c>
+      <c r="Z34" s="1"/>
+      <c r="AA34" s="10" t="s">
+        <v>279</v>
+      </c>
+      <c r="AB34" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC34" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="AD34" s="1"/>
       <c r="AE34" s="1"/>
       <c r="AF34" s="1"/>
-      <c r="AG34" s="10"/>
-      <c r="AH34" s="10"/>
-      <c r="AI34" s="1"/>
-      <c r="AJ34" s="1"/>
-      <c r="AK34" s="1"/>
-      <c r="AL34" s="1"/>
-      <c r="AM34" s="1"/>
-      <c r="AN34" s="1"/>
-      <c r="AO34" s="7"/>
-      <c r="AP34" s="7"/>
-      <c r="AQ34" s="42"/>
-      <c r="AR34" s="1"/>
-    </row>
-    <row r="35" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="M35" s="1" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="36" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="M36" s="1" t="s">
+      <c r="AG34" s="1"/>
+      <c r="AH34" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="AI34" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="AJ34" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK34" s="1">
         <v>101</v>
       </c>
-    </row>
-    <row r="37" spans="1:44" x14ac:dyDescent="0.25">
+      <c r="AL34" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>122235821</v>
+      </c>
+      <c r="AN34" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AO34" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AP34" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AQ34" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AR34" s="31"/>
+      <c r="AS34" s="1"/>
+    </row>
+    <row r="35" spans="1:45" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="24" t="s">
+        <v>354</v>
+      </c>
+      <c r="B35" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="10" t="s">
+        <v>317</v>
+      </c>
+      <c r="M35" s="1">
+        <v>2112</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="P35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q35" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="R35" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="S35" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U35" s="1">
+        <v>2345</v>
+      </c>
+      <c r="V35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="X35" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>2341567878</v>
+      </c>
+      <c r="Z35" s="1"/>
+      <c r="AA35" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="AB35" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AC35" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AD35" s="1"/>
+      <c r="AE35" s="1">
+        <v>6011308744444440</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>12</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>2019</v>
+      </c>
+      <c r="AH35" s="10" t="s">
+        <v>345</v>
+      </c>
+      <c r="AI35" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="AJ35" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>10</v>
+      </c>
+      <c r="AL35" s="1"/>
+      <c r="AM35" s="1"/>
+      <c r="AN35" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="AO35" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="AP35" s="7">
+        <v>12341</v>
+      </c>
+      <c r="AQ35" s="7">
+        <v>22222</v>
+      </c>
+      <c r="AR35" s="1"/>
+      <c r="AS35" s="1"/>
+    </row>
+    <row r="36" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="59" t="s">
+        <v>380</v>
+      </c>
+      <c r="B36" s="60"/>
+      <c r="C36" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+      <c r="AA36" s="1"/>
+      <c r="AB36" s="1"/>
+      <c r="AC36" s="1"/>
+      <c r="AD36" s="1"/>
+      <c r="AE36" s="1"/>
+      <c r="AF36" s="1"/>
+      <c r="AG36" s="1"/>
+      <c r="AH36" s="1"/>
+      <c r="AI36" s="1"/>
+      <c r="AJ36" s="1"/>
+      <c r="AK36" s="1"/>
+      <c r="AL36" s="1"/>
+      <c r="AM36" s="1"/>
+      <c r="AN36" s="1"/>
+      <c r="AO36" s="1"/>
+      <c r="AP36" s="7"/>
+      <c r="AQ36" s="7"/>
+      <c r="AR36" s="1"/>
+      <c r="AS36" s="1"/>
+    </row>
+    <row r="37" spans="1:45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="59" t="s">
+        <v>381</v>
+      </c>
+      <c r="B37" s="60"/>
+      <c r="C37" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="M42" s="1"/>
-    </row>
-    <row r="43" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="M43" s="1"/>
-    </row>
-    <row r="44" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="M44" s="1"/>
-    </row>
-    <row r="45" spans="1:44" x14ac:dyDescent="0.25">
-      <c r="M45" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+      <c r="AA37" s="1"/>
+      <c r="AB37" s="1"/>
+      <c r="AC37" s="1"/>
+      <c r="AD37" s="1"/>
+      <c r="AE37" s="1"/>
+      <c r="AF37" s="1"/>
+      <c r="AG37" s="1"/>
+      <c r="AH37" s="1"/>
+      <c r="AI37" s="1"/>
+      <c r="AJ37" s="1"/>
+      <c r="AK37" s="1"/>
+      <c r="AL37" s="1"/>
+      <c r="AM37" s="1"/>
+      <c r="AN37" s="1"/>
+      <c r="AO37" s="1"/>
+      <c r="AP37" s="7"/>
+      <c r="AQ37" s="7"/>
+      <c r="AR37" s="1"/>
+      <c r="AS37" s="1"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:P37">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="yes"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A2:O40">
+      <sortCondition ref="A2:A40"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A2:O35">
+    <sortCondition ref="A2:A35"/>
+  </sortState>
   <hyperlinks>
-    <hyperlink ref="U6" r:id="rId1"/>
-    <hyperlink ref="U10" r:id="rId2"/>
-    <hyperlink ref="Q5" r:id="rId3" display="Biswanath@54321"/>
-    <hyperlink ref="U5" r:id="rId4"/>
-    <hyperlink ref="U11:U26" r:id="rId5" display="talk2mahapatra@gmail.com"/>
-    <hyperlink ref="U14" r:id="rId6"/>
-    <hyperlink ref="U2" r:id="rId7"/>
-    <hyperlink ref="U4" r:id="rId8"/>
-    <hyperlink ref="U3" r:id="rId9"/>
-    <hyperlink ref="U27" r:id="rId10"/>
-    <hyperlink ref="U28" r:id="rId11"/>
-    <hyperlink ref="U29" r:id="rId12"/>
-    <hyperlink ref="U30" r:id="rId13"/>
-    <hyperlink ref="U31" r:id="rId14"/>
-    <hyperlink ref="U32" r:id="rId15"/>
-    <hyperlink ref="U33" r:id="rId16"/>
+    <hyperlink ref="V6" r:id="rId1"/>
+    <hyperlink ref="V10" r:id="rId2"/>
+    <hyperlink ref="R5" r:id="rId3" display="Biswanath@54321"/>
+    <hyperlink ref="V5" r:id="rId4"/>
+    <hyperlink ref="V11:V21" r:id="rId5" display="talk2mahapatra@gmail.com"/>
+    <hyperlink ref="V2" r:id="rId6"/>
+    <hyperlink ref="V4" r:id="rId7"/>
+    <hyperlink ref="V3" r:id="rId8"/>
+    <hyperlink ref="V23" r:id="rId9"/>
+    <hyperlink ref="V24" r:id="rId10"/>
+    <hyperlink ref="V25" r:id="rId11"/>
+    <hyperlink ref="V26" r:id="rId12"/>
+    <hyperlink ref="V29" r:id="rId13"/>
+    <hyperlink ref="V30" r:id="rId14"/>
+    <hyperlink ref="V31" r:id="rId15"/>
+    <hyperlink ref="V34" r:id="rId16"/>
+    <hyperlink ref="V12:V20" r:id="rId17" display="talk2mahapatra@gmail.com"/>
+    <hyperlink ref="V12" r:id="rId18"/>
+    <hyperlink ref="V28" r:id="rId19"/>
+    <hyperlink ref="V19" r:id="rId20"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
   <tableParts count="1">
-    <tablePart r:id="rId18"/>
+    <tablePart r:id="rId22"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7105,510 +7449,510 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="127.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="127.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="16" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="B14" s="17" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B16" s="17" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="B17" s="17" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B18" s="15" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B19" s="17" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="16" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="B20" s="17" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="B21" s="15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="B22" s="15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="B26" s="15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="76.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="255" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="16" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
       <c r="B28" s="17" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="63.75" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="16" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="114.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="B33" s="18" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="140.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="204" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="B36" s="19"/>
     </row>
     <row r="37" spans="1:2" ht="25.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="242.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="178.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="B39" s="18" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="280.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="127.5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="102" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="18" t="s">
-        <v>192</v>
+        <v>180</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="63.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
-        <v>196</v>
+        <v>184</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>197</v>
+        <v>185</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="16" t="s">
-        <v>199</v>
+        <v>187</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
-        <v>200</v>
+        <v>188</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="16" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" s="16" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="242.25" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="16" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="B58" s="17" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="204" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
       <c r="B59" s="19" t="s">
-        <v>208</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="216.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16" t="s">
-        <v>209</v>
+        <v>197</v>
       </c>
       <c r="B60" s="19" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
-        <v>211</v>
+        <v>199</v>
       </c>
       <c r="B61" s="19" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="165.75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="16" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="B62" s="17" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="B63" s="19" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
